--- a/result.xlsx
+++ b/result.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 7, 13), licenciamento=False, data_assinatura=datetime.date(2022, 10, 27), aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='5377d371-d3ae-4b81-a206-813d0fb02096', datafinal_vigencia=datetime.date(2025, 1, 31), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='5377d371-d3ae-4b81-a206-813d0fb02096', datafinal_vigencia=datetime.date(2025, 1, 31), aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2022, 10, 27), datainicial_vigencia=datetime.date(2022, 7, 13), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 7, 20), licenciamento=False, data_assinatura=datetime.date(2022, 7, 13), aprovacao_assembleia=False, id_documento_original=None, id='6dff8d42-192d-4845-b4e8-99738b084dfd', datafinal_vigencia=datetime.date(2025, 1, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='6dff8d42-192d-4845-b4e8-99738b084dfd', datafinal_vigencia=datetime.date(2025, 1, 20), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 7, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -502,7 +502,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 8, 31), licenciamento=False, data_assinatura=datetime.date(2022, 9, 14), aprovacao_assembleia=False, id_documento_original=None, id='7ec89896-f33a-4dca-af86-473a2ed543a0', datafinal_vigencia=datetime.date(2023, 8, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='7ec89896-f33a-4dca-af86-473a2ed543a0', datafinal_vigencia=datetime.date(2023, 8, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 14), datainicial_vigencia=datetime.date(2022, 8, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='b1f8c600-5d7e-492f-b6da-6f9f2a825cb2', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='b1f8c600-5d7e-492f-b6da-6f9f2a825cb2', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='a0e1b51e-6d49-43c9-8855-c97d6c699024', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a0e1b51e-6d49-43c9-8855-c97d6c699024', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 3, 20), aprovacao_assembleia=False, id_documento_original=None, id='5ef94598-2fec-46b6-a4f0-50bc49a16f58', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5ef94598-2fec-46b6-a4f0-50bc49a16f58', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 3, 20), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -590,7 +590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 7), aprovacao_assembleia=False, id_documento_original=None, id='2d913af0-c754-4d92-bfce-c2b2b01060e4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2d913af0-c754-4d92-bfce-c2b2b01060e4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 22), aprovacao_assembleia=False, id_documento_original=None, id='ca8342e7-a48b-498c-a9a4-407f29a92b98', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ca8342e7-a48b-498c-a9a4-407f29a92b98', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='6c07df2d-53fb-4732-9d25-531e724fb05e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='6c07df2d-53fb-4732-9d25-531e724fb05e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,7 +656,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 21), aprovacao_assembleia=False, id_documento_original=None, id='0f9a1769-901f-4c0c-95e9-be1ad0ba07fe', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0f9a1769-901f-4c0c-95e9-be1ad0ba07fe', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='65d98bc1-dfd3-4f1f-b4a2-ee0d1dcf81bb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='65d98bc1-dfd3-4f1f-b4a2-ee0d1dcf81bb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 19), aprovacao_assembleia=False, id_documento_original=None, id='018d4b2c-3fa2-42e5-a3ef-7c800eb51c94', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='018d4b2c-3fa2-42e5-a3ef-7c800eb51c94', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original='fa58c97f-8376-4b35-9b1a-483fd8b31410', id='6f3d9e3d-9f03-4dbc-a36b-b6f2c94ba008', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='6f3d9e3d-9f03-4dbc-a36b-b6f2c94ba008', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fa58c97f-8376-4b35-9b1a-483fd8b31410', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='1ea3584d-4ba3-408a-b3d4-9a4807c12fc9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='1ea3584d-4ba3-408a-b3d4-9a4807c12fc9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=True, data_assinatura=datetime.date(2022, 9, 29), aprovacao_assembleia=False, id_documento_original=None, id='aa47e849-ecd7-4e1f-99b6-a1a606f07a4a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, id='aa47e849-ecd7-4e1f-99b6-a1a606f07a4a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 1), aprovacao_assembleia=False, id_documento_original=None, id='2670419a-8878-479e-9318-11d769e5166d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2670419a-8878-479e-9318-11d769e5166d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=True, data_assinatura=datetime.date(2023, 6, 22), aprovacao_assembleia=False, id_documento_original=None, id='98ad4f76-37ab-42ed-983b-9d15836d0dc4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, id='98ad4f76-37ab-42ed-983b-9d15836d0dc4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='f74856ad-866e-4e59-95cd-644b992005f5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f74856ad-866e-4e59-95cd-644b992005f5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 7), aprovacao_assembleia=False, id_documento_original=None, id='2332cb59-f317-4e26-9582-765da815e73e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2332cb59-f317-4e26-9582-765da815e73e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 15), aprovacao_assembleia=False, id_documento_original=None, id='37c3aae7-eb4c-4d40-8b4a-6985eea9fc53', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='37c3aae7-eb4c-4d40-8b4a-6985eea9fc53', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2021, 9, 13), aprovacao_assembleia=False, id_documento_original=None, id='24360308-6061-445f-a430-f1b7b152421e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='24360308-6061-445f-a430-f1b7b152421e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2021, 9, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 14), aprovacao_assembleia=False, id_documento_original='7b2d61d5-a9f6-49c9-9b01-1b4f4dfbf15f', id='7ca47023-8c2f-41d9-a3d7-348188e3a01a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='7ca47023-8c2f-41d9-a3d7-348188e3a01a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='7b2d61d5-a9f6-49c9-9b01-1b4f4dfbf15f', data_assinatura=datetime.date(2023, 6, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 6, 9), licenciamento=False, data_assinatura=datetime.date(2022, 6, 9), aprovacao_assembleia=False, id_documento_original=None, id='07557baf-e641-452a-80dc-492a6a79f4cb', datafinal_vigencia=datetime.date(2024, 6, 9), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='07557baf-e641-452a-80dc-492a6a79f4cb', datafinal_vigencia=datetime.date(2024, 6, 9), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 9), datainicial_vigencia=datetime.date(2022, 6, 9), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 22), aprovacao_assembleia=False, id_documento_original='24948b38-f798-48db-8ff0-4b612fbcd0af', id='c0536556-5be6-4e70-a4d7-26daba017a0f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='c0536556-5be6-4e70-a4d7-26daba017a0f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='24948b38-f798-48db-8ff0-4b612fbcd0af', data_assinatura=datetime.date(2023, 8, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -986,7 +986,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 8, 4), licenciamento=False, data_assinatura=datetime.date(2022, 8, 4), aprovacao_assembleia=False, id_documento_original=None, id='0a4429eb-9dfd-4dab-9f9d-424cd964e9b0', datafinal_vigencia=datetime.date(2027, 8, 4), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0a4429eb-9dfd-4dab-9f9d-424cd964e9b0', datafinal_vigencia=datetime.date(2027, 8, 4), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 4), datainicial_vigencia=datetime.date(2022, 8, 4), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 11), aprovacao_assembleia=False, id_documento_original=None, id='de4171d1-931e-44dc-82f3-9688bf634117', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='de4171d1-931e-44dc-82f3-9688bf634117', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 7), aprovacao_assembleia=False, id_documento_original=None, id='f0c2d99b-4a53-4064-81f2-0fe1d5c6323c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f0c2d99b-4a53-4064-81f2-0fe1d5c6323c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 3, 7), licenciamento=False, data_assinatura=datetime.date(2022, 3, 7), aprovacao_assembleia=False, id_documento_original=None, id='e8d6fca0-f1be-45b7-9a16-37c918344563', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='e8d6fca0-f1be-45b7-9a16-37c918344563', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 7), datainicial_vigencia=datetime.date(2022, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original=None, id='87c74b3a-f4e3-49c3-9f10-a3be471e056f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='87c74b3a-f4e3-49c3-9f10-a3be471e056f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 24), aprovacao_assembleia=False, id_documento_original='4af5bdb5-0e31-49d2-8ab1-205d82ea1ccd', id='3a009c38-937c-46cf-8878-29046eef4c80', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='3a009c38-937c-46cf-8878-29046eef4c80', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='4af5bdb5-0e31-49d2-8ab1-205d82ea1ccd', data_assinatura=datetime.date(2023, 10, 24), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 3), aprovacao_assembleia=False, id_documento_original=None, id='f8e9f77e-e21c-41dc-aa0a-704bc96358e3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f8e9f77e-e21c-41dc-aa0a-704bc96358e3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 11, 7), licenciamento=False, data_assinatura=datetime.date(2022, 11, 7), aprovacao_assembleia=False, id_documento_original=None, id='e30e8949-8339-4ee1-b8eb-c8ea95d49434', datafinal_vigencia=datetime.date(2027, 11, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='e30e8949-8339-4ee1-b8eb-c8ea95d49434', datafinal_vigencia=datetime.date(2027, 11, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 7), datainicial_vigencia=datetime.date(2022, 11, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 21), aprovacao_assembleia=False, id_documento_original=None, id='eb69f294-5342-42c1-8d5c-f8c9948c1daf', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='eb69f294-5342-42c1-8d5c-f8c9948c1daf', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1184,7 +1184,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='27521936-ff2b-418b-b768-95f09d674d0e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='27521936-ff2b-418b-b768-95f09d674d0e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 26), aprovacao_assembleia=False, id_documento_original=None, id='9cbdfe56-3533-4104-89ea-12c6c8113b53', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='9cbdfe56-3533-4104-89ea-12c6c8113b53', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 26), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', id='1bd7543f-ee16-4473-9585-0117189d560f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='1bd7543f-ee16-4473-9585-0117189d560f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='0507c683-bf9b-498f-9aa9-10457f8de06b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0507c683-bf9b-498f-9aa9-10457f8de06b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 16), aprovacao_assembleia=False, id_documento_original=None, id='53a6bb71-7c30-4220-a316-b03b24cab5c2', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='53a6bb71-7c30-4220-a316-b03b24cab5c2', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='a9209a80-4e93-4309-a8a8-ef3eb3a48166', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a9209a80-4e93-4309-a8a8-ef3eb3a48166', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='91fa346d-014f-4e69-9da4-d3b9b699d4bf', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='91fa346d-014f-4e69-9da4-d3b9b699d4bf', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='41698f3b-c4cb-4818-928c-3469b8ecb15d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='41698f3b-c4cb-4818-928c-3469b8ecb15d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), aprovacao_assembleia=False, id_documento_original='ac73c21b-2bcc-4659-8ede-d1ff807b646d', id='3d108223-9529-45d7-a3c6-099cc6856e7c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='3d108223-9529-45d7-a3c6-099cc6856e7c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='ac73c21b-2bcc-4659-8ede-d1ff807b646d', data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1382,7 +1382,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='c143a9fa-2099-4de0-ac64-b5c60727ba6d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c143a9fa-2099-4de0-ac64-b5c60727ba6d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 14), aprovacao_assembleia=False, id_documento_original='89c9df8c-b1e5-4115-93eb-76da3296d15c', id='9ae4be42-dbac-4abb-92e1-033c36477ffd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='9ae4be42-dbac-4abb-92e1-033c36477ffd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='89c9df8c-b1e5-4115-93eb-76da3296d15c', data_assinatura=datetime.date(2023, 6, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1426,7 +1426,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='aa47e757-9a49-489a-814e-6ede55a110ca', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='aa47e757-9a49-489a-814e-6ede55a110ca', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 5), aprovacao_assembleia=False, id_documento_original='290f7813-1d0d-453b-9395-30e25860b57f', id='230c92ee-4134-4417-9c2a-c6a7c9bebfb6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='230c92ee-4134-4417-9c2a-c6a7c9bebfb6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='290f7813-1d0d-453b-9395-30e25860b57f', data_assinatura=datetime.date(2022, 9, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 21), aprovacao_assembleia=False, id_documento_original=None, id='c1bb7ee9-ef92-4193-85f3-2864f6bb1b84', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c1bb7ee9-ef92-4193-85f3-2864f6bb1b84', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='0f5f9dd7-3786-4830-8ce1-af94b0dcc8e8', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0f5f9dd7-3786-4830-8ce1-af94b0dcc8e8', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1514,7 +1514,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='fd47a614-b42b-4413-bf53-6ef5faf049e5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='fd47a614-b42b-4413-bf53-6ef5faf049e5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 5, 20), aprovacao_assembleia=False, id_documento_original='c693cb2d-498f-48a4-900a-d115e41df904', id='e36d4016-f232-4ecb-be16-1ace268d5c66', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='e36d4016-f232-4ecb-be16-1ace268d5c66', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='c693cb2d-498f-48a4-900a-d115e41df904', data_assinatura=datetime.date(2022, 5, 20), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='c7f8d90e-a7f2-4f50-ab23-22f48bed0f52', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c7f8d90e-a7f2-4f50-ab23-22f48bed0f52', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1580,7 +1580,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 11, 7), aprovacao_assembleia=False, id_documento_original=None, id='2ee771c4-572f-47e1-863a-9f7ff23fc298', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2ee771c4-572f-47e1-863a-9f7ff23fc298', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1602,7 +1602,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 11, 10), aprovacao_assembleia=False, id_documento_original=None, id='565701ac-1349-409f-8d58-f64d5f8e8bcb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='565701ac-1349-409f-8d58-f64d5f8e8bcb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='3f1a22c7-e61e-46bb-867a-5f937d5bf1d6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3f1a22c7-e61e-46bb-867a-5f937d5bf1d6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 11, 10), aprovacao_assembleia=False, id_documento_original='2863fbf1-5c25-4b2d-8c6a-5617ebf91672', id='43d3c7c3-1554-4956-ad66-a20640c61f2c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='43d3c7c3-1554-4956-ad66-a20640c61f2c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='2863fbf1-5c25-4b2d-8c6a-5617ebf91672', data_assinatura=datetime.date(2022, 11, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 19), aprovacao_assembleia=False, id_documento_original=None, id='49835752-0a8d-49f1-9027-525ecd883b59', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='49835752-0a8d-49f1-9027-525ecd883b59', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), aprovacao_assembleia=False, id_documento_original=None, id='8ef86e7b-64c4-4de9-b35f-c65d294bd5bb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='8ef86e7b-64c4-4de9-b35f-c65d294bd5bb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 5), aprovacao_assembleia=False, id_documento_original='f1af0ebd-c8fb-4cef-a53f-625ba9b50366', id='31ce6c1c-8efb-450f-b397-df2ea0eed4df', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='31ce6c1c-8efb-450f-b397-df2ea0eed4df', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f1af0ebd-c8fb-4cef-a53f-625ba9b50366', data_assinatura=datetime.date(2022, 10, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1734,7 +1734,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 1), aprovacao_assembleia=False, id_documento_original=None, id='9f169c55-e1cd-40e7-b3f2-73503e500e18', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='9f169c55-e1cd-40e7-b3f2-73503e500e18', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original=None, id='e009de34-161c-40e5-b14f-c894fe8cf594', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='e009de34-161c-40e5-b14f-c894fe8cf594', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1778,7 +1778,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 17), aprovacao_assembleia=False, id_documento_original=None, id='381fe050-f3aa-44f8-b0f6-88d558715b4a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='381fe050-f3aa-44f8-b0f6-88d558715b4a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original='97886a13-251c-48cb-9875-fe6292815a9c', id='720e35c7-8544-49a0-bf27-c07463396133', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='720e35c7-8544-49a0-bf27-c07463396133', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='97886a13-251c-48cb-9875-fe6292815a9c', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1822,7 +1822,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2023, 3, 29), licenciamento=False, data_assinatura=datetime.date(2023, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='a73fbeef-3eee-4be3-951a-676e8427fd04', datafinal_vigencia=datetime.date(2028, 3, 29), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a73fbeef-3eee-4be3-951a-676e8427fd04', datafinal_vigencia=datetime.date(2028, 3, 29), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 3, 29), datainicial_vigencia=datetime.date(2023, 3, 29), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 6), aprovacao_assembleia=False, id_documento_original='7ce911a0-afc3-4f49-869d-5e081bed8f87', id='a4789816-ccf1-48f0-a5bc-4af44c9ec28b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='a4789816-ccf1-48f0-a5bc-4af44c9ec28b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='7ce911a0-afc3-4f49-869d-5e081bed8f87', data_assinatura=datetime.date(2023, 12, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='d87c5934-ecc0-40f7-940d-3151c70b538a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d87c5934-ecc0-40f7-940d-3151c70b538a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='02a703cc-7fc5-4d0c-b8d4-45b8a7442db7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='02a703cc-7fc5-4d0c-b8d4-45b8a7442db7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='570e2300-119e-40a9-b98d-ddae936ab6b0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='570e2300-119e-40a9-b98d-ddae936ab6b0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='4d8b65f3-f977-4769-9313-304c3789520d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4d8b65f3-f977-4769-9313-304c3789520d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1954,7 +1954,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 3, 17), aprovacao_assembleia=False, id_documento_original='df56e76f-1e6c-4135-a9bf-13b5155353d5', id='a22743c5-3696-4daf-9568-077a92f31f12', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='a22743c5-3696-4daf-9568-077a92f31f12', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='df56e76f-1e6c-4135-a9bf-13b5155353d5', data_assinatura=datetime.date(2023, 3, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 13), aprovacao_assembleia=False, id_documento_original='4c286726-da6c-4ee0-a13f-df8540251430', id='581a650f-cba9-4713-9219-83dd7720e636', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='581a650f-cba9-4713-9219-83dd7720e636', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='4c286726-da6c-4ee0-a13f-df8540251430', data_assinatura=datetime.date(2023, 11, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='273a2f24-cf93-4c3f-8a16-f85ae09c4398', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='273a2f24-cf93-4c3f-8a16-f85ae09c4398', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 1, 30), aprovacao_assembleia=False, id_documento_original=None, id='49b931a2-0745-4d21-8ee5-01fc4a27f452', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='49b931a2-0745-4d21-8ee5-01fc4a27f452', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 30), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2042,7 +2042,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), aprovacao_assembleia=False, id_documento_original=None, id='a82d89a2-7e99-4a73-8477-616cfe776914', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a82d89a2-7e99-4a73-8477-616cfe776914', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2023, 6, 1), licenciamento=False, data_assinatura=datetime.date(2023, 6, 1), aprovacao_assembleia=False, id_documento_original=None, id='d25d5569-8175-4dc5-a5a3-13e96f1c5742', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d25d5569-8175-4dc5-a5a3-13e96f1c5742', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 1), datainicial_vigencia=datetime.date(2023, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2086,7 +2086,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), aprovacao_assembleia=False, id_documento_original=None, id='edfff96e-86f5-4039-bab7-3cdc7c40b16c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='edfff96e-86f5-4039-bab7-3cdc7c40b16c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 23), aprovacao_assembleia=False, id_documento_original=None, id='815de009-4582-4080-a2e2-605b25ae62a5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='815de009-4582-4080-a2e2-605b25ae62a5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 26), aprovacao_assembleia=False, id_documento_original='13fc76c6-1e05-4b6f-958f-74ccd4a488a2', id='629781e5-2619-4f55-9473-dffb5dafdfb0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='629781e5-2619-4f55-9473-dffb5dafdfb0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='13fc76c6-1e05-4b6f-958f-74ccd4a488a2', data_assinatura=datetime.date(2023, 6, 26), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 8), aprovacao_assembleia=False, id_documento_original='1195f073-edf6-4e0b-b0bd-805b0976b6dd', id='dcfcafdb-a0fa-4fd4-ad60-733a198a2a64', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='dcfcafdb-a0fa-4fd4-ad60-733a198a2a64', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1195f073-edf6-4e0b-b0bd-805b0976b6dd', data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2174,7 +2174,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 1), aprovacao_assembleia=False, id_documento_original=None, id='3a0dcb18-7243-4b19-9c6f-84e3e7ba8c29', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3a0dcb18-7243-4b19-9c6f-84e3e7ba8c29', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 8, 1), aprovacao_assembleia=False, id_documento_original='2a837eb9-b0ef-4f0c-a0ec-9ce69d720326', id='d0675144-4ea4-4307-bef4-da267ff6ace7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='d0675144-4ea4-4307-bef4-da267ff6ace7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='2a837eb9-b0ef-4f0c-a0ec-9ce69d720326', data_assinatura=datetime.date(2022, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2218,7 +2218,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 7, 10), aprovacao_assembleia=False, id_documento_original='7be1f47b-b85d-4a8d-b14a-3d915eaa87a8', id='9fc5de31-88f2-4c35-8291-935f66f151e4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='9fc5de31-88f2-4c35-8291-935f66f151e4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='7be1f47b-b85d-4a8d-b14a-3d915eaa87a8', data_assinatura=datetime.date(2023, 7, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2240,7 +2240,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2023, 1, 11), licenciamento=False, data_assinatura=datetime.date(2023, 1, 11), aprovacao_assembleia=False, id_documento_original=None, id='e17057dd-7316-45dd-8506-2417ad3f9dc6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='e17057dd-7316-45dd-8506-2417ad3f9dc6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 11), datainicial_vigencia=datetime.date(2023, 1, 11), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original=None, id='1123c7d7-e0d2-408b-85fc-2c83547d8c43', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='1123c7d7-e0d2-408b-85fc-2c83547d8c43', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), aprovacao_assembleia=False, id_documento_original=None, id='c845fb46-1733-4e52-b0ab-7c164aae81cd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c845fb46-1733-4e52-b0ab-7c164aae81cd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2306,7 +2306,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='d7f4a04c-8afe-4b85-bf8e-dd9ad00c812a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d7f4a04c-8afe-4b85-bf8e-dd9ad00c812a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 12, 21), licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), aprovacao_assembleia=False, id_documento_original=None, id='7cb5eb60-0b33-4a74-97ca-665b02badc7c', datafinal_vigencia=datetime.date(2024, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='7cb5eb60-0b33-4a74-97ca-665b02badc7c', datafinal_vigencia=datetime.date(2024, 12, 21), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=datetime.date(2022, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2350,7 +2350,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='aa5c1e88-614a-4d37-bb6d-cec90b353161', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='aa5c1e88-614a-4d37-bb6d-cec90b353161', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=True, data_assinatura=datetime.date(2023, 8, 8), aprovacao_assembleia=False, id_documento_original='d38902d1-d0c2-4f0a-85aa-26a9f00e26ab', id='ed95686b-f4d6-4cda-8eca-5f991ce92b91', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=True, id='ed95686b-f4d6-4cda-8eca-5f991ce92b91', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d38902d1-d0c2-4f0a-85aa-26a9f00e26ab', data_assinatura=datetime.date(2023, 8, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2394,7 +2394,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), aprovacao_assembleia=False, id_documento_original=None, id='5d66a138-0bb2-4335-920c-37a4ff38a58c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5d66a138-0bb2-4335-920c-37a4ff38a58c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 2), aprovacao_assembleia=False, id_documento_original=None, id='94576d4e-1896-418c-bf43-1071c04a886d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='94576d4e-1896-418c-bf43-1071c04a886d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 2), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 11), aprovacao_assembleia=False, id_documento_original=None, id='6cd960ff-12a6-4747-b33f-7cdbc5e767e7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='6cd960ff-12a6-4747-b33f-7cdbc5e767e7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='baefebd7-5684-4efa-a787-30173b925d73', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='baefebd7-5684-4efa-a787-30173b925d73', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2482,7 +2482,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 6, 6), licenciamento=False, data_assinatura=datetime.date(2022, 6, 6), aprovacao_assembleia=False, id_documento_original=None, id='6ec0cadb-2ed6-4017-95b4-b2ca5c39eea3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='6ec0cadb-2ed6-4017-95b4-b2ca5c39eea3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 6), datainicial_vigencia=datetime.date(2022, 6, 6), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 15), aprovacao_assembleia=False, id_documento_original=None, id='65d9a328-df71-4cc1-ac24-b707e7c68952', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='65d9a328-df71-4cc1-ac24-b707e7c68952', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 3, 7), licenciamento=False, data_assinatura=datetime.date(2022, 3, 7), aprovacao_assembleia=False, id_documento_original=None, id='0e5d51b1-1a12-484e-abdf-128bd0c03282', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0e5d51b1-1a12-484e-abdf-128bd0c03282', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 7), datainicial_vigencia=datetime.date(2022, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='a8b73d5b-a96a-4eb2-ae44-6f2116d73be0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a8b73d5b-a96a-4eb2-ae44-6f2116d73be0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2570,7 +2570,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 9), aprovacao_assembleia=False, id_documento_original=None, id='1263ca3e-3bee-4298-91a7-0eea0ee6390d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='1263ca3e-3bee-4298-91a7-0eea0ee6390d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 9), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2592,7 +2592,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 15), aprovacao_assembleia=False, id_documento_original=None, id='2bf0b158-3740-4e4a-a3d3-80551f837b3b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2bf0b158-3740-4e4a-a3d3-80551f837b3b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 1, 1), aprovacao_assembleia=False, id_documento_original='bf8e6b2b-e3fc-47d9-98ab-c386a7621618', id='a5a52d04-d63a-4823-a8aa-038e2d2fb694', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='a5a52d04-d63a-4823-a8aa-038e2d2fb694', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='bf8e6b2b-e3fc-47d9-98ab-c386a7621618', data_assinatura=datetime.date(2023, 1, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2636,7 +2636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 3, 7), licenciamento=False, data_assinatura=datetime.date(2022, 3, 7), aprovacao_assembleia=False, id_documento_original=None, id='477daf5c-56ff-444f-8f0d-e9585f342a24', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='477daf5c-56ff-444f-8f0d-e9585f342a24', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 7), datainicial_vigencia=datetime.date(2022, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 7, 5), aprovacao_assembleia=False, id_documento_original=None, id='c67a569e-e08d-4b29-afdf-f9d294e5156c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c67a569e-e08d-4b29-afdf-f9d294e5156c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2023, 5, 18), licenciamento=False, data_assinatura=datetime.date(2023, 6, 2), aprovacao_assembleia=False, id_documento_original='e204c2d4-dbbf-4422-bd37-66a386af05a5', id='69a312a4-fadc-40a9-ac54-9602eba40252', datafinal_vigencia=datetime.date(2023, 8, 31), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='69a312a4-fadc-40a9-ac54-9602eba40252', datafinal_vigencia=datetime.date(2023, 8, 31), aprovacao_assembleia=False, id_documento_original='e204c2d4-dbbf-4422-bd37-66a386af05a5', data_assinatura=datetime.date(2023, 6, 2), datainicial_vigencia=datetime.date(2023, 5, 18), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2702,7 +2702,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='4545f791-3aaa-4ed5-8d8e-3479c925affa', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4545f791-3aaa-4ed5-8d8e-3479c925affa', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 4, 10), aprovacao_assembleia=False, id_documento_original=None, id='d57ab4e3-4a5d-4b40-93bc-c18b36fae382', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d57ab4e3-4a5d-4b40-93bc-c18b36fae382', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2746,7 +2746,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 30), aprovacao_assembleia=False, id_documento_original=None, id='eda826b1-69e3-4224-83ec-4c47dd822cdd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='eda826b1-69e3-4224-83ec-4c47dd822cdd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 30), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 1), aprovacao_assembleia=False, id_documento_original=None, id='8d708957-d264-4965-90ad-8241ef1a03b5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='8d708957-d264-4965-90ad-8241ef1a03b5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2790,7 +2790,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 22), aprovacao_assembleia=False, id_documento_original=None, id='b7c80445-404d-43cf-a78e-38be7401c1f4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='b7c80445-404d-43cf-a78e-38be7401c1f4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 6), aprovacao_assembleia=False, id_documento_original=None, id='2505cffa-e968-413a-9790-a47dfd9e7bde', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2505cffa-e968-413a-9790-a47dfd9e7bde', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2834,7 +2834,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 9, 19), licenciamento=False, data_assinatura=datetime.date(2022, 9, 19), aprovacao_assembleia=False, id_documento_original=None, id='9b57b447-0189-4205-8d08-504578502a49', datafinal_vigencia=datetime.date(2032, 9, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='9b57b447-0189-4205-8d08-504578502a49', datafinal_vigencia=datetime.date(2032, 9, 19), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 19), datainicial_vigencia=datetime.date(2022, 9, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 22), aprovacao_assembleia=False, id_documento_original=None, id='3b4abda4-abbf-4a42-9385-2fb8565bbd5c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3b4abda4-abbf-4a42-9385-2fb8565bbd5c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=True, data_assinatura=datetime.date(2023, 1, 26), aprovacao_assembleia=False, id_documento_original=None, id='4b2ce328-1dcd-427c-8d90-5a7c0c45f98b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, id='4b2ce328-1dcd-427c-8d90-5a7c0c45f98b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 26), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2900,7 +2900,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 8), aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', id='f3bc86be-2a40-41b2-aaa9-0bd82f88ec23', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='f3bc86be-2a40-41b2-aaa9-0bd82f88ec23', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2922,7 +2922,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), aprovacao_assembleia=False, id_documento_original=None, id='f08a11f0-fbf7-44ca-8d69-032832c7930c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f08a11f0-fbf7-44ca-8d69-032832c7930c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original=None, id='641e6ea6-acb8-4ed5-958a-55aee82f119d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='641e6ea6-acb8-4ed5-958a-55aee82f119d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2966,7 +2966,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='a7ba1f22-9b14-4c58-b96b-32a5513f3521', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a7ba1f22-9b14-4c58-b96b-32a5513f3521', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 9), aprovacao_assembleia=False, id_documento_original=None, id='4c301c26-e45a-43fa-9c27-c8c5acf6e866', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4c301c26-e45a-43fa-9c27-c8c5acf6e866', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 9), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3010,7 +3010,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='a0886e4b-e22b-4a7c-90bb-3dfee73c244b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a0886e4b-e22b-4a7c-90bb-3dfee73c244b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3032,7 +3032,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='623529ba-d4a7-449e-bad9-4ac17760635f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='623529ba-d4a7-449e-bad9-4ac17760635f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3054,7 +3054,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 13), aprovacao_assembleia=False, id_documento_original=None, id='25867dab-7264-4476-bf00-341576938179', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='25867dab-7264-4476-bf00-341576938179', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 19), aprovacao_assembleia=False, id_documento_original=None, id='38539fd3-9ad0-41b7-9eea-3ef34ad5470d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='38539fd3-9ad0-41b7-9eea-3ef34ad5470d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 8, 17), aprovacao_assembleia=False, id_documento_original=None, id='7dfef84d-10fb-43da-b31e-e68cdccf4b39', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='7dfef84d-10fb-43da-b31e-e68cdccf4b39', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3120,7 +3120,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 14), aprovacao_assembleia=False, id_documento_original=None, id='b7c58950-ff60-41df-8692-2b1185e1030e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='b7c58950-ff60-41df-8692-2b1185e1030e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3142,7 +3142,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 7, 1), aprovacao_assembleia=False, id_documento_original='74bff9f2-fa9c-4dea-a09f-f8ed5926f152', id='9484758e-d9e2-4096-b2f6-8f0b940565d3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='9484758e-d9e2-4096-b2f6-8f0b940565d3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='74bff9f2-fa9c-4dea-a09f-f8ed5926f152', data_assinatura=datetime.date(2023, 7, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3164,7 +3164,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 5, 1), licenciamento=False, data_assinatura=datetime.date(2022, 4, 25), aprovacao_assembleia=False, id_documento_original=None, id='1d516b18-4384-4f21-9b88-0d4bc4e33624', datafinal_vigencia=datetime.date(2023, 4, 30), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='1d516b18-4384-4f21-9b88-0d4bc4e33624', datafinal_vigencia=datetime.date(2023, 4, 30), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 25), datainicial_vigencia=datetime.date(2022, 5, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3186,7 +3186,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 30), aprovacao_assembleia=False, id_documento_original=None, id='233a5e4d-1514-4c89-b2c8-f2add17abf57', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='233a5e4d-1514-4c89-b2c8-f2add17abf57', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 30), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 7, 18), aprovacao_assembleia=False, id_documento_original=None, id='a976e390-d715-4d86-939a-616ab3526375', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a976e390-d715-4d86-939a-616ab3526375', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 18), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='6e256f51-aefa-4ecb-93b3-416d582a0c19', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='6e256f51-aefa-4ecb-93b3-416d582a0c19', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 5), aprovacao_assembleia=False, id_documento_original='1ab5d23d-5816-4f7a-9ef2-c99483056ef6', id='0d2c9a95-6f6c-42ed-b654-9f0932e575a3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='0d2c9a95-6f6c-42ed-b654-9f0932e575a3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1ab5d23d-5816-4f7a-9ef2-c99483056ef6', data_assinatura=datetime.date(2022, 12, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3274,7 +3274,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 5, 15), aprovacao_assembleia=False, id_documento_original=None, id='4caa8f6f-8e74-47c1-8bf9-91b03655ee51', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4caa8f6f-8e74-47c1-8bf9-91b03655ee51', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 5, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3296,7 +3296,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original='94b9d69f-806b-439e-8bd7-f7bb5f9c921f', id='50bce4c2-3e3f-479f-bacc-8f1545837705', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='50bce4c2-3e3f-479f-bacc-8f1545837705', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='94b9d69f-806b-439e-8bd7-f7bb5f9c921f', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), aprovacao_assembleia=False, id_documento_original=None, id='2085e528-80cb-4d09-a707-ac4f18a716dd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2085e528-80cb-4d09-a707-ac4f18a716dd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 2), aprovacao_assembleia=False, id_documento_original=None, id='4e3ca473-727b-4e93-a052-f8577d4307f9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4e3ca473-727b-4e93-a052-f8577d4307f9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 2), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3362,7 +3362,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 16), aprovacao_assembleia=False, id_documento_original=None, id='4f9c434f-ec4f-48f5-bb23-3f4d491e0c02', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4f9c434f-ec4f-48f5-bb23-3f4d491e0c02', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3384,7 +3384,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 1, 10), aprovacao_assembleia=False, id_documento_original=None, id='83008cb7-b98b-441e-900b-edf5ae6c6d09', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='83008cb7-b98b-441e-900b-edf5ae6c6d09', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 1, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3406,7 +3406,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 17), aprovacao_assembleia=False, id_documento_original=None, id='40cde989-a32c-4fd1-8f64-60afc5ecf50b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='40cde989-a32c-4fd1-8f64-60afc5ecf50b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3428,7 +3428,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 7, 10), aprovacao_assembleia=False, id_documento_original=None, id='ced74f5c-2b87-436f-bb94-de190faaf9ab', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ced74f5c-2b87-436f-bb94-de190faaf9ab', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3450,7 +3450,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='6e901968-9ce0-4970-a9cd-d10cad3cf756', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='6e901968-9ce0-4970-a9cd-d10cad3cf756', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='5b742920-e63f-4047-9a46-8c532d546bc5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5b742920-e63f-4047-9a46-8c532d546bc5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3494,7 +3494,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 4, 19), aprovacao_assembleia=False, id_documento_original='253e099a-adc0-459a-b086-bd76a41225c3', id='884b069c-179a-4379-bc55-5c96362bca66', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='884b069c-179a-4379-bc55-5c96362bca66', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='253e099a-adc0-459a-b086-bd76a41225c3', data_assinatura=datetime.date(2023, 4, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3516,7 +3516,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 6, 9), aprovacao_assembleia=False, id_documento_original=None, id='f335eb6c-dc2f-4e14-b8f2-259594e63529', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f335eb6c-dc2f-4e14-b8f2-259594e63529', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 9), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3538,7 +3538,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 22), aprovacao_assembleia=False, id_documento_original='7b2d61d5-a9f6-49c9-9b01-1b4f4dfbf15f', id='f1372846-f45a-45d7-910f-f96995dc0667', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='f1372846-f45a-45d7-910f-f96995dc0667', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='7b2d61d5-a9f6-49c9-9b01-1b4f4dfbf15f', data_assinatura=datetime.date(2023, 8, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3560,7 +3560,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 1), aprovacao_assembleia=False, id_documento_original=None, id='a8d713cb-086c-499e-8415-e4c552039d38', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a8d713cb-086c-499e-8415-e4c552039d38', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3582,7 +3582,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original='fa58c97f-8376-4b35-9b1a-483fd8b31410', id='b014460e-b86b-4e89-a75e-274af34e9dd5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='b014460e-b86b-4e89-a75e-274af34e9dd5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fa58c97f-8376-4b35-9b1a-483fd8b31410', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 12, 21), licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), aprovacao_assembleia=False, id_documento_original=None, id='a64516bd-36b4-4787-86cf-d4d53ed79f01', datafinal_vigencia=datetime.date(2027, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a64516bd-36b4-4787-86cf-d4d53ed79f01', datafinal_vigencia=datetime.date(2027, 12, 21), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=datetime.date(2022, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3626,7 +3626,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 1, 31), licenciamento=False, data_assinatura=datetime.date(2022, 7, 13), aprovacao_assembleia=False, id_documento_original=None, id='b21249a7-fe24-48e4-988a-72a1b5d1d6c7', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='b21249a7-fe24-48e4-988a-72a1b5d1d6c7', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 1, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3648,7 +3648,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 6, 1), licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='8e2cb3c2-b0e5-4aec-9ce3-12f63df8902f', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='8e2cb3c2-b0e5-4aec-9ce3-12f63df8902f', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3670,7 +3670,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 1, 31), licenciamento=False, data_assinatura=datetime.date(2022, 7, 13), aprovacao_assembleia=False, id_documento_original=None, id='be094997-3859-4dc1-bdd5-0bdb302dd6bd', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='be094997-3859-4dc1-bdd5-0bdb302dd6bd', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 1, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='a3c06b88-d87b-457f-a1ae-3e4191516ece', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a3c06b88-d87b-457f-a1ae-3e4191516ece', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3714,7 +3714,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='09bbdf34-9323-4175-9749-1330ac308026', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='09bbdf34-9323-4175-9749-1330ac308026', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='76572e4c-ea15-4b2c-bf04-ecada060b8df', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='76572e4c-ea15-4b2c-bf04-ecada060b8df', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3758,7 +3758,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 8), aprovacao_assembleia=False, id_documento_original=None, id='7712b218-e89a-4eb9-be40-b0be31488941', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='7712b218-e89a-4eb9-be40-b0be31488941', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3780,7 +3780,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 7, 10), aprovacao_assembleia=False, id_documento_original=None, id='b2d65b65-852f-4a85-ae9a-fa7506a29b03', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='b2d65b65-852f-4a85-ae9a-fa7506a29b03', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3802,7 +3802,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 11), aprovacao_assembleia=False, id_documento_original=None, id='328f6b0e-3e47-4e96-b96c-4561e2e755f4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='328f6b0e-3e47-4e96-b96c-4561e2e755f4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3824,7 +3824,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 7, 14), aprovacao_assembleia=False, id_documento_original=None, id='515e2eb7-a1bd-47cb-9a27-811c6ceae9ad', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='515e2eb7-a1bd-47cb-9a27-811c6ceae9ad', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3846,7 +3846,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='768f5011-7d44-4438-905a-549d6ed75d76', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='768f5011-7d44-4438-905a-549d6ed75d76', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), aprovacao_assembleia=False, id_documento_original=None, id='646aa960-a678-427b-823b-cee184a7ecc4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='646aa960-a678-427b-823b-cee184a7ecc4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3890,7 +3890,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 15), aprovacao_assembleia=False, id_documento_original=None, id='8a3cb9c8-9b62-495a-aaa3-6582b7fca959', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='8a3cb9c8-9b62-495a-aaa3-6582b7fca959', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3912,7 +3912,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='3f276e8e-49ac-412e-b9e6-7fb9f4760c10', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3f276e8e-49ac-412e-b9e6-7fb9f4760c10', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='753ca4b7-4c1a-43ec-a5e8-5f0b65d010eb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='753ca4b7-4c1a-43ec-a5e8-5f0b65d010eb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3956,7 +3956,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), aprovacao_assembleia=False, id_documento_original=None, id='5b9e842a-5b0b-4bd9-968b-0bc58b145354', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5b9e842a-5b0b-4bd9-968b-0bc58b145354', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3978,7 +3978,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 8, 2), aprovacao_assembleia=False, id_documento_original=None, id='4f503689-5052-4c9f-8221-bd346844a7cb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4f503689-5052-4c9f-8221-bd346844a7cb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 2), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 13), aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='4fb34269-7164-4202-978e-b0dae5aace15', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='4fb34269-7164-4202-978e-b0dae5aace15', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2023, 11, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4022,7 +4022,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='d4ce972c-c2fa-4d7d-867d-86b1b1b3bbca', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d4ce972c-c2fa-4d7d-867d-86b1b1b3bbca', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4044,7 +4044,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 1), aprovacao_assembleia=False, id_documento_original=None, id='f7d7ce6a-865e-4255-b433-3dfeb79a0fbf', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f7d7ce6a-865e-4255-b433-3dfeb79a0fbf', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4066,7 +4066,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 10, 6), licenciamento=False, data_assinatura=datetime.date(2022, 10, 6), aprovacao_assembleia=False, id_documento_original=None, id='d7f4cde0-cdb0-4846-827f-89dff1481b5f', datafinal_vigencia=datetime.date(2027, 10, 6), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d7f4cde0-cdb0-4846-827f-89dff1481b5f', datafinal_vigencia=datetime.date(2027, 10, 6), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 6), datainicial_vigencia=datetime.date(2022, 10, 6), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4088,7 +4088,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 6, 1), licenciamento=False, data_assinatura=datetime.date(2023, 5, 4), aprovacao_assembleia=False, id_documento_original='744e0527-868a-4619-a131-504fea5e5990', id='297f1e87-8d35-48aa-9f04-406585dc1255', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='297f1e87-8d35-48aa-9f04-406585dc1255', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original='744e0527-868a-4619-a131-504fea5e5990', data_assinatura=datetime.date(2023, 5, 4), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4110,7 +4110,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 4, 3), aprovacao_assembleia=False, id_documento_original=None, id='66e10b22-b177-42b7-bb04-3effaab52257', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='66e10b22-b177-42b7-bb04-3effaab52257', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4132,7 +4132,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 9, 19), licenciamento=False, data_assinatura=datetime.date(2022, 9, 19), aprovacao_assembleia=False, id_documento_original='df56e76f-1e6c-4135-a9bf-13b5155353d5', id='a5cb3b45-3ab9-4d93-966f-2459febc3506', datafinal_vigencia=datetime.date(2023, 9, 19), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='a5cb3b45-3ab9-4d93-966f-2459febc3506', datafinal_vigencia=datetime.date(2023, 9, 19), aprovacao_assembleia=False, id_documento_original='df56e76f-1e6c-4135-a9bf-13b5155353d5', data_assinatura=datetime.date(2022, 9, 19), datainicial_vigencia=datetime.date(2022, 9, 19), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4154,7 +4154,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 6), aprovacao_assembleia=False, id_documento_original=None, id='569e1934-2a78-4e8d-aa74-7e878c61c1e4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='569e1934-2a78-4e8d-aa74-7e878c61c1e4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), aprovacao_assembleia=False, id_documento_original='97886a13-251c-48cb-9875-fe6292815a9c', id='af7e5d7a-952b-402d-ac6e-7b33198f93ef', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='af7e5d7a-952b-402d-ac6e-7b33198f93ef', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='97886a13-251c-48cb-9875-fe6292815a9c', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4198,7 +4198,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 12, 21), licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), aprovacao_assembleia=False, id_documento_original=None, id='0cb665d5-f6c9-4e1f-af76-bba05093099b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0cb665d5-f6c9-4e1f-af76-bba05093099b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=datetime.date(2022, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='fdf870ba-a409-4e1b-9c71-128b9a307742', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='fdf870ba-a409-4e1b-9c71-128b9a307742', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4242,7 +4242,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 7), aprovacao_assembleia=False, id_documento_original='f57ea6f4-4b82-4359-940e-103549335c98', id='eb895425-dafc-42d8-ad12-66ed4d67cd4c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='eb895425-dafc-42d8-ad12-66ed4d67cd4c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f57ea6f4-4b82-4359-940e-103549335c98', data_assinatura=datetime.date(2022, 10, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 8), aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='ca84eaf0-4a51-4e54-b6ac-f5a8f88c8210', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='ca84eaf0-4a51-4e54-b6ac-f5a8f88c8210', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4286,7 +4286,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 1), aprovacao_assembleia=False, id_documento_original=None, id='0817808b-9c96-4b57-b6f4-e74457b32703', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0817808b-9c96-4b57-b6f4-e74457b32703', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='ef671e16-e658-4e96-813b-a052f32c8fdc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ef671e16-e658-4e96-813b-a052f32c8fdc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4330,7 +4330,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 1, 12), aprovacao_assembleia=False, id_documento_original='f1422a11-561c-40c6-8e20-13d9cd35ef96', id='d12aa1fe-99d8-42b3-b972-411eae1f4885', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='d12aa1fe-99d8-42b3-b972-411eae1f4885', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f1422a11-561c-40c6-8e20-13d9cd35ef96', data_assinatura=datetime.date(2023, 1, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4352,7 +4352,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 11, 20), aprovacao_assembleia=False, id_documento_original=None, id='b22fc145-a624-4e77-bd11-137b410e7b12', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='b22fc145-a624-4e77-bd11-137b410e7b12', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 20), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4374,7 +4374,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 10, 11), licenciamento=False, data_assinatura=datetime.date(2022, 10, 11), aprovacao_assembleia=False, id_documento_original=None, id='84df2341-8372-4091-a932-e271887cf8dc', datafinal_vigencia=datetime.date(2027, 10, 11), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='84df2341-8372-4091-a932-e271887cf8dc', datafinal_vigencia=datetime.date(2027, 10, 11), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 11), datainicial_vigencia=datetime.date(2022, 10, 11), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 6), aprovacao_assembleia=False, id_documento_original=None, id='dfbc63cc-c39d-44ca-979d-fccd4c627e04', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='dfbc63cc-c39d-44ca-979d-fccd4c627e04', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4418,7 +4418,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 4, 15), licenciamento=False, data_assinatura=datetime.date(2022, 4, 15), aprovacao_assembleia=False, id_documento_original=None, id='7e073f7d-f185-4aec-9a7b-8836f300604f', datafinal_vigencia=datetime.date(2032, 4, 15), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='7e073f7d-f185-4aec-9a7b-8836f300604f', datafinal_vigencia=datetime.date(2032, 4, 15), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 15), datainicial_vigencia=datetime.date(2022, 4, 15), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4440,7 +4440,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='79340c96-db83-4e69-9196-5eb265e912b5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='79340c96-db83-4e69-9196-5eb265e912b5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4462,7 +4462,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='44df58f7-4208-429b-9fc8-86b9cc99067e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='44df58f7-4208-429b-9fc8-86b9cc99067e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4484,7 +4484,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original=None, id='92c35c3d-bc4a-43f7-9e59-d47c8c334643', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='92c35c3d-bc4a-43f7-9e59-d47c8c334643', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4506,7 +4506,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 7, 4), aprovacao_assembleia=False, id_documento_original='bf8e6b2b-e3fc-47d9-98ab-c386a7621618', id='4a68a398-bf57-4f3e-9017-9e4c8d0e1a2d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='4a68a398-bf57-4f3e-9017-9e4c8d0e1a2d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='bf8e6b2b-e3fc-47d9-98ab-c386a7621618', data_assinatura=datetime.date(2022, 7, 4), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 7, 3), aprovacao_assembleia=False, id_documento_original=None, id='488b75fe-8e06-4635-92c0-c1f948afc304', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='488b75fe-8e06-4635-92c0-c1f948afc304', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4550,7 +4550,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), aprovacao_assembleia=False, id_documento_original=None, id='02a8cda7-a67c-4f69-8cbb-81ac5d526b1c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='02a8cda7-a67c-4f69-8cbb-81ac5d526b1c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4572,7 +4572,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 28), aprovacao_assembleia=False, id_documento_original=None, id='cb42be0a-d40d-49fe-8545-3c675b18a322', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='cb42be0a-d40d-49fe-8545-3c675b18a322', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 28), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4594,7 +4594,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 9), aprovacao_assembleia=False, id_documento_original='d13f6b90-8388-4c7f-b3fa-3486afd05072', id='704db435-8a6a-4a06-a4bb-761b0f262b88', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='704db435-8a6a-4a06-a4bb-761b0f262b88', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d13f6b90-8388-4c7f-b3fa-3486afd05072', data_assinatura=datetime.date(2022, 10, 9), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4616,7 +4616,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 11), aprovacao_assembleia=False, id_documento_original=None, id='fe6584ce-5c22-470d-823e-ae9aa295c117', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='fe6584ce-5c22-470d-823e-ae9aa295c117', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 9, 6), licenciamento=False, data_assinatura=datetime.date(2022, 9, 6), aprovacao_assembleia=False, id_documento_original=None, id='dcd48482-c39b-462c-89e8-e6e26cb984d2', datafinal_vigencia=datetime.date(2022, 10, 4), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='dcd48482-c39b-462c-89e8-e6e26cb984d2', datafinal_vigencia=datetime.date(2022, 10, 4), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 6), datainicial_vigencia=datetime.date(2022, 9, 6), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 5), aprovacao_assembleia=False, id_documento_original=None, id='c45e3a67-dcf5-4941-a8d0-607baee00d41', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c45e3a67-dcf5-4941-a8d0-607baee00d41', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4682,7 +4682,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), aprovacao_assembleia=False, id_documento_original=None, id='824aab6c-404b-4a81-aed1-ec6ed18221a8', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='824aab6c-404b-4a81-aed1-ec6ed18221a8', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4704,7 +4704,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 27), aprovacao_assembleia=False, id_documento_original='e4231f4c-4122-496d-9255-15a284daca50', id='54e0182f-cdfd-4223-b895-7f89c084a7b4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='54e0182f-cdfd-4223-b895-7f89c084a7b4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='e4231f4c-4122-496d-9255-15a284daca50', data_assinatura=datetime.date(2022, 10, 27), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4726,7 +4726,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 13), aprovacao_assembleia=False, id_documento_original=None, id='3721aadc-fe45-43d3-8483-25d4c73a9605', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3721aadc-fe45-43d3-8483-25d4c73a9605', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4748,7 +4748,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='19bd5e4a-1a97-41be-89ea-dc2b05626dfc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='19bd5e4a-1a97-41be-89ea-dc2b05626dfc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4770,7 +4770,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 17), aprovacao_assembleia=False, id_documento_original=None, id='a360693b-62e6-407b-bcd0-9f59bcf67bb0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a360693b-62e6-407b-bcd0-9f59bcf67bb0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4792,7 +4792,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 4), aprovacao_assembleia=False, id_documento_original=None, id='cba95115-21d0-4234-95fc-79628dfd41ee', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='cba95115-21d0-4234-95fc-79628dfd41ee', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 4), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4814,7 +4814,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 29), aprovacao_assembleia=False, id_documento_original=None, id='2da5b482-928f-4a45-b2a4-83f7c31c42d4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2da5b482-928f-4a45-b2a4-83f7c31c42d4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4836,7 +4836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='cd3264f0-54c1-4982-837f-7776f94619f0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='cd3264f0-54c1-4982-837f-7776f94619f0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 6, 1), licenciamento=False, data_assinatura=datetime.date(2022, 7, 13), aprovacao_assembleia=False, id_documento_original=None, id='5e742ff4-8149-4d7e-a194-48abb4611bfd', datafinal_vigencia=datetime.date(2024, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5e742ff4-8149-4d7e-a194-48abb4611bfd', datafinal_vigencia=datetime.date(2024, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4880,7 +4880,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='15b1f9b0-21cb-4ae7-bfbe-05510a6c1f4e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='15b1f9b0-21cb-4ae7-bfbe-05510a6c1f4e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 19), aprovacao_assembleia=False, id_documento_original=None, id='db7452b7-2c47-499c-9df3-540926b9f8a3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='db7452b7-2c47-499c-9df3-540926b9f8a3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4924,7 +4924,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 6, 1), licenciamento=False, data_assinatura=datetime.date(2022, 8, 29), aprovacao_assembleia=False, id_documento_original=None, id='ffd54ab6-0341-45db-bb1e-50817ed92a09', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ffd54ab6-0341-45db-bb1e-50817ed92a09', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 29), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4946,7 +4946,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 1, 31), licenciamento=False, data_assinatura=datetime.date(2022, 7, 14), aprovacao_assembleia=False, id_documento_original=None, id='675c5fa5-e3f9-4506-9c7f-9f1d3fde93b7', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='675c5fa5-e3f9-4506-9c7f-9f1d3fde93b7', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 14), datainicial_vigencia=datetime.date(2022, 1, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 8, 16), licenciamento=False, data_assinatura=datetime.date(2022, 8, 16), aprovacao_assembleia=False, id_documento_original=None, id='ce8481ce-cc7d-486b-a12b-0142dc63ced1', datafinal_vigencia=datetime.date(2024, 7, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ce8481ce-cc7d-486b-a12b-0142dc63ced1', datafinal_vigencia=datetime.date(2024, 7, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 16), datainicial_vigencia=datetime.date(2022, 8, 16), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4990,7 +4990,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 7, 1), licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='051d250a-b931-49bf-9419-9dd777b76ee7', datafinal_vigencia=datetime.date(2027, 1, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='051d250a-b931-49bf-9419-9dd777b76ee7', datafinal_vigencia=datetime.date(2027, 1, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 7, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5012,7 +5012,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 12), aprovacao_assembleia=False, id_documento_original=None, id='2b6d2078-7b3b-4042-a491-1a2815ab8e7e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2b6d2078-7b3b-4042-a491-1a2815ab8e7e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5034,7 +5034,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='61e14024-ea83-4ee1-84e9-f4d511816f7c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='61e14024-ea83-4ee1-84e9-f4d511816f7c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5056,7 +5056,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='397b12cc-1a44-4f83-a0ed-9baa284ea69d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='397b12cc-1a44-4f83-a0ed-9baa284ea69d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5078,7 +5078,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='fbdc62ad-dc09-4cae-b45e-818db8aed426', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='fbdc62ad-dc09-4cae-b45e-818db8aed426', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5100,7 +5100,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='3089bc0a-420d-4053-9743-049ccf95258a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3089bc0a-420d-4053-9743-049ccf95258a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 8, 17), licenciamento=False, data_assinatura=datetime.date(2022, 8, 17), aprovacao_assembleia=False, id_documento_original=None, id='4cd39b5e-ae14-4d5a-a8de-2ed8aa3032e5', datafinal_vigencia=datetime.date(2027, 8, 17), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4cd39b5e-ae14-4d5a-a8de-2ed8aa3032e5', datafinal_vigencia=datetime.date(2027, 8, 17), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 17), datainicial_vigencia=datetime.date(2022, 8, 17), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5144,7 +5144,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original=None, id='db36d878-1b89-47e3-bae1-d0a9f26acdbf', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='db36d878-1b89-47e3-bae1-d0a9f26acdbf', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5166,7 +5166,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 16), aprovacao_assembleia=False, id_documento_original=None, id='ae211c95-fa2d-4142-a638-0ccfdc63d818', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ae211c95-fa2d-4142-a638-0ccfdc63d818', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 5, 2), aprovacao_assembleia=False, id_documento_original='1f533508-2a3f-49ae-a79a-4da410aecddc', id='b629bc98-c197-4cf8-98bc-d7c39695b908', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='b629bc98-c197-4cf8-98bc-d7c39695b908', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1f533508-2a3f-49ae-a79a-4da410aecddc', data_assinatura=datetime.date(2022, 5, 2), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5210,7 +5210,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original=None, id='7adc9bae-cf10-4ceb-83b3-fbb4c94da3bd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='7adc9bae-cf10-4ceb-83b3-fbb4c94da3bd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5232,7 +5232,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='3b2a9b4c-67ed-4cab-916b-2883df5076ca', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3b2a9b4c-67ed-4cab-916b-2883df5076ca', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5254,7 +5254,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 4, 13), licenciamento=False, data_assinatura=datetime.date(2022, 4, 13), aprovacao_assembleia=False, id_documento_original=None, id='1a09b049-2280-4ee3-bc35-bc33e3b68e7e', datafinal_vigencia=datetime.date(2027, 4, 13), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='1a09b049-2280-4ee3-bc35-bc33e3b68e7e', datafinal_vigencia=datetime.date(2027, 4, 13), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 13), datainicial_vigencia=datetime.date(2022, 4, 13), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5276,7 +5276,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original=None, id='6bf53dc7-a11f-4668-b1ce-175cdbd58305', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='6bf53dc7-a11f-4668-b1ce-175cdbd58305', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5298,7 +5298,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 8, 1), aprovacao_assembleia=False, id_documento_original='2863fbf1-5c25-4b2d-8c6a-5617ebf91672', id='35fdf03a-5061-4979-bc83-67c28c7364b9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='35fdf03a-5061-4979-bc83-67c28c7364b9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='2863fbf1-5c25-4b2d-8c6a-5617ebf91672', data_assinatura=datetime.date(2022, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5320,7 +5320,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 8, 1), aprovacao_assembleia=False, id_documento_original='f8b48d20-fa2d-48f6-9440-ffe822baa7c0', id='32688b9c-9391-41ce-ab2a-6030d99534b0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='32688b9c-9391-41ce-ab2a-6030d99534b0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f8b48d20-fa2d-48f6-9440-ffe822baa7c0', data_assinatura=datetime.date(2022, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5342,7 +5342,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='5aa6cd47-6cf7-4198-8f04-67ede0d96607', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5aa6cd47-6cf7-4198-8f04-67ede0d96607', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5364,7 +5364,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='44c62f2e-4153-4e69-8040-fa4b1007a172', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='44c62f2e-4153-4e69-8040-fa4b1007a172', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5386,7 +5386,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='cea04919-91af-471f-813d-9b987f43f05c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='cea04919-91af-471f-813d-9b987f43f05c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5408,7 +5408,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 1, 16), aprovacao_assembleia=False, id_documento_original=None, id='f2808e6d-a2ec-447b-a51c-403891351826', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f2808e6d-a2ec-447b-a51c-403891351826', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5430,7 +5430,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 1), aprovacao_assembleia=False, id_documento_original='ac5d228a-5fe4-48fd-902a-7651b4408573', id='f9d2c472-294a-4646-972a-14d4be3e1825', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='f9d2c472-294a-4646-972a-14d4be3e1825', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='ac5d228a-5fe4-48fd-902a-7651b4408573', data_assinatura=datetime.date(2023, 10, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5452,7 +5452,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original=None, id='f87f87a3-8253-49b0-b9bf-2663a29780f1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f87f87a3-8253-49b0-b9bf-2663a29780f1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5474,7 +5474,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 10), aprovacao_assembleia=False, id_documento_original='37d94c79-8e4e-4935-a3af-ba126b035501', id='94338fa1-94db-4e57-a9f3-584816499d4f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='94338fa1-94db-4e57-a9f3-584816499d4f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='37d94c79-8e4e-4935-a3af-ba126b035501', data_assinatura=datetime.date(2022, 10, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 4, 29), aprovacao_assembleia=False, id_documento_original='d3f4322c-8dd0-4c62-8000-b06cf4f913a2', id='61edd633-3219-4a37-8cc0-e60937875864', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='61edd633-3219-4a37-8cc0-e60937875864', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d3f4322c-8dd0-4c62-8000-b06cf4f913a2', data_assinatura=datetime.date(2023, 4, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5518,7 +5518,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 15), aprovacao_assembleia=False, id_documento_original='99ce432c-00ee-45c9-9aa4-bfed84d0de44', id='bc58b77e-de96-4e7d-a512-af455023b96d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='bc58b77e-de96-4e7d-a512-af455023b96d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='99ce432c-00ee-45c9-9aa4-bfed84d0de44', data_assinatura=datetime.date(2023, 9, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5540,7 +5540,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), aprovacao_assembleia=False, id_documento_original='fa04aa0a-d0c6-4c34-9f04-fbd1ca253fe0', id='f4045f06-dc23-470b-9a31-d8184835fcce', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='f4045f06-dc23-470b-9a31-d8184835fcce', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fa04aa0a-d0c6-4c34-9f04-fbd1ca253fe0', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5562,7 +5562,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='0c65cac3-72a9-4a43-9899-1e29e06bc04b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0c65cac3-72a9-4a43-9899-1e29e06bc04b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5584,7 +5584,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=True, data_assinatura=datetime.date(2022, 9, 22), aprovacao_assembleia=False, id_documento_original=None, id='ab1d4e30-8bd8-4995-955e-70527c4f261d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, id='ab1d4e30-8bd8-4995-955e-70527c4f261d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5606,7 +5606,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), aprovacao_assembleia=False, id_documento_original='ac5d228a-5fe4-48fd-902a-7651b4408573', id='6530356d-5af1-4274-b141-b717f19ea58a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='6530356d-5af1-4274-b141-b717f19ea58a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='ac5d228a-5fe4-48fd-902a-7651b4408573', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5628,7 +5628,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 11, 8), aprovacao_assembleia=False, id_documento_original='011f5508-4f7a-4372-98b2-7dde377ddd49', id='38f82775-d4e8-4e0d-9d68-841bed5bd42e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='38f82775-d4e8-4e0d-9d68-841bed5bd42e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='011f5508-4f7a-4372-98b2-7dde377ddd49', data_assinatura=datetime.date(2022, 11, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5650,7 +5650,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 4, 17), aprovacao_assembleia=False, id_documento_original=None, id='4b720fbb-903d-48fa-8546-c2d93e59778a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4b720fbb-903d-48fa-8546-c2d93e59778a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5672,7 +5672,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 4, 10), aprovacao_assembleia=False, id_documento_original=None, id='33f0e2c1-d086-42f1-b64d-85b086e6c78b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='33f0e2c1-d086-42f1-b64d-85b086e6c78b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5694,7 +5694,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='d14e3e05-e9af-477b-9755-ff2fc2af8f31', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d14e3e05-e9af-477b-9755-ff2fc2af8f31', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', id='fcb5938a-3322-4474-9a52-edc178c9bc6b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='fcb5938a-3322-4474-9a52-edc178c9bc6b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=True, data_assinatura=datetime.date(2023, 1, 5), aprovacao_assembleia=False, id_documento_original=None, id='1c4013ab-d6ce-468a-8890-f4fcf3c11078', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, id='1c4013ab-d6ce-468a-8890-f4fcf3c11078', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5760,7 +5760,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 16), aprovacao_assembleia=False, id_documento_original=None, id='0b0c6d38-1200-4adc-bb45-bd21f31ee2d1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0b0c6d38-1200-4adc-bb45-bd21f31ee2d1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='efe6590a-6e34-4c84-8aa9-2cbab8a7b77f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='efe6590a-6e34-4c84-8aa9-2cbab8a7b77f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5804,7 +5804,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 11, 1), aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', id='8268882e-d042-4ff8-be58-22558fa8729c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='8268882e-d042-4ff8-be58-22558fa8729c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', data_assinatura=datetime.date(2022, 11, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5826,7 +5826,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 11, 20), licenciamento=False, data_assinatura=datetime.date(2022, 11, 20), aprovacao_assembleia=False, id_documento_original=None, id='c7452c2c-8afc-4330-9402-e1c1c8c66e96', datafinal_vigencia=datetime.date(2023, 1, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c7452c2c-8afc-4330-9402-e1c1c8c66e96', datafinal_vigencia=datetime.date(2023, 1, 20), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 20), datainicial_vigencia=datetime.date(2022, 11, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5848,7 +5848,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='c61ef0cf-8e57-4f12-b024-0dd65cc61b61', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='c61ef0cf-8e57-4f12-b024-0dd65cc61b61', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5870,7 +5870,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 19), aprovacao_assembleia=False, id_documento_original=None, id='f005cba1-e08d-48fe-816c-b8f3c9b27d3a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f005cba1-e08d-48fe-816c-b8f3c9b27d3a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5892,7 +5892,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='f891b35a-2f9c-4953-b1b7-52f590e1bafe', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f891b35a-2f9c-4953-b1b7-52f590e1bafe', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5914,7 +5914,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original=None, id='e8474645-97cc-448c-95af-222467f5b3be', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='e8474645-97cc-448c-95af-222467f5b3be', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5936,7 +5936,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), aprovacao_assembleia=False, id_documento_original=None, id='cbccafed-37f4-4420-a394-d6e72c727c19', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='cbccafed-37f4-4420-a394-d6e72c727c19', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5958,7 +5958,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 1), aprovacao_assembleia=False, id_documento_original=None, id='16f7bc59-6659-4f14-8c12-40f777680ed6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='16f7bc59-6659-4f14-8c12-40f777680ed6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5980,7 +5980,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='5dd87ee1-4c97-4841-b7bc-dcca569bb0e6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5dd87ee1-4c97-4841-b7bc-dcca569bb0e6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -6002,7 +6002,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 1), aprovacao_assembleia=False, id_documento_original='380ca3ac-1dfe-49a1-ba03-bbda524d9788', id='e6c7ce39-4a68-4a6b-9bd7-b8773a33e165', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='e6c7ce39-4a68-4a6b-9bd7-b8773a33e165', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='380ca3ac-1dfe-49a1-ba03-bbda524d9788', data_assinatura=datetime.date(2023, 10, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6024,7 +6024,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 11, 10), aprovacao_assembleia=False, id_documento_original='f8b48d20-fa2d-48f6-9440-ffe822baa7c0', id='f15de91c-71a8-443b-9dbe-1727bcf75a12', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='f15de91c-71a8-443b-9dbe-1727bcf75a12', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f8b48d20-fa2d-48f6-9440-ffe822baa7c0', data_assinatura=datetime.date(2022, 11, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6046,7 +6046,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 17), aprovacao_assembleia=False, id_documento_original=None, id='5503ae6d-7e05-46fa-9072-f25ff469fc6f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5503ae6d-7e05-46fa-9072-f25ff469fc6f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6068,7 +6068,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='3da2d54c-3c04-4dd4-be00-063fa4ce864c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3da2d54c-3c04-4dd4-be00-063fa4ce864c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6090,7 +6090,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='3f8d71f7-757d-4f33-b8de-efce3cf9a425', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3f8d71f7-757d-4f33-b8de-efce3cf9a425', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6112,7 +6112,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 9, 26), licenciamento=False, data_assinatura=datetime.date(2022, 9, 26), aprovacao_assembleia=False, id_documento_original=None, id='9bc8f129-bc52-46b8-9948-191a1be34d66', datafinal_vigencia=datetime.date(2022, 12, 26), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='9bc8f129-bc52-46b8-9948-191a1be34d66', datafinal_vigencia=datetime.date(2022, 12, 26), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 26), datainicial_vigencia=datetime.date(2022, 9, 26), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6134,7 +6134,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), aprovacao_assembleia=False, id_documento_original='17174e1e-7657-4862-bfd0-e9e1675ba025', id='fda8bc47-723f-4803-be37-0cf746279b76', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='fda8bc47-723f-4803-be37-0cf746279b76', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='17174e1e-7657-4862-bfd0-e9e1675ba025', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6156,7 +6156,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), aprovacao_assembleia=False, id_documento_original='f1422a11-561c-40c6-8e20-13d9cd35ef96', id='71b82eab-d6b3-4f10-bdd4-c4c6627987f0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='71b82eab-d6b3-4f10-bdd4-c4c6627987f0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f1422a11-561c-40c6-8e20-13d9cd35ef96', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6178,7 +6178,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), aprovacao_assembleia=False, id_documento_original='1195f073-edf6-4e0b-b0bd-805b0976b6dd', id='521b30b5-1b4a-458a-885f-ad021e1c215c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='521b30b5-1b4a-458a-885f-ad021e1c215c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1195f073-edf6-4e0b-b0bd-805b0976b6dd', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6200,7 +6200,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 13), aprovacao_assembleia=False, id_documento_original=None, id='ee52b036-6af4-4aea-ab97-c6991db86544', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ee52b036-6af4-4aea-ab97-c6991db86544', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6222,7 +6222,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), aprovacao_assembleia=False, id_documento_original='74bff9f2-fa9c-4dea-a09f-f8ed5926f152', id='727e7b22-9f0d-4bb4-bceb-2365aa015b2d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='727e7b22-9f0d-4bb4-bceb-2365aa015b2d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='74bff9f2-fa9c-4dea-a09f-f8ed5926f152', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6244,7 +6244,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 26), aprovacao_assembleia=False, id_documento_original=None, id='ade540fc-2eb2-4e85-a531-8508a66be2b7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ade540fc-2eb2-4e85-a531-8508a66be2b7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 26), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6266,7 +6266,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 5), aprovacao_assembleia=False, id_documento_original=None, id='bfee53d4-0f15-4da6-9b44-e44dcded757b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='bfee53d4-0f15-4da6-9b44-e44dcded757b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6288,7 +6288,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 7, 14), aprovacao_assembleia=False, id_documento_original='07af872a-8dcc-4029-a479-cad4f2a37553', id='5b8d65df-3c41-4bd5-b961-f36828a153dc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='5b8d65df-3c41-4bd5-b961-f36828a153dc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='07af872a-8dcc-4029-a479-cad4f2a37553', data_assinatura=datetime.date(2022, 7, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6310,7 +6310,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='1fdb7dfe-ed0b-438c-8a80-38868c6d8848', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='1fdb7dfe-ed0b-438c-8a80-38868c6d8848', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6332,7 +6332,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='1bd6e8ac-1738-4f64-b665-7859a3b47f89', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='1bd6e8ac-1738-4f64-b665-7859a3b47f89', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6354,7 +6354,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='5994d877-3daa-41c3-a76f-1f917c384f0d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5994d877-3daa-41c3-a76f-1f917c384f0d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6376,7 +6376,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 5), aprovacao_assembleia=False, id_documento_original=None, id='97d84fad-7023-4c21-9d30-45bef4a2cad9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='97d84fad-7023-4c21-9d30-45bef4a2cad9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='b24c9292-668e-4cc9-a1dd-9090927c6d83', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='b24c9292-668e-4cc9-a1dd-9090927c6d83', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 4, 1), licenciamento=False, data_assinatura=datetime.date(2022, 4, 1), aprovacao_assembleia=False, id_documento_original=None, id='381919fb-c1dd-4754-8fb4-f3554eb43be0', datafinal_vigencia=datetime.date(2022, 10, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='381919fb-c1dd-4754-8fb4-f3554eb43be0', datafinal_vigencia=datetime.date(2022, 10, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 1), datainicial_vigencia=datetime.date(2022, 4, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6442,7 +6442,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 7, 3), aprovacao_assembleia=False, id_documento_original='63e84ac7-ae59-410b-b655-ed45127576a3', id='ab00e0c6-289c-48bf-a550-c79c93a4df62', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='ab00e0c6-289c-48bf-a550-c79c93a4df62', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='63e84ac7-ae59-410b-b655-ed45127576a3', data_assinatura=datetime.date(2023, 7, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='bf597d75-2f6e-4a97-8d27-91f050faa0d5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='bf597d75-2f6e-4a97-8d27-91f050faa0d5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6486,7 +6486,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='6d072d40-17e2-444a-b1dc-749d3fc7f9ec', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='6d072d40-17e2-444a-b1dc-749d3fc7f9ec', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6508,7 +6508,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='f26b5257-d9bf-4ad3-850d-33b1213dc3d3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f26b5257-d9bf-4ad3-850d-33b1213dc3d3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6530,7 +6530,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), aprovacao_assembleia=False, id_documento_original='9f834335-570d-4196-8691-63db7b3b36a4', id='d5814c69-f074-4f42-80d0-086f213c5870', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='d5814c69-f074-4f42-80d0-086f213c5870', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='9f834335-570d-4196-8691-63db7b3b36a4', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6552,7 +6552,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 7), aprovacao_assembleia=False, id_documento_original=None, id='2225b64b-ed12-4a4e-9865-6381dd46c1a2', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2225b64b-ed12-4a4e-9865-6381dd46c1a2', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6574,7 +6574,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 12), aprovacao_assembleia=False, id_documento_original='6abd07b7-8a85-4e52-939e-a7202f6edf4a', id='4c5e66a0-d384-468b-8562-ecf02ad7d5b3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='4c5e66a0-d384-468b-8562-ecf02ad7d5b3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='6abd07b7-8a85-4e52-939e-a7202f6edf4a', data_assinatura=datetime.date(2023, 6, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6596,7 +6596,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 1), aprovacao_assembleia=False, id_documento_original='d3c07975-e35e-49c5-8636-a0d0e449796a', id='a692dfe5-5b49-4944-a419-29157c93557f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='a692dfe5-5b49-4944-a419-29157c93557f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d3c07975-e35e-49c5-8636-a0d0e449796a', data_assinatura=datetime.date(2023, 6, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 11, 1), aprovacao_assembleia=False, id_documento_original=None, id='0baa748d-3c79-4323-a4e3-08e2d6fe9c47', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0baa748d-3c79-4323-a4e3-08e2d6fe9c47', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6640,7 +6640,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), aprovacao_assembleia=False, id_documento_original=None, id='df10a8ca-e6a3-45bd-a38e-02550ce89efa', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='df10a8ca-e6a3-45bd-a38e-02550ce89efa', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6662,7 +6662,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 8), aprovacao_assembleia=False, id_documento_original=None, id='cdd29b99-e5f4-44b2-8205-db1dfa1b47dc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='cdd29b99-e5f4-44b2-8205-db1dfa1b47dc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6684,7 +6684,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 12), aprovacao_assembleia=False, id_documento_original=None, id='19898424-4050-4086-b55a-b47d22acafd8', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='19898424-4050-4086-b55a-b47d22acafd8', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6706,7 +6706,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='d83257dc-8f78-4146-8ac8-365d227d0419', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d83257dc-8f78-4146-8ac8-365d227d0419', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6728,7 +6728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='cc09c277-2058-4056-bb7a-1a0eb139c4b6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='cc09c277-2058-4056-bb7a-1a0eb139c4b6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6750,7 +6750,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='d190d9dd-f50d-4c82-9c16-0baa46d62fbe', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d190d9dd-f50d-4c82-9c16-0baa46d62fbe', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6772,7 +6772,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 8, 19), licenciamento=False, data_assinatura=datetime.date(2022, 8, 19), aprovacao_assembleia=False, id_documento_original=None, id='2707fd5f-a810-4462-b2e4-93b70f804357', datafinal_vigencia=datetime.date(2022, 9, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='2707fd5f-a810-4462-b2e4-93b70f804357', datafinal_vigencia=datetime.date(2022, 9, 19), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 19), datainicial_vigencia=datetime.date(2022, 8, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6794,7 +6794,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 16), aprovacao_assembleia=False, id_documento_original=None, id='c7ca57a7-a869-4266-981d-7ca427782b9c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c7ca57a7-a869-4266-981d-7ca427782b9c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6816,7 +6816,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2023, 4, 4), licenciamento=False, data_assinatura=datetime.date(2023, 4, 4), aprovacao_assembleia=False, id_documento_original='0baf6821-1c09-4a21-bc31-8e8cd4b706e6', id='ff294ba2-afac-416b-a4d5-560668989675', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='ff294ba2-afac-416b-a4d5-560668989675', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='0baf6821-1c09-4a21-bc31-8e8cd4b706e6', data_assinatura=datetime.date(2023, 4, 4), datainicial_vigencia=datetime.date(2023, 4, 4), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6838,7 +6838,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='cd168730-1c0e-4825-ad51-1e90b0bd1788', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='cd168730-1c0e-4825-ad51-1e90b0bd1788', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6860,7 +6860,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original='0a9cdd2c-ccfd-4628-a8e0-39463539825f', id='e9158396-4fc6-4cb7-86c9-8bdd31504a2b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='e9158396-4fc6-4cb7-86c9-8bdd31504a2b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='0a9cdd2c-ccfd-4628-a8e0-39463539825f', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6882,7 +6882,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), aprovacao_assembleia=False, id_documento_original='d71b9ca4-3a29-4f1c-9ea7-6147516ea5a1', id='e3cb6d5f-4845-44a0-9805-27affb7afd02', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='e3cb6d5f-4845-44a0-9805-27affb7afd02', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d71b9ca4-3a29-4f1c-9ea7-6147516ea5a1', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 21), aprovacao_assembleia=False, id_documento_original=None, id='3c64b447-2a53-4d21-9d1b-193c2348c066', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3c64b447-2a53-4d21-9d1b-193c2348c066', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6926,7 +6926,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 31), aprovacao_assembleia=False, id_documento_original=None, id='4117ef2d-26d1-4895-94fc-b426f8ce9db9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='4117ef2d-26d1-4895-94fc-b426f8ce9db9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 31), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6948,7 +6948,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 4, 6), aprovacao_assembleia=False, id_documento_original=None, id='16dce404-0fe3-4bcd-a4a1-2e0e8bc919df', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='16dce404-0fe3-4bcd-a4a1-2e0e8bc919df', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6970,7 +6970,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 4, 5), aprovacao_assembleia=False, id_documento_original=None, id='c1e5d0dc-984d-4b59-84d2-9a54c62f26a6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c1e5d0dc-984d-4b59-84d2-9a54c62f26a6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6992,7 +6992,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='c938522e-cfc3-48fa-8a5e-ba24e5aaceec', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c938522e-cfc3-48fa-8a5e-ba24e5aaceec', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -7014,7 +7014,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 11, 4), aprovacao_assembleia=False, id_documento_original=None, id='316ed99a-d721-4366-860a-ea80b405f074', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='316ed99a-d721-4366-860a-ea80b405f074', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 4), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7036,7 +7036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2023, 3, 20), licenciamento=False, data_assinatura=datetime.date(2023, 3, 20), aprovacao_assembleia=False, id_documento_original=None, id='42f8cfd2-52b2-46fd-9832-f51c5742c140', datafinal_vigencia=datetime.date(2028, 3, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='42f8cfd2-52b2-46fd-9832-f51c5742c140', datafinal_vigencia=datetime.date(2028, 3, 20), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 3, 20), datainicial_vigencia=datetime.date(2023, 3, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7058,7 +7058,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2023, 4, 5), licenciamento=False, data_assinatura=datetime.date(2023, 4, 5), aprovacao_assembleia=False, id_documento_original=None, id='0810ff86-ec8b-48a9-ae8b-93772417078b', datafinal_vigencia=datetime.date(2027, 10, 5), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0810ff86-ec8b-48a9-ae8b-93772417078b', datafinal_vigencia=datetime.date(2027, 10, 5), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 5), datainicial_vigencia=datetime.date(2023, 4, 5), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7080,7 +7080,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 6, 1), licenciamento=False, data_assinatura=datetime.date(2023, 4, 4), aprovacao_assembleia=False, id_documento_original='744e0527-868a-4619-a131-504fea5e5990', id='df1b7f75-a83c-4903-9a96-c039d220cbb2', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='df1b7f75-a83c-4903-9a96-c039d220cbb2', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original='744e0527-868a-4619-a131-504fea5e5990', data_assinatura=datetime.date(2023, 4, 4), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7102,7 +7102,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 18), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1Yf_BOJRzE1O_GTo-Gt1-PNjVI8q-c3CD/view?usp=drive_link', id='c095fc1e-68dd-4a6e-8fdd-fe79670d869a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='c095fc1e-68dd-4a6e-8fdd-fe79670d869a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1Yf_BOJRzE1O_GTo-Gt1-PNjVI8q-c3CD/view?usp=drive_link', data_assinatura=datetime.date(2023, 10, 18), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7124,7 +7124,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='f5377477-01bd-425f-bede-619845c7532a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='f5377477-01bd-425f-bede-619845c7532a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7146,7 +7146,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 3), aprovacao_assembleia=False, id_documento_original='561b4881-1216-4682-874d-ee660321494e', id='e90e2965-dbe0-4206-83f9-f9819b928628', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='e90e2965-dbe0-4206-83f9-f9819b928628', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='561b4881-1216-4682-874d-ee660321494e', data_assinatura=datetime.date(2023, 2, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7168,7 +7168,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 4), aprovacao_assembleia=False, id_documento_original=None, id='d0a39bef-fcc1-4271-b2d8-6296a0e4c72e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d0a39bef-fcc1-4271-b2d8-6296a0e4c72e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 4), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7190,7 +7190,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='534cfae7-da7f-4217-8411-019070c62e41', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='534cfae7-da7f-4217-8411-019070c62e41', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7212,7 +7212,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 8, 16), licenciamento=False, data_assinatura=datetime.date(2022, 10, 31), aprovacao_assembleia=False, id_documento_original='8ff0ce4c-bcf7-4086-8142-e44b3c229962', id='646bd5be-edf1-464a-96f5-e8d41390a71b', datafinal_vigencia=datetime.date(2024, 1, 31), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='646bd5be-edf1-464a-96f5-e8d41390a71b', datafinal_vigencia=datetime.date(2024, 1, 31), aprovacao_assembleia=False, id_documento_original='8ff0ce4c-bcf7-4086-8142-e44b3c229962', data_assinatura=datetime.date(2022, 10, 31), datainicial_vigencia=datetime.date(2022, 8, 16), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7234,7 +7234,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 6, 1), licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='c003b37b-a892-4446-97b0-967e6954bf4a', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='c003b37b-a892-4446-97b0-967e6954bf4a', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7256,7 +7256,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 4, 19), licenciamento=False, data_assinatura=datetime.date(2022, 6, 9), aprovacao_assembleia=False, id_documento_original=None, id='ac38b94f-3ebe-4e34-aa6a-5fc013e1e29c', datafinal_vigencia=datetime.date(2024, 10, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ac38b94f-3ebe-4e34-aa6a-5fc013e1e29c', datafinal_vigencia=datetime.date(2024, 10, 19), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 9), datainicial_vigencia=datetime.date(2022, 4, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7278,7 +7278,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 6, 1), licenciamento=False, data_assinatura=datetime.date(2022, 8, 29), aprovacao_assembleia=False, id_documento_original=None, id='b0e394e8-8acc-4997-99a0-946063c17942', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='b0e394e8-8acc-4997-99a0-946063c17942', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 29), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7300,7 +7300,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 3, 21), licenciamento=False, data_assinatura=datetime.date(2022, 7, 28), aprovacao_assembleia=False, id_documento_original=None, id='f8b04147-9981-4ab3-a783-fe492bcae255', datafinal_vigencia=datetime.date(2026, 9, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='f8b04147-9981-4ab3-a783-fe492bcae255', datafinal_vigencia=datetime.date(2026, 9, 21), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 28), datainicial_vigencia=datetime.date(2022, 3, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7322,7 +7322,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 8, 1), licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='9daab33b-a8ec-451a-823c-7f98565ad438', datafinal_vigencia=datetime.date(2027, 2, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='9daab33b-a8ec-451a-823c-7f98565ad438', datafinal_vigencia=datetime.date(2027, 2, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 8, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7344,7 +7344,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 4, 7), licenciamento=False, data_assinatura=datetime.date(2022, 7, 27), aprovacao_assembleia=False, id_documento_original=None, id='43abd7e4-aefb-49f9-baca-2d85beb71bad', datafinal_vigencia=datetime.date(2026, 10, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='43abd7e4-aefb-49f9-baca-2d85beb71bad', datafinal_vigencia=datetime.date(2026, 10, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 27), datainicial_vigencia=datetime.date(2022, 4, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7366,7 +7366,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2022, 7, 28), licenciamento=False, data_assinatura=datetime.date(2022, 10, 27), aprovacao_assembleia=False, id_documento_original='4c286726-da6c-4ee0-a13f-df8540251430', id='9c8f603d-59ec-4b1a-b318-4950fdd45e16', datafinal_vigencia=datetime.date(2025, 3, 21), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='9c8f603d-59ec-4b1a-b318-4950fdd45e16', datafinal_vigencia=datetime.date(2025, 3, 21), aprovacao_assembleia=False, id_documento_original='4c286726-da6c-4ee0-a13f-df8540251430', data_assinatura=datetime.date(2022, 10, 27), datainicial_vigencia=datetime.date(2022, 7, 28), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7388,7 +7388,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 7, 31), aprovacao_assembleia=False, id_documento_original='e3ba7932-18e7-4269-b6ab-d8854532e4d9', id='20e6b3e7-4a28-474b-969b-839fe9ba7511', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='20e6b3e7-4a28-474b-969b-839fe9ba7511', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='e3ba7932-18e7-4269-b6ab-d8854532e4d9', data_assinatura=datetime.date(2022, 7, 31), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7410,7 +7410,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='e521b09f-3cb6-40f4-8067-8f8e2d28d6e9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='e521b09f-3cb6-40f4-8067-8f8e2d28d6e9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7432,7 +7432,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 7, 31), aprovacao_assembleia=False, id_documento_original='edfaae40-4fca-46bb-8240-805029b207e2', id='c0c29263-c33c-4e3b-9722-6e49fe8da617', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='c0c29263-c33c-4e3b-9722-6e49fe8da617', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='edfaae40-4fca-46bb-8240-805029b207e2', data_assinatura=datetime.date(2022, 7, 31), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7454,7 +7454,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2023, 7, 24), licenciamento=False, data_assinatura=datetime.date(2023, 7, 24), aprovacao_assembleia=False, id_documento_original=None, id='aad2769e-8af8-41a4-aea4-dc692558501e', datafinal_vigencia=datetime.date(2028, 7, 24), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='aad2769e-8af8-41a4-aea4-dc692558501e', datafinal_vigencia=datetime.date(2028, 7, 24), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 24), datainicial_vigencia=datetime.date(2023, 7, 24), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7476,7 +7476,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 7, 31), aprovacao_assembleia=False, id_documento_original='1d2dabe0-70c5-4942-88d1-c7db6ce3ec54', id='b3175b45-5b3a-4299-ae6d-b9f69f8c4604', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='b3175b45-5b3a-4299-ae6d-b9f69f8c4604', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1d2dabe0-70c5-4942-88d1-c7db6ce3ec54', data_assinatura=datetime.date(2022, 7, 31), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7498,7 +7498,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=True, data_assinatura=datetime.date(2023, 6, 27), aprovacao_assembleia=False, id_documento_original=None, id='78fe9b36-7c4d-41b4-b98d-b33c31e77733', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, id='78fe9b36-7c4d-41b4-b98d-b33c31e77733', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 27), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7520,7 +7520,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), aprovacao_assembleia=False, id_documento_original=None, id='460f733f-26df-467e-9d63-7aa92669d0a4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='460f733f-26df-467e-9d63-7aa92669d0a4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7542,7 +7542,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 6, 1), aprovacao_assembleia=False, id_documento_original='99ce432c-00ee-45c9-9aa4-bfed84d0de44', id='fb3e8360-fc9d-4e2e-a18d-2f82bac81d3e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='fb3e8360-fc9d-4e2e-a18d-2f82bac81d3e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='99ce432c-00ee-45c9-9aa4-bfed84d0de44', data_assinatura=datetime.date(2023, 6, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7564,7 +7564,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='d1d30d9a-e161-4d78-8b3e-5c44d0da479d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d1d30d9a-e161-4d78-8b3e-5c44d0da479d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7586,7 +7586,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='1a3f8658-6527-4e8f-bc6c-eb1df5f321dd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='1a3f8658-6527-4e8f-bc6c-eb1df5f321dd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7608,7 +7608,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 1), aprovacao_assembleia=False, id_documento_original=None, id='d69377f3-edd9-4d1c-8b51-56ac26937319', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d69377f3-edd9-4d1c-8b51-56ac26937319', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7630,7 +7630,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), aprovacao_assembleia=False, id_documento_original='22716bfa-2b11-4239-be66-5c7644e498d2', id='5d73c039-8d54-4494-a12f-21568ae98432', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='5d73c039-8d54-4494-a12f-21568ae98432', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='22716bfa-2b11-4239-be66-5c7644e498d2', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7652,7 +7652,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='0f96eee7-7520-4443-ae25-b1fa64e8f6aa', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0f96eee7-7520-4443-ae25-b1fa64e8f6aa', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7674,7 +7674,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 9, 1), aprovacao_assembleia=False, id_documento_original='3ab7d583-a10d-4e9a-ae2f-d9621c602878', id='fbb0e94a-0798-4705-a0e2-6e73745da472', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='fbb0e94a-0798-4705-a0e2-6e73745da472', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='3ab7d583-a10d-4e9a-ae2f-d9621c602878', data_assinatura=datetime.date(2022, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7696,7 +7696,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 6), aprovacao_assembleia=False, id_documento_original=None, id='8743661d-b106-42b8-abd1-1b1cc0c501da', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='8743661d-b106-42b8-abd1-1b1cc0c501da', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7718,7 +7718,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 6, 1), aprovacao_assembleia=False, id_documento_original='9f834335-570d-4196-8691-63db7b3b36a4', id='0cec567f-ccfd-471d-b691-fb4eae329fde', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='0cec567f-ccfd-471d-b691-fb4eae329fde', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='9f834335-570d-4196-8691-63db7b3b36a4', data_assinatura=datetime.date(2022, 6, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7740,7 +7740,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='3d178f75-aa37-472a-827d-393467ec998b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3d178f75-aa37-472a-827d-393467ec998b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7762,7 +7762,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 25), aprovacao_assembleia=False, id_documento_original=None, id='33303b66-f1e8-4d58-9715-c068a431fd36', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='33303b66-f1e8-4d58-9715-c068a431fd36', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 25), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7784,7 +7784,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 1, 27), aprovacao_assembleia=False, id_documento_original=None, id='024d63a6-0e04-4334-94f2-7677db687665', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='024d63a6-0e04-4334-94f2-7677db687665', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 27), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7806,7 +7806,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 8, 16), aprovacao_assembleia=False, id_documento_original=None, id='3b32903a-acac-4f58-ba0d-db579009533f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3b32903a-acac-4f58-ba0d-db579009533f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7828,7 +7828,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 4, 6), aprovacao_assembleia=False, id_documento_original=None, id='e65ab997-1c54-4c65-85b9-ccb95b2b3778', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='e65ab997-1c54-4c65-85b9-ccb95b2b3778', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7850,7 +7850,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), aprovacao_assembleia=False, id_documento_original=None, id='dddb2b6e-99a1-4eb3-a3e2-549eacfa1b62', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='dddb2b6e-99a1-4eb3-a3e2-549eacfa1b62', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7872,7 +7872,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 1, 23), aprovacao_assembleia=False, id_documento_original=None, id='a6856eb2-8ae8-4257-ad13-254923623a13', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='a6856eb2-8ae8-4257-ad13-254923623a13', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7894,7 +7894,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 1, 11), aprovacao_assembleia=False, id_documento_original='395bfed4-d197-472a-8e13-b8bdbfc7e2cd', id='b0ea33ec-06e4-4410-a3b2-f322335b9902', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='b0ea33ec-06e4-4410-a3b2-f322335b9902', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='395bfed4-d197-472a-8e13-b8bdbfc7e2cd', data_assinatura=datetime.date(2023, 1, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7916,7 +7916,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=datetime.date(2023, 7, 18), licenciamento=False, data_assinatura=datetime.date(2023, 7, 18), aprovacao_assembleia=False, id_documento_original=None, id='0700d043-e470-4a8c-adc5-700f1f538709', datafinal_vigencia=datetime.date(2028, 7, 18), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='0700d043-e470-4a8c-adc5-700f1f538709', datafinal_vigencia=datetime.date(2028, 7, 18), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 18), datainicial_vigencia=datetime.date(2023, 7, 18), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7938,7 +7938,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', id='622e1944-d24c-4220-bc7d-13ebf3ff0a59', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='622e1944-d24c-4220-bc7d-13ebf3ff0a59', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7960,7 +7960,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', id='06769517-831b-486b-8e37-421ef9e04c76', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='06769517-831b-486b-8e37-421ef9e04c76', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7982,7 +7982,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=None, aprovacao_assembleia=False, id_documento_original=None, id='7a358aec-9772-4f5b-a614-60d2482922e8', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='7a358aec-9772-4f5b-a614-60d2482922e8', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -8004,7 +8004,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 21), aprovacao_assembleia=False, id_documento_original=None, id='91892d35-09cd-43f3-8f82-dea577dfa8a7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='91892d35-09cd-43f3-8f82-dea577dfa8a7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -8026,7 +8026,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 21), aprovacao_assembleia=False, id_documento_original=None, id='3f7ea2f2-25ca-44ec-b34f-64f909c9d051', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='3f7ea2f2-25ca-44ec-b34f-64f909c9d051', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8048,7 +8048,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 8), aprovacao_assembleia=False, id_documento_original=None, id='719a4ec0-99b3-4317-b246-8577dcfc4855', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='719a4ec0-99b3-4317-b246-8577dcfc4855', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8070,7 +8070,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 13), aprovacao_assembleia=False, id_documento_original=None, id='72979fc6-32ec-4cee-af7f-26f3444753fc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='72979fc6-32ec-4cee-af7f-26f3444753fc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8092,7 +8092,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 8, 21), aprovacao_assembleia=False, id_documento_original=None, id='ebbeb3db-a876-4e9b-aa22-73cd10bdd759', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='ebbeb3db-a876-4e9b-aa22-73cd10bdd759', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -8114,7 +8114,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 25), aprovacao_assembleia=False, id_documento_original=None, id='d2bcd4d5-8090-4b88-a687-a720831622a5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d2bcd4d5-8090-4b88-a687-a720831622a5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 25), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8136,7 +8136,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 10, 13), aprovacao_assembleia=False, id_documento_original=None, id='5d44345e-f1e1-4284-9604-4d0cd11526d1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='5d44345e-f1e1-4284-9604-4d0cd11526d1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2024, 1, 8), aprovacao_assembleia=False, id_documento_original=None, id='d576ebc6-0ba0-420b-9b45-0a1799fab3a3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, id='d576ebc6-0ba0-420b-9b45-0a1799fab3a3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2024, 1, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -8180,7 +8180,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1NlFzU4fpRYcdQUDTgYECX1UdEAWPUQdd/view?usp=drive_link', id='b1771209-d5fd-4b87-a679-5024c71cbb77', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='b1771209-d5fd-4b87-a679-5024c71cbb77', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1NlFzU4fpRYcdQUDTgYECX1UdEAWPUQdd/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -8202,7 +8202,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1KdysFHuVhnELFNQFNHmhWGt-Q0EYUcrK/view?usp=drive_link', id='53d04270-9bd9-4f96-9943-5b2d7eb1dda1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='53d04270-9bd9-4f96-9943-5b2d7eb1dda1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1KdysFHuVhnELFNQFNHmhWGt-Q0EYUcrK/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -8224,7 +8224,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2024, 1, 11), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1-OG0Q9hFdEkdePukzGDZG6mXJruNmtz_/view?usp=drive_link', id='b7066dc3-8e31-426c-b8b4-b541d54fb130', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='b7066dc3-8e31-426c-b8b4-b541d54fb130', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1-OG0Q9hFdEkdePukzGDZG6mXJruNmtz_/view?usp=drive_link', data_assinatura=datetime.date(2024, 1, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -8246,7 +8246,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2024, 1, 11), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/18oGdq_AUcPi1txcRPGW4Mu3c0REp23xA/view?usp=drive_link', id='f1fd75c7-b7f0-48be-a1f5-b644fab21cf1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='f1fd75c7-b7f0-48be-a1f5-b644fab21cf1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/18oGdq_AUcPi1txcRPGW4Mu3c0REp23xA/view?usp=drive_link', data_assinatura=datetime.date(2024, 1, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -8268,7 +8268,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2024, 1, 5), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1bZbQwPzyUlBAKEQULUUP2USJumHmOpSb/view?usp=drive_link', id='43b124ac-a3a4-4a55-a42f-101f51df4eaa', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='43b124ac-a3a4-4a55-a42f-101f51df4eaa', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1bZbQwPzyUlBAKEQULUUP2USJumHmOpSb/view?usp=drive_link', data_assinatura=datetime.date(2024, 1, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -8290,7 +8290,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1KsWkB24waq2W8sp16ed7mt9x5sxjIR7z/view?usp=drive_link', id='d5a8d98d-f1eb-477a-ace2-c3cd146eef10', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='d5a8d98d-f1eb-477a-ace2-c3cd146eef10', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1KsWkB24waq2W8sp16ed7mt9x5sxjIR7z/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -8312,7 +8312,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/181vwWefxCIqjRHYK5m9ufuPJfRKcwY_2/view?usp=drive_link', id='12b6e09d-8beb-4925-a411-29bbbb777783', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='12b6e09d-8beb-4925-a411-29bbbb777783', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/181vwWefxCIqjRHYK5m9ufuPJfRKcwY_2/view?usp=drive_link', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -8334,7 +8334,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1Cf47MCZInGnhGXzGbdBeXelfamZ9PU81/view?usp=drive_link', id='41487355-570f-4912-94b9-bf39a6ed0786', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='41487355-570f-4912-94b9-bf39a6ed0786', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1Cf47MCZInGnhGXzGbdBeXelfamZ9PU81/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -8356,7 +8356,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 11, 15), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1rxpKHWt7BvUW6Ds2zesa8jF9B2CJOyqN/view?usp=drive_link', id='456c43bd-cea5-415f-a6bb-2ae6601a5b2d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='456c43bd-cea5-415f-a6bb-2ae6601a5b2d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1rxpKHWt7BvUW6Ds2zesa8jF9B2CJOyqN/view?usp=drive_link', data_assinatura=datetime.date(2023, 11, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -8378,7 +8378,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Vigency(datainicial_vigencia=None, licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1-fXmX53yCUGjZc05JU64YwDnGMEKGa6e/view?usp=drive_link', id='364dd4e2-b3f9-49e3-9482-46b60fafda0d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, id='364dd4e2-b3f9-49e3-9482-46b60fafda0d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1-fXmX53yCUGjZc05JU64YwDnGMEKGa6e/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5377d371-d3ae-4b81-a206-813d0fb02096', datafinal_vigencia=datetime.date(2025, 1, 31), aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2022, 10, 27), datainicial_vigencia=datetime.date(2022, 7, 13), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 27), datainicial_vigencia=datetime.date(2022, 7, 13), aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='5377d371-d3ae-4b81-a206-813d0fb02096', datafinal_vigencia=datetime.date(2025, 1, 31), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,16 +471,12 @@
           <t>https://drive.google.com/file/d/11UiUr-VjRlXSGGCCHe4LmvST0sBZW9uQ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6dff8d42-192d-4845-b4e8-99738b084dfd', datafinal_vigencia=datetime.date(2025, 1, 20), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 7, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 7, 20), aprovacao_assembleia=False, id_documento_original=None, id='6dff8d42-192d-4845-b4e8-99738b084dfd', datafinal_vigencia=datetime.date(2025, 1, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,16 +489,12 @@
           <t>https://drive.google.com/file/d/11cFJ1k1F230GFS3tIq4CxK9KO9lh507r/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='7ec89896-f33a-4dca-af86-473a2ed543a0', datafinal_vigencia=datetime.date(2023, 8, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 14), datainicial_vigencia=datetime.date(2022, 8, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 14), datainicial_vigencia=datetime.date(2022, 8, 31), aprovacao_assembleia=False, id_documento_original=None, id='7ec89896-f33a-4dca-af86-473a2ed543a0', datafinal_vigencia=datetime.date(2023, 8, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -515,16 +507,12 @@
           <t>https://drive.google.com/file/d/11lERFzVy-i4jJCYJOFDmIe0FZvYR2YRK/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b1f8c600-5d7e-492f-b6da-6f9f2a825cb2', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='b1f8c600-5d7e-492f-b6da-6f9f2a825cb2', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -537,16 +525,12 @@
           <t>https://drive.google.com/file/d/122TnfLKCpVlZNjP2k-MAk0MOZLqo11-t/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a0e1b51e-6d49-43c9-8855-c97d6c699024', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a0e1b51e-6d49-43c9-8855-c97d6c699024', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -559,16 +543,12 @@
           <t>https://drive.google.com/file/d/17hcj8ke8JmuQ_BBWj_EKIDyTNtwUuykh/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5ef94598-2fec-46b6-a4f0-50bc49a16f58', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 3, 20), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 3, 20), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='5ef94598-2fec-46b6-a4f0-50bc49a16f58', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -581,16 +561,12 @@
           <t>https://drive.google.com/file/d/18ZLEzCB26x14ETQnZQ5jhJPCLosXQZB0/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2d913af0-c754-4d92-bfce-c2b2b01060e4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 7), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2d913af0-c754-4d92-bfce-c2b2b01060e4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -603,16 +579,12 @@
           <t>https://drive.google.com/file/d/1C9xhv38IbXfkozgGNXQkDmewQvYOUSiF/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ca8342e7-a48b-498c-a9a4-407f29a92b98', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 22), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='ca8342e7-a48b-498c-a9a4-407f29a92b98', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -625,16 +597,12 @@
           <t>https://drive.google.com/file/d/1C_kq1i1C3sgxrRvMuNB1P1oEgAA5sBhp/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6c07df2d-53fb-4732-9d25-531e724fb05e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='6c07df2d-53fb-4732-9d25-531e724fb05e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -647,16 +615,12 @@
           <t>https://drive.google.com/file/d/1CdXCK2fKE9snBmxitQsDVKBA8U3-ctl9/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0f9a1769-901f-4c0c-95e9-be1ad0ba07fe', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 21), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='0f9a1769-901f-4c0c-95e9-be1ad0ba07fe', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -669,16 +633,12 @@
           <t>https://drive.google.com/file/d/1CdlLWJ_RsJzhCisGsR3z5M4zSWw7LFag/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='65d98bc1-dfd3-4f1f-b4a2-ee0d1dcf81bb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='65d98bc1-dfd3-4f1f-b4a2-ee0d1dcf81bb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -691,16 +651,12 @@
           <t>https://drive.google.com/file/d/1CeFuklGlLQTmKNTU4kldwjlXtJ8D1BoP/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='018d4b2c-3fa2-42e5-a3ef-7c800eb51c94', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 19), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='018d4b2c-3fa2-42e5-a3ef-7c800eb51c94', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,16 +669,12 @@
           <t>https://drive.google.com/file/d/1Cf47MCZInGnhGXzGbdBeXelfamZ9PU81/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6f3d9e3d-9f03-4dbc-a36b-b6f2c94ba008', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fa58c97f-8376-4b35-9b1a-483fd8b31410', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='fa58c97f-8376-4b35-9b1a-483fd8b31410', id='6f3d9e3d-9f03-4dbc-a36b-b6f2c94ba008', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -735,16 +687,12 @@
           <t>https://drive.google.com/file/d/1-TTyOvWBdnWKb_hd0-iPbupuBYxbPtiA/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='1ea3584d-4ba3-408a-b3d4-9a4807c12fc9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='1ea3584d-4ba3-408a-b3d4-9a4807c12fc9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -757,16 +705,12 @@
           <t>https://drive.google.com/file/d/12CwId7rNwcdwqjX_hVKt_csQhGeWZBIt/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=True, id='aa47e849-ecd7-4e1f-99b6-a1a606f07a4a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, data_assinatura=datetime.date(2022, 9, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='aa47e849-ecd7-4e1f-99b6-a1a606f07a4a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -779,16 +723,12 @@
           <t>https://drive.google.com/file/d/12JOPmgZcT8qQ7b86Qxp4iM6IZDaLRcSR/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2670419a-8878-479e-9318-11d769e5166d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2670419a-8878-479e-9318-11d769e5166d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -801,16 +741,12 @@
           <t>https://drive.google.com/file/d/12S0_j5QmPwZo592Egj_82BGUJd-RWp2x/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=True, id='98ad4f76-37ab-42ed-983b-9d15836d0dc4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, data_assinatura=datetime.date(2023, 6, 22), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='98ad4f76-37ab-42ed-983b-9d15836d0dc4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -823,16 +759,12 @@
           <t>https://drive.google.com/file/d/1CgfqkLNiiSjWFpCzFM2-Q-0uZxahSka1/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f74856ad-866e-4e59-95cd-644b992005f5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f74856ad-866e-4e59-95cd-644b992005f5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -845,16 +777,12 @@
           <t>https://drive.google.com/file/d/1CkLkK0NvUL6yKol_3h8CXxvt_XTefglA/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2332cb59-f317-4e26-9582-765da815e73e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 7), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2332cb59-f317-4e26-9582-765da815e73e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -867,16 +795,12 @@
           <t>https://drive.google.com/file/d/1Cs6KjwLLGuibmoOTrgyI4jJrNclDdfs-/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='37c3aae7-eb4c-4d40-8b4a-6985eea9fc53', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 15), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='37c3aae7-eb4c-4d40-8b4a-6985eea9fc53', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -889,16 +813,12 @@
           <t>https://drive.google.com/file/d/1Cwfetu_DDmA7uJgYRXKlMxF-yDMz1PwC/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='24360308-6061-445f-a430-f1b7b152421e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2021, 9, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2021, 9, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='24360308-6061-445f-a430-f1b7b152421e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -911,16 +831,12 @@
           <t>https://drive.google.com/file/d/1D0S2XI4uElfQVyHCJ0ob34WkrjFG4Dsv/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='7ca47023-8c2f-41d9-a3d7-348188e3a01a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='7b2d61d5-a9f6-49c9-9b01-1b4f4dfbf15f', data_assinatura=datetime.date(2023, 6, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 14), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='7b2d61d5-a9f6-49c9-9b01-1b4f4dfbf15f', id='7ca47023-8c2f-41d9-a3d7-348188e3a01a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -933,16 +849,12 @@
           <t>https://drive.google.com/file/d/1D2FoUMvjKfMSeqgaC-D6SY1E-_ufkwP3/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='07557baf-e641-452a-80dc-492a6a79f4cb', datafinal_vigencia=datetime.date(2024, 6, 9), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 9), datainicial_vigencia=datetime.date(2022, 6, 9), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 9), datainicial_vigencia=datetime.date(2022, 6, 9), aprovacao_assembleia=False, id_documento_original=None, id='07557baf-e641-452a-80dc-492a6a79f4cb', datafinal_vigencia=datetime.date(2024, 6, 9), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -955,16 +867,12 @@
           <t>https://drive.google.com/file/d/1DEpsEUjpQU0Nd7vqucjs01DYArkKCRVs/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c0536556-5be6-4e70-a4d7-26daba017a0f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='24948b38-f798-48db-8ff0-4b612fbcd0af', data_assinatura=datetime.date(2023, 8, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 22), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='24948b38-f798-48db-8ff0-4b612fbcd0af', id='c0536556-5be6-4e70-a4d7-26daba017a0f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -977,16 +885,12 @@
           <t>https://drive.google.com/file/d/1DcsnKlGurVRFHwp4UwkFcDarJJhjmatW/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0a4429eb-9dfd-4dab-9f9d-424cd964e9b0', datafinal_vigencia=datetime.date(2027, 8, 4), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 4), datainicial_vigencia=datetime.date(2022, 8, 4), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 4), datainicial_vigencia=datetime.date(2022, 8, 4), aprovacao_assembleia=False, id_documento_original=None, id='0a4429eb-9dfd-4dab-9f9d-424cd964e9b0', datafinal_vigencia=datetime.date(2027, 8, 4), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -999,16 +903,12 @@
           <t>https://drive.google.com/file/d/10VJk7zI8SL4s6A_9JGV2JVRb6HyDBEqR/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='de4171d1-931e-44dc-82f3-9688bf634117', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 11), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='de4171d1-931e-44dc-82f3-9688bf634117', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1021,16 +921,12 @@
           <t>https://drive.google.com/file/d/1E6z7cpe2HzPyukQDbIKaGZjtiMr4lrUZ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f0c2d99b-4a53-4064-81f2-0fe1d5c6323c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 7), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f0c2d99b-4a53-4064-81f2-0fe1d5c6323c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1043,16 +939,12 @@
           <t>https://drive.google.com/file/d/1EbdOJ-cuYFk6yI9yHcZYIT_yEsrENNI7/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e8d6fca0-f1be-45b7-9a16-37c918344563', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 7), datainicial_vigencia=datetime.date(2022, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 7), datainicial_vigencia=datetime.date(2022, 3, 7), aprovacao_assembleia=False, id_documento_original=None, id='e8d6fca0-f1be-45b7-9a16-37c918344563', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1065,16 +957,12 @@
           <t>https://drive.google.com/file/d/1El3yl7WQ6FM4pkPjLT1jtACMHqOJt__C/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='87c74b3a-f4e3-49c3-9f10-a3be471e056f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='87c74b3a-f4e3-49c3-9f10-a3be471e056f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1087,16 +975,12 @@
           <t>https://drive.google.com/file/d/1FBlaRTSzEsICUpJMOKkIwlejrcE5O8wp/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3a009c38-937c-46cf-8878-29046eef4c80', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='4af5bdb5-0e31-49d2-8ab1-205d82ea1ccd', data_assinatura=datetime.date(2023, 10, 24), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 24), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='4af5bdb5-0e31-49d2-8ab1-205d82ea1ccd', id='3a009c38-937c-46cf-8878-29046eef4c80', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1109,16 +993,12 @@
           <t>https://drive.google.com/file/d/1FCgIz8KmmpARVKB4WouVnBmmIH1CqeKM/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f8e9f77e-e21c-41dc-aa0a-704bc96358e3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 3), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f8e9f77e-e21c-41dc-aa0a-704bc96358e3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1131,16 +1011,12 @@
           <t>https://drive.google.com/file/d/1Fek5MVh19EM2mG3r6jDkZ6vDI9Yu5j0k/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e30e8949-8339-4ee1-b8eb-c8ea95d49434', datafinal_vigencia=datetime.date(2027, 11, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 7), datainicial_vigencia=datetime.date(2022, 11, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 7), datainicial_vigencia=datetime.date(2022, 11, 7), aprovacao_assembleia=False, id_documento_original=None, id='e30e8949-8339-4ee1-b8eb-c8ea95d49434', datafinal_vigencia=datetime.date(2027, 11, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1153,16 +1029,12 @@
           <t>https://drive.google.com/file/d/1Fi0EDEHA_-NMAuOA5oIZgVU7SKY7Tubu/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='eb69f294-5342-42c1-8d5c-f8c9948c1daf', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 21), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='eb69f294-5342-42c1-8d5c-f8c9948c1daf', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1175,16 +1047,12 @@
           <t>https://drive.google.com/file/d/1GFe_UEub2Apvau0zw2UaXGuxSEGkefEN/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='27521936-ff2b-418b-b768-95f09d674d0e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='27521936-ff2b-418b-b768-95f09d674d0e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1197,16 +1065,12 @@
           <t>https://drive.google.com/file/d/1GN-R-tlEoDgtbbpyrCn_FdDhArg2R1PD/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='9cbdfe56-3533-4104-89ea-12c6c8113b53', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 26), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 26), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='9cbdfe56-3533-4104-89ea-12c6c8113b53', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1219,16 +1083,12 @@
           <t>https://drive.google.com/file/d/1HccGRpqOfBxrQYi90UIjnrNx-sc_S47A/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='1bd7543f-ee16-4473-9585-0117189d560f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', id='1bd7543f-ee16-4473-9585-0117189d560f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1241,16 +1101,12 @@
           <t>https://drive.google.com/file/d/1HhR2TsRKltVRp8qTKuV0t6bjjuwC7lY5/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0507c683-bf9b-498f-9aa9-10457f8de06b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='0507c683-bf9b-498f-9aa9-10457f8de06b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1263,16 +1119,12 @@
           <t>https://drive.google.com/file/d/1HnxqFEahBhH3136h6sTHJjEVKn-qHNZc/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='53a6bb71-7c30-4220-a316-b03b24cab5c2', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 16), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='53a6bb71-7c30-4220-a316-b03b24cab5c2', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1285,16 +1137,12 @@
           <t>https://drive.google.com/file/d/1Hy9NDDZH677J5-MCUjGe63F2mpe4u1Tc/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a9209a80-4e93-4309-a8a8-ef3eb3a48166', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a9209a80-4e93-4309-a8a8-ef3eb3a48166', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1307,16 +1155,12 @@
           <t>https://drive.google.com/file/d/1-nTDekXxeKST5lGG0jxXNK2nm7UHw-Hd/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='91fa346d-014f-4e69-9da4-d3b9b699d4bf', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='91fa346d-014f-4e69-9da4-d3b9b699d4bf', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1329,16 +1173,12 @@
           <t>https://drive.google.com/file/d/12W2MyFh_lViBSOHgHX_QF-dGhay4sLUt/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='41698f3b-c4cb-4818-928c-3469b8ecb15d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='41698f3b-c4cb-4818-928c-3469b8ecb15d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1351,16 +1191,12 @@
           <t>https://drive.google.com/file/d/1IfhcAfHwCKbhpCzZv2mZ8VFl6FYbGE9E/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3d108223-9529-45d7-a3c6-099cc6856e7c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='ac73c21b-2bcc-4659-8ede-d1ff807b646d', data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='ac73c21b-2bcc-4659-8ede-d1ff807b646d', id='3d108223-9529-45d7-a3c6-099cc6856e7c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1373,16 +1209,12 @@
           <t>https://drive.google.com/file/d/1JelTWv1WfmvI2INy3e63eKS5wwvDK7Uu/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c143a9fa-2099-4de0-ac64-b5c60727ba6d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='c143a9fa-2099-4de0-ac64-b5c60727ba6d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1395,16 +1227,12 @@
           <t>https://drive.google.com/file/d/1Jq5Oz0TB11-mEsyY5Z-5lo2DlzxPvUB6/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='9ae4be42-dbac-4abb-92e1-033c36477ffd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='89c9df8c-b1e5-4115-93eb-76da3296d15c', data_assinatura=datetime.date(2023, 6, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 14), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='89c9df8c-b1e5-4115-93eb-76da3296d15c', id='9ae4be42-dbac-4abb-92e1-033c36477ffd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1417,16 +1245,12 @@
           <t>https://drive.google.com/file/d/1Jy8eEPRHRZimnNnfvuSXB9rvFHKxlrFR/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='aa47e757-9a49-489a-814e-6ede55a110ca', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='aa47e757-9a49-489a-814e-6ede55a110ca', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1439,16 +1263,12 @@
           <t>https://drive.google.com/file/d/1KJeZOZS5PZ8KHuXHO_Glj5ToQeGgqr8B/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='230c92ee-4134-4417-9c2a-c6a7c9bebfb6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='290f7813-1d0d-453b-9395-30e25860b57f', data_assinatura=datetime.date(2022, 9, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='290f7813-1d0d-453b-9395-30e25860b57f', id='230c92ee-4134-4417-9c2a-c6a7c9bebfb6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1461,16 +1281,12 @@
           <t>https://drive.google.com/file/d/1KL_1AJhNZXBN_0S5QZLEcUQQgReAIWww/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c1bb7ee9-ef92-4193-85f3-2864f6bb1b84', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 21), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='c1bb7ee9-ef92-4193-85f3-2864f6bb1b84', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1483,16 +1299,12 @@
           <t>https://drive.google.com/file/d/1KQ48YG0L9CYtq1VV89n4PHyU873ioRLk/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0f5f9dd7-3786-4830-8ce1-af94b0dcc8e8', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='0f5f9dd7-3786-4830-8ce1-af94b0dcc8e8', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1505,16 +1317,12 @@
           <t>https://drive.google.com/file/d/1KdysFHuVhnELFNQFNHmhWGt-Q0EYUcrK/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='fd47a614-b42b-4413-bf53-6ef5faf049e5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='fd47a614-b42b-4413-bf53-6ef5faf049e5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1527,16 +1335,12 @@
           <t>https://drive.google.com/file/d/1KlJY8-pUEASsKGCyC3Oqcm9aSUMwYQV2/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e36d4016-f232-4ecb-be16-1ace268d5c66', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='c693cb2d-498f-48a4-900a-d115e41df904', data_assinatura=datetime.date(2022, 5, 20), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 5, 20), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='c693cb2d-498f-48a4-900a-d115e41df904', id='e36d4016-f232-4ecb-be16-1ace268d5c66', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1549,16 +1353,12 @@
           <t>https://drive.google.com/file/d/117YYOy3_3wF8k0blI0rO4W4CwdrHKdVF/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c7f8d90e-a7f2-4f50-ab23-22f48bed0f52', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='c7f8d90e-a7f2-4f50-ab23-22f48bed0f52', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1571,16 +1371,12 @@
           <t>https://drive.google.com/file/d/13Mfex3WxM0-AD9MPwTesgS_gdcM1O3e9/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2ee771c4-572f-47e1-863a-9f7ff23fc298', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 7), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2ee771c4-572f-47e1-863a-9f7ff23fc298', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1593,16 +1389,12 @@
           <t>https://drive.google.com/file/d/144ofen5lWtn_i6Fzc2BRApyZT5zxLXyf/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='565701ac-1349-409f-8d58-f64d5f8e8bcb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='565701ac-1349-409f-8d58-f64d5f8e8bcb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1615,16 +1407,12 @@
           <t>https://drive.google.com/file/d/14cuTL0XLmZVleHEir1jlaZskMiIEoqwZ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3f1a22c7-e61e-46bb-867a-5f937d5bf1d6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3f1a22c7-e61e-46bb-867a-5f937d5bf1d6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1637,16 +1425,12 @@
           <t>https://drive.google.com/file/d/1KDtsSwTSAsWwwmafylBE1ArTVGyWZi6d/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='43d3c7c3-1554-4956-ad66-a20640c61f2c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='2863fbf1-5c25-4b2d-8c6a-5617ebf91672', data_assinatura=datetime.date(2022, 11, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='2863fbf1-5c25-4b2d-8c6a-5617ebf91672', id='43d3c7c3-1554-4956-ad66-a20640c61f2c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1659,16 +1443,12 @@
           <t>https://drive.google.com/file/d/1Knaw_yQizlxmH6kPdlEHtMy7WRlTw1mz/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='49835752-0a8d-49f1-9027-525ecd883b59', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 19), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='49835752-0a8d-49f1-9027-525ecd883b59', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1681,16 +1461,12 @@
           <t>https://drive.google.com/file/d/1KrfkRTNe3nmM8U23NXns_m_V4e1lf94s/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='8ef86e7b-64c4-4de9-b35f-c65d294bd5bb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='8ef86e7b-64c4-4de9-b35f-c65d294bd5bb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1703,16 +1479,12 @@
           <t>https://drive.google.com/file/d/1LYKZHyC2A-txuuv2KYvwVC5EFMZU8RG1/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='31ce6c1c-8efb-450f-b397-df2ea0eed4df', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f1af0ebd-c8fb-4cef-a53f-625ba9b50366', data_assinatura=datetime.date(2022, 10, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='f1af0ebd-c8fb-4cef-a53f-625ba9b50366', id='31ce6c1c-8efb-450f-b397-df2ea0eed4df', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1725,16 +1497,12 @@
           <t>https://drive.google.com/file/d/1LmZANrvYOxLquKLGVLzQdlVm1q2yCehe/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='9f169c55-e1cd-40e7-b3f2-73503e500e18', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='9f169c55-e1cd-40e7-b3f2-73503e500e18', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1756,7 +1524,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e009de34-161c-40e5-b14f-c894fe8cf594', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='e009de34-161c-40e5-b14f-c894fe8cf594', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1769,16 +1537,12 @@
           <t>https://drive.google.com/file/d/1KsWkB24waq2W8sp16ed7mt9x5sxjIR7z/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='381fe050-f3aa-44f8-b0f6-88d558715b4a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 17), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='381fe050-f3aa-44f8-b0f6-88d558715b4a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1791,16 +1555,12 @@
           <t>https://drive.google.com/file/d/14je9Fi6FcIxYoZ7-Vrue9hg7PMsoIJML/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='720e35c7-8544-49a0-bf27-c07463396133', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='97886a13-251c-48cb-9875-fe6292815a9c', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='97886a13-251c-48cb-9875-fe6292815a9c', id='720e35c7-8544-49a0-bf27-c07463396133', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1813,16 +1573,12 @@
           <t>https://drive.google.com/file/d/150fVziXCwtEcR_aiccFmXMQekq-RAspM/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a73fbeef-3eee-4be3-951a-676e8427fd04', datafinal_vigencia=datetime.date(2028, 3, 29), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 3, 29), datainicial_vigencia=datetime.date(2023, 3, 29), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 3, 29), datainicial_vigencia=datetime.date(2023, 3, 29), aprovacao_assembleia=False, id_documento_original=None, id='a73fbeef-3eee-4be3-951a-676e8427fd04', datafinal_vigencia=datetime.date(2028, 3, 29), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1835,16 +1591,12 @@
           <t>https://drive.google.com/file/d/172dvTsfCqSTXKmHxNBCNxZyi7894lgk3/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a4789816-ccf1-48f0-a5bc-4af44c9ec28b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='7ce911a0-afc3-4f49-869d-5e081bed8f87', data_assinatura=datetime.date(2023, 12, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 6), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='7ce911a0-afc3-4f49-869d-5e081bed8f87', id='a4789816-ccf1-48f0-a5bc-4af44c9ec28b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1857,16 +1609,12 @@
           <t>https://drive.google.com/file/d/17LaCBRz6haPAjh-yRuOy6wlRcmqxJY3C/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d87c5934-ecc0-40f7-940d-3151c70b538a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d87c5934-ecc0-40f7-940d-3151c70b538a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1879,16 +1627,12 @@
           <t>https://drive.google.com/file/d/17itRljcd_dOjZ4K2KlLhpwoh__L6g6dt/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='02a703cc-7fc5-4d0c-b8d4-45b8a7442db7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='02a703cc-7fc5-4d0c-b8d4-45b8a7442db7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1901,16 +1645,12 @@
           <t>https://drive.google.com/file/d/17vD6ylsxxiX3b0cURJ7zZJpi2gi-qaCl/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='570e2300-119e-40a9-b98d-ddae936ab6b0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='570e2300-119e-40a9-b98d-ddae936ab6b0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1923,16 +1663,12 @@
           <t>https://drive.google.com/file/d/17xwU2Iij7vn9HxFGnEE8iUFhn3uBNAvF/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4d8b65f3-f977-4769-9313-304c3789520d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4d8b65f3-f977-4769-9313-304c3789520d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1945,16 +1681,12 @@
           <t>https://drive.google.com/file/d/18-D-GvhYx9tgJ-XsmYprEFZjNeYf8bzk/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a22743c5-3696-4daf-9568-077a92f31f12', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='df56e76f-1e6c-4135-a9bf-13b5155353d5', data_assinatura=datetime.date(2023, 3, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 3, 17), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='df56e76f-1e6c-4135-a9bf-13b5155353d5', id='a22743c5-3696-4daf-9568-077a92f31f12', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1967,16 +1699,12 @@
           <t>https://drive.google.com/file/d/18X1_AKaBn50n5RjDWIRsfeC5AWhjYG6U/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='581a650f-cba9-4713-9219-83dd7720e636', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='4c286726-da6c-4ee0-a13f-df8540251430', data_assinatura=datetime.date(2023, 11, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='4c286726-da6c-4ee0-a13f-df8540251430', id='581a650f-cba9-4713-9219-83dd7720e636', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1989,16 +1717,12 @@
           <t>https://drive.google.com/file/d/1LovoQXjQ-Qt0cYMqOtqIim9LCkNpForC/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='273a2f24-cf93-4c3f-8a16-f85ae09c4398', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='273a2f24-cf93-4c3f-8a16-f85ae09c4398', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2011,16 +1735,12 @@
           <t>https://drive.google.com/file/d/1M3EBeYPrTsyAl0Tq-QhRVi9ufecS1Fwk/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='49b931a2-0745-4d21-8ee5-01fc4a27f452', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 30), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 1, 30), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='49b931a2-0745-4d21-8ee5-01fc4a27f452', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2033,16 +1753,12 @@
           <t>https://drive.google.com/file/d/1MrK-jLDVmXaxOOrcypqwmOSVrhiPXme-/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a82d89a2-7e99-4a73-8477-616cfe776914', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a82d89a2-7e99-4a73-8477-616cfe776914', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2055,16 +1771,12 @@
           <t>https://drive.google.com/file/d/1NlFzU4fpRYcdQUDTgYECX1UdEAWPUQdd/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d25d5569-8175-4dc5-a5a3-13e96f1c5742', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 1), datainicial_vigencia=datetime.date(2023, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 1), datainicial_vigencia=datetime.date(2023, 6, 1), aprovacao_assembleia=False, id_documento_original=None, id='d25d5569-8175-4dc5-a5a3-13e96f1c5742', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2077,16 +1789,12 @@
           <t>https://drive.google.com/file/d/1NljQN6QAmZclp9_RwCahRbJREpV9VECh/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='edfff96e-86f5-4039-bab7-3cdc7c40b16c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='edfff96e-86f5-4039-bab7-3cdc7c40b16c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2099,16 +1807,12 @@
           <t>https://drive.google.com/file/d/1NocHDbGtDMX9n64OZBwWZKeRiL0kfwnx/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='815de009-4582-4080-a2e2-605b25ae62a5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 23), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='815de009-4582-4080-a2e2-605b25ae62a5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2121,16 +1825,12 @@
           <t>https://drive.google.com/file/d/1OB7VS8GU8u3Z3PNdxLxkILcWrZFxoXWT/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='629781e5-2619-4f55-9473-dffb5dafdfb0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='13fc76c6-1e05-4b6f-958f-74ccd4a488a2', data_assinatura=datetime.date(2023, 6, 26), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 26), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='13fc76c6-1e05-4b6f-958f-74ccd4a488a2', id='629781e5-2619-4f55-9473-dffb5dafdfb0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2143,16 +1843,12 @@
           <t>https://drive.google.com/file/d/1P0Z-B89K8haUoNM52cpsRcVEU6zgykK9/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='dcfcafdb-a0fa-4fd4-ad60-733a198a2a64', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1195f073-edf6-4e0b-b0bd-805b0976b6dd', data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='1195f073-edf6-4e0b-b0bd-805b0976b6dd', id='dcfcafdb-a0fa-4fd4-ad60-733a198a2a64', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2165,16 +1861,12 @@
           <t>https://drive.google.com/file/d/1P8WTnRgrzpkS6YWaJd90qDXInJCm5J_H/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3a0dcb18-7243-4b19-9c6f-84e3e7ba8c29', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3a0dcb18-7243-4b19-9c6f-84e3e7ba8c29', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2187,16 +1879,12 @@
           <t>https://drive.google.com/file/d/1PRJM2ttWoRLnGRP1KT2jiB82ILOXT2Ax/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d0675144-4ea4-4307-bef4-da267ff6ace7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='2a837eb9-b0ef-4f0c-a0ec-9ce69d720326', data_assinatura=datetime.date(2022, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='2a837eb9-b0ef-4f0c-a0ec-9ce69d720326', id='d0675144-4ea4-4307-bef4-da267ff6ace7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2209,16 +1897,12 @@
           <t>https://drive.google.com/file/d/1PnCdPmZJd9_B_JQpKaDL1k97zJBZEgIE/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='9fc5de31-88f2-4c35-8291-935f66f151e4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='7be1f47b-b85d-4a8d-b14a-3d915eaa87a8', data_assinatura=datetime.date(2023, 7, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='7be1f47b-b85d-4a8d-b14a-3d915eaa87a8', id='9fc5de31-88f2-4c35-8291-935f66f151e4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2231,16 +1915,12 @@
           <t>https://drive.google.com/file/d/1PrLxRGfqScmborkzWDtWwAtlYOBTBr8f/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e17057dd-7316-45dd-8506-2417ad3f9dc6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 11), datainicial_vigencia=datetime.date(2023, 1, 11), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 1, 11), datainicial_vigencia=datetime.date(2023, 1, 11), aprovacao_assembleia=False, id_documento_original=None, id='e17057dd-7316-45dd-8506-2417ad3f9dc6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2253,16 +1933,12 @@
           <t>https://drive.google.com/file/d/1QTORWBYga0y_AErN_QmeFaTVp2KtcgO7/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='1123c7d7-e0d2-408b-85fc-2c83547d8c43', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='1123c7d7-e0d2-408b-85fc-2c83547d8c43', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2284,7 +1960,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c845fb46-1733-4e52-b0ab-7c164aae81cd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='c845fb46-1733-4e52-b0ab-7c164aae81cd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2297,16 +1973,12 @@
           <t>https://drive.google.com/file/d/1QVXZFiPgkdLnYxqpckcJvc_vmz-VJxHT/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d7f4a04c-8afe-4b85-bf8e-dd9ad00c812a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d7f4a04c-8afe-4b85-bf8e-dd9ad00c812a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2319,16 +1991,12 @@
           <t>https://drive.google.com/file/d/1QchJvPDHuq2Nvr_0QsqnhXqdl_84Jz2Y/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='7cb5eb60-0b33-4a74-97ca-665b02badc7c', datafinal_vigencia=datetime.date(2024, 12, 21), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=datetime.date(2022, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=datetime.date(2022, 12, 21), aprovacao_assembleia=False, id_documento_original=None, id='7cb5eb60-0b33-4a74-97ca-665b02badc7c', datafinal_vigencia=datetime.date(2024, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2341,16 +2009,12 @@
           <t>https://drive.google.com/file/d/1Qy0OKl6DsCDskC-2wetbSOA88Mlj7iqy/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='aa5c1e88-614a-4d37-bb6d-cec90b353161', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='aa5c1e88-614a-4d37-bb6d-cec90b353161', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2363,16 +2027,12 @@
           <t>https://drive.google.com/file/d/1RAOc2Fqmi7RnHqjbKbwRn_AfjyfAZkP0/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=True, id='ed95686b-f4d6-4cda-8eca-5f991ce92b91', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d38902d1-d0c2-4f0a-85aa-26a9f00e26ab', data_assinatura=datetime.date(2023, 8, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=True, data_assinatura=datetime.date(2023, 8, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='d38902d1-d0c2-4f0a-85aa-26a9f00e26ab', id='ed95686b-f4d6-4cda-8eca-5f991ce92b91', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2385,16 +2045,12 @@
           <t>https://drive.google.com/file/d/1RFq1406KHfK3n-BcOCduhdL-BwL-oxnJ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5d66a138-0bb2-4335-920c-37a4ff38a58c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='5d66a138-0bb2-4335-920c-37a4ff38a58c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2407,16 +2063,12 @@
           <t>https://drive.google.com/file/d/1RiwucTr5HpDvHgRkC5FonVpQWfyX2gpd/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='94576d4e-1896-418c-bf43-1071c04a886d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 2), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 2), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='94576d4e-1896-418c-bf43-1071c04a886d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2429,16 +2081,12 @@
           <t>https://drive.google.com/file/d/1RyiaqhRiaU_5TNAHkdInimmAibnbinE3/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6cd960ff-12a6-4747-b33f-7cdbc5e767e7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 11), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='6cd960ff-12a6-4747-b33f-7cdbc5e767e7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2451,16 +2099,12 @@
           <t>https://drive.google.com/file/d/1SRJu4xtV5ihgdwSG_NN9RPT30HmPVKAl/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='baefebd7-5684-4efa-a787-30173b925d73', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='baefebd7-5684-4efa-a787-30173b925d73', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2473,16 +2117,12 @@
           <t>https://drive.google.com/file/d/1SfJpeNBVI9L-mRgX5QryqQovoh0OO8B7/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6ec0cadb-2ed6-4017-95b4-b2ca5c39eea3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 6), datainicial_vigencia=datetime.date(2022, 6, 6), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 6), datainicial_vigencia=datetime.date(2022, 6, 6), aprovacao_assembleia=False, id_documento_original=None, id='6ec0cadb-2ed6-4017-95b4-b2ca5c39eea3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2495,16 +2135,12 @@
           <t>https://drive.google.com/file/d/1SxLh7v6ExOOkVn-jHoa0JfxtbPPWAW9X/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='65d9a328-df71-4cc1-ac24-b707e7c68952', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 15), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='65d9a328-df71-4cc1-ac24-b707e7c68952', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2517,16 +2153,12 @@
           <t>https://drive.google.com/file/d/1T2t0SjiLWxMnZHB3KBCRSl_uxJOPsFJ0/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0e5d51b1-1a12-484e-abdf-128bd0c03282', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 7), datainicial_vigencia=datetime.date(2022, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 7), datainicial_vigencia=datetime.date(2022, 3, 7), aprovacao_assembleia=False, id_documento_original=None, id='0e5d51b1-1a12-484e-abdf-128bd0c03282', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2539,16 +2171,12 @@
           <t>https://drive.google.com/file/d/1T7mVivxY54N13g_ckZ_IbV-lT_u7CrNd/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a8b73d5b-a96a-4eb2-ae44-6f2116d73be0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a8b73d5b-a96a-4eb2-ae44-6f2116d73be0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2561,16 +2189,12 @@
           <t>https://drive.google.com/file/d/1TWGoQnpTfr2nYbxDelPsArYEA-cVgn_Y/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='1263ca3e-3bee-4298-91a7-0eea0ee6390d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 9), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 9), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='1263ca3e-3bee-4298-91a7-0eea0ee6390d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2583,16 +2207,12 @@
           <t>https://drive.google.com/file/d/1S51UsNzPS4XU1K_2_Ew2OaBCF5ML8gA9/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2bf0b158-3740-4e4a-a3d3-80551f837b3b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 15), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2bf0b158-3740-4e4a-a3d3-80551f837b3b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2605,16 +2225,12 @@
           <t>https://drive.google.com/file/d/1QpYUQF0cjmYdVghoZ0n-mHjB4C60NLOv/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>more than one date</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a5a52d04-d63a-4823-a8aa-038e2d2fb694', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='bf8e6b2b-e3fc-47d9-98ab-c386a7621618', data_assinatura=datetime.date(2023, 1, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 1, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='bf8e6b2b-e3fc-47d9-98ab-c386a7621618', id='a5a52d04-d63a-4823-a8aa-038e2d2fb694', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2627,16 +2243,12 @@
           <t>https://drive.google.com/file/d/1Tv3Xnl527SFiqBfQKb0IAXBtXZgZY8ZR/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='477daf5c-56ff-444f-8f0d-e9585f342a24', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 7), datainicial_vigencia=datetime.date(2022, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 7), datainicial_vigencia=datetime.date(2022, 3, 7), aprovacao_assembleia=False, id_documento_original=None, id='477daf5c-56ff-444f-8f0d-e9585f342a24', datafinal_vigencia=datetime.date(2032, 3, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2649,16 +2261,12 @@
           <t>https://drive.google.com/file/d/1V5K7tIt0jdr4ASLWIgacRoFkTS-sTZNl/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c67a569e-e08d-4b29-afdf-f9d294e5156c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='c67a569e-e08d-4b29-afdf-f9d294e5156c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2671,16 +2279,12 @@
           <t>https://drive.google.com/file/d/1VDMQSgRtas3wWTjPpst9NR9ry7i0bDam/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='69a312a4-fadc-40a9-ac54-9602eba40252', datafinal_vigencia=datetime.date(2023, 8, 31), aprovacao_assembleia=False, id_documento_original='e204c2d4-dbbf-4422-bd37-66a386af05a5', data_assinatura=datetime.date(2023, 6, 2), datainicial_vigencia=datetime.date(2023, 5, 18), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 2), datainicial_vigencia=datetime.date(2023, 5, 18), aprovacao_assembleia=False, id_documento_original='e204c2d4-dbbf-4422-bd37-66a386af05a5', id='69a312a4-fadc-40a9-ac54-9602eba40252', datafinal_vigencia=datetime.date(2023, 8, 31), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2693,16 +2297,12 @@
           <t>https://drive.google.com/file/d/1VLfk_V7ByE95JF1aQrpjhrCjfwiVdr3y/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4545f791-3aaa-4ed5-8d8e-3479c925affa', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4545f791-3aaa-4ed5-8d8e-3479c925affa', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2715,16 +2315,12 @@
           <t>https://drive.google.com/file/d/1VVVRvA1zDjoLYpYoxrU9vvTKKO504LIY/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d57ab4e3-4a5d-4b40-93bc-c18b36fae382', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d57ab4e3-4a5d-4b40-93bc-c18b36fae382', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2737,16 +2333,12 @@
           <t>https://drive.google.com/file/d/1Vqowd9fD9O45V-L6rUh1raIN1QF317iP/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='eda826b1-69e3-4224-83ec-4c47dd822cdd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 30), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 30), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='eda826b1-69e3-4224-83ec-4c47dd822cdd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2759,16 +2351,12 @@
           <t>https://drive.google.com/file/d/1WAS5mGnQcbT7gOFeWvKdQT45VOJj6wZA/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='8d708957-d264-4965-90ad-8241ef1a03b5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='8d708957-d264-4965-90ad-8241ef1a03b5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2781,16 +2369,12 @@
           <t>https://drive.google.com/file/d/1X2GlSdUNtSYuFsZ-dJ4Ao8EJbX1PL-xd/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b7c80445-404d-43cf-a78e-38be7401c1f4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 22), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='b7c80445-404d-43cf-a78e-38be7401c1f4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2803,16 +2387,12 @@
           <t>https://drive.google.com/file/d/1Xfm3QYRHxcKYMF5pyTgQJnzyYsQdpfUL/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2505cffa-e968-413a-9790-a47dfd9e7bde', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 6), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2505cffa-e968-413a-9790-a47dfd9e7bde', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2825,16 +2405,12 @@
           <t>https://drive.google.com/file/d/1XoFg36Wcr6lrvKrA5IaPyVxHFzUv81z5/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='9b57b447-0189-4205-8d08-504578502a49', datafinal_vigencia=datetime.date(2032, 9, 19), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 19), datainicial_vigencia=datetime.date(2022, 9, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 19), datainicial_vigencia=datetime.date(2022, 9, 19), aprovacao_assembleia=False, id_documento_original=None, id='9b57b447-0189-4205-8d08-504578502a49', datafinal_vigencia=datetime.date(2032, 9, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2847,16 +2423,12 @@
           <t>https://drive.google.com/file/d/1XqP-TKoDdtCu4BbMlKK1nH8K2JX4Sd8t/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3b4abda4-abbf-4a42-9385-2fb8565bbd5c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 22), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3b4abda4-abbf-4a42-9385-2fb8565bbd5c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2869,16 +2441,12 @@
           <t>https://drive.google.com/file/d/1XtEsXDHfdxWR1TB13zHqbj7DvPkw5deZ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=True, id='4b2ce328-1dcd-427c-8d90-5a7c0c45f98b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 26), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, data_assinatura=datetime.date(2023, 1, 26), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4b2ce328-1dcd-427c-8d90-5a7c0c45f98b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2891,16 +2459,12 @@
           <t>https://drive.google.com/file/d/1Y8mVa4n1xxWdG_cGBinG3s6HP31KiiHC/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f3bc86be-2a40-41b2-aaa9-0bd82f88ec23', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', id='f3bc86be-2a40-41b2-aaa9-0bd82f88ec23', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2913,16 +2477,12 @@
           <t>https://drive.google.com/file/d/1YGPlox8p-Qn2nZqdSth7KquRehEflqlC/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f08a11f0-fbf7-44ca-8d69-032832c7930c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f08a11f0-fbf7-44ca-8d69-032832c7930c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2935,16 +2495,12 @@
           <t>https://drive.google.com/file/d/1Yc-OWLx1oKlM8X58zP1yV48LIkG6xQEb/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='641e6ea6-acb8-4ed5-958a-55aee82f119d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='641e6ea6-acb8-4ed5-958a-55aee82f119d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2957,16 +2513,12 @@
           <t>https://drive.google.com/file/d/1Yf_BOJRzE1O_GTo-Gt1-PNjVI8q-c3CD/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a7ba1f22-9b14-4c58-b96b-32a5513f3521', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a7ba1f22-9b14-4c58-b96b-32a5513f3521', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2979,16 +2531,12 @@
           <t>https://drive.google.com/file/d/1Yq97AyotO7bIiKjCJACQ3FPMrHDHi8Wk/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4c301c26-e45a-43fa-9c27-c8c5acf6e866', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 9), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 9), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4c301c26-e45a-43fa-9c27-c8c5acf6e866', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3001,16 +2549,12 @@
           <t>https://drive.google.com/file/d/1YwVsWb9QSOUEtSOMLlRdQ76PadagkwTg/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a0886e4b-e22b-4a7c-90bb-3dfee73c244b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a0886e4b-e22b-4a7c-90bb-3dfee73c244b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3023,16 +2567,12 @@
           <t>https://drive.google.com/file/d/1Z4KaYvSdfPswbE1mpr1MdaT6DqW09e3U/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='623529ba-d4a7-449e-bad9-4ac17760635f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='623529ba-d4a7-449e-bad9-4ac17760635f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3045,16 +2585,12 @@
           <t>https://drive.google.com/file/d/1ZKaPqJHjOW9mzwYEVwr6eR35p5Jn-nHk/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='25867dab-7264-4476-bf00-341576938179', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='25867dab-7264-4476-bf00-341576938179', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3067,16 +2603,12 @@
           <t>https://drive.google.com/file/d/1ZUuB2vZlELOVxo2heZfxK_yBa5MLtZRU/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='38539fd3-9ad0-41b7-9eea-3ef34ad5470d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 19), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='38539fd3-9ad0-41b7-9eea-3ef34ad5470d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3089,16 +2621,12 @@
           <t>https://drive.google.com/file/d/1_3Llo6RJRSphQQjd8Kaj4lCq25pkJBgs/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='7dfef84d-10fb-43da-b31e-e68cdccf4b39', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 17), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='7dfef84d-10fb-43da-b31e-e68cdccf4b39', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3111,16 +2639,12 @@
           <t>https://drive.google.com/file/d/1_Bx7SyvWds1Uxa__rlwkaeRe9d3WjVVe/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b7c58950-ff60-41df-8692-2b1185e1030e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 14), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='b7c58950-ff60-41df-8692-2b1185e1030e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3133,16 +2657,12 @@
           <t>https://drive.google.com/file/d/1_Dd7g06l70yCYLxIgDAAagSp2Wy3Eb0p/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='9484758e-d9e2-4096-b2f6-8f0b940565d3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='74bff9f2-fa9c-4dea-a09f-f8ed5926f152', data_assinatura=datetime.date(2023, 7, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='74bff9f2-fa9c-4dea-a09f-f8ed5926f152', id='9484758e-d9e2-4096-b2f6-8f0b940565d3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3155,16 +2675,12 @@
           <t>https://drive.google.com/file/d/1_ORkeLD6VCCB9Y25rmTgYOkatMKk88zv/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='1d516b18-4384-4f21-9b88-0d4bc4e33624', datafinal_vigencia=datetime.date(2023, 4, 30), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 25), datainicial_vigencia=datetime.date(2022, 5, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 25), datainicial_vigencia=datetime.date(2022, 5, 1), aprovacao_assembleia=False, id_documento_original=None, id='1d516b18-4384-4f21-9b88-0d4bc4e33624', datafinal_vigencia=datetime.date(2023, 4, 30), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3177,16 +2693,12 @@
           <t>https://drive.google.com/file/d/1_vUI4LqFAg8DztMjJHfc9FbZW71WGrYr/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='233a5e4d-1514-4c89-b2c8-f2add17abf57', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 30), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 30), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='233a5e4d-1514-4c89-b2c8-f2add17abf57', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3199,16 +2711,12 @@
           <t>https://drive.google.com/file/d/1a13vXYHHsP9_hthycpDmWIDzfzNPlr88/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a976e390-d715-4d86-939a-616ab3526375', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 18), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 18), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a976e390-d715-4d86-939a-616ab3526375', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3221,16 +2729,12 @@
           <t>https://drive.google.com/file/d/1a9BZ-9wL40sKnlrzkMqSi5gySXcmeyfX/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6e256f51-aefa-4ecb-93b3-416d582a0c19', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='6e256f51-aefa-4ecb-93b3-416d582a0c19', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3243,16 +2747,12 @@
           <t>https://drive.google.com/file/d/1aCyYe7whttwnEUmQkj-IpHT83YBpwHDG/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0d2c9a95-6f6c-42ed-b654-9f0932e575a3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1ab5d23d-5816-4f7a-9ef2-c99483056ef6', data_assinatura=datetime.date(2022, 12, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='1ab5d23d-5816-4f7a-9ef2-c99483056ef6', id='0d2c9a95-6f6c-42ed-b654-9f0932e575a3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3265,16 +2765,12 @@
           <t>https://drive.google.com/file/d/1Bsi4AKHmbuBqaaZxWIftLqwKuCtKBnd5/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4caa8f6f-8e74-47c1-8bf9-91b03655ee51', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 5, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 5, 15), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4caa8f6f-8e74-47c1-8bf9-91b03655ee51', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3287,16 +2783,12 @@
           <t>https://drive.google.com/file/d/1aV4Wty27dqmZHT8SUMEZlzRWZrYjgxqV/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='50bce4c2-3e3f-479f-bacc-8f1545837705', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='94b9d69f-806b-439e-8bd7-f7bb5f9c921f', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='94b9d69f-806b-439e-8bd7-f7bb5f9c921f', id='50bce4c2-3e3f-479f-bacc-8f1545837705', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3309,16 +2801,12 @@
           <t>https://drive.google.com/file/d/1ayq5Y2JSSIu8F1vjoiphZ3kFZUAhcR8S/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2085e528-80cb-4d09-a707-ac4f18a716dd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2085e528-80cb-4d09-a707-ac4f18a716dd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3331,16 +2819,12 @@
           <t>https://drive.google.com/file/d/1bL5lfwh6ndXwssOvyzIjT9xq1ijkPHw6/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4e3ca473-727b-4e93-a052-f8577d4307f9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 2), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 2), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4e3ca473-727b-4e93-a052-f8577d4307f9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3353,16 +2837,12 @@
           <t>https://drive.google.com/file/d/1bZbQwPzyUlBAKEQULUUP2USJumHmOpSb/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4f9c434f-ec4f-48f5-bb23-3f4d491e0c02', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 16), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4f9c434f-ec4f-48f5-bb23-3f4d491e0c02', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3375,16 +2855,12 @@
           <t>https://drive.google.com/file/d/1bkPRxMS8NPl1sjnX8flNKlL91v0bfeth/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='83008cb7-b98b-441e-900b-edf5ae6c6d09', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 1, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 1, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='83008cb7-b98b-441e-900b-edf5ae6c6d09', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3397,16 +2873,12 @@
           <t>https://drive.google.com/file/d/1c4_wporKKSwFFbdYuK4EWnPAdVUbXMl1/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='40cde989-a32c-4fd1-8f64-60afc5ecf50b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 17), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='40cde989-a32c-4fd1-8f64-60afc5ecf50b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3419,16 +2891,12 @@
           <t>https://drive.google.com/file/d/1c6oPYIVbQ7doI4u_dL2SECkOhieloZX0/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ced74f5c-2b87-436f-bb94-de190faaf9ab', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='ced74f5c-2b87-436f-bb94-de190faaf9ab', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3441,16 +2909,12 @@
           <t>https://drive.google.com/file/d/1cEkXBw_n6QkEReuNj8OIUvrQC5mhUJhD/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6e901968-9ce0-4970-a9cd-d10cad3cf756', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='6e901968-9ce0-4970-a9cd-d10cad3cf756', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3463,16 +2927,12 @@
           <t>https://drive.google.com/file/d/1cWpenJGNLSb1knf_ZhRJ4kfMSLGmrP2V/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5b742920-e63f-4047-9a46-8c532d546bc5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='5b742920-e63f-4047-9a46-8c532d546bc5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3485,16 +2945,12 @@
           <t>https://drive.google.com/file/d/1caVWR8ijg8VR8nRZCpBl6hy5AC_ZCwBC/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='884b069c-179a-4379-bc55-5c96362bca66', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='253e099a-adc0-459a-b086-bd76a41225c3', data_assinatura=datetime.date(2023, 4, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 19), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='253e099a-adc0-459a-b086-bd76a41225c3', id='884b069c-179a-4379-bc55-5c96362bca66', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3507,16 +2963,12 @@
           <t>https://drive.google.com/file/d/1cnXF-3MjLaTR27aJ3dxkeaPKPz6NsxXX/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f335eb6c-dc2f-4e14-b8f2-259594e63529', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 9), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 9), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f335eb6c-dc2f-4e14-b8f2-259594e63529', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3529,16 +2981,12 @@
           <t>https://drive.google.com/file/d/1cwpNQGjrSfdE_nCCk3QhilJI_rNeCwHD/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f1372846-f45a-45d7-910f-f96995dc0667', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='7b2d61d5-a9f6-49c9-9b01-1b4f4dfbf15f', data_assinatura=datetime.date(2023, 8, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 22), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='7b2d61d5-a9f6-49c9-9b01-1b4f4dfbf15f', id='f1372846-f45a-45d7-910f-f96995dc0667', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3551,16 +2999,12 @@
           <t>https://drive.google.com/file/d/1d3rqYBoxEkv23vNv3SihVQ21OcdmHNdb/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a8d713cb-086c-499e-8415-e4c552039d38', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a8d713cb-086c-499e-8415-e4c552039d38', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3573,16 +3017,12 @@
           <t>https://drive.google.com/file/d/1dV69Ph5SyilXtwlXlyRtMkuyrwJ8CPuL/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b014460e-b86b-4e89-a75e-274af34e9dd5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fa58c97f-8376-4b35-9b1a-483fd8b31410', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='fa58c97f-8376-4b35-9b1a-483fd8b31410', id='b014460e-b86b-4e89-a75e-274af34e9dd5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3595,16 +3035,12 @@
           <t>https://drive.google.com/file/d/1dc0SH3nXHBaJ8gW9q8F21Lwbir-d-Cql/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a64516bd-36b4-4787-86cf-d4d53ed79f01', datafinal_vigencia=datetime.date(2027, 12, 21), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=datetime.date(2022, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=datetime.date(2022, 12, 21), aprovacao_assembleia=False, id_documento_original=None, id='a64516bd-36b4-4787-86cf-d4d53ed79f01', datafinal_vigencia=datetime.date(2027, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3617,16 +3053,12 @@
           <t>https://drive.google.com/file/d/1-H0NoNwOinMRMdjX-iVEh8SOVJPG54UT/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b21249a7-fe24-48e4-988a-72a1b5d1d6c7', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 1, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 1, 31), aprovacao_assembleia=False, id_documento_original=None, id='b21249a7-fe24-48e4-988a-72a1b5d1d6c7', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3639,16 +3071,12 @@
           <t>https://drive.google.com/file/d/10bS8vaXmseqqbkBU9W8R8gWQe1iKirNR/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='8e2cb3c2-b0e5-4aec-9ce3-12f63df8902f', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_assembleia=False, id_documento_original=None, id='8e2cb3c2-b0e5-4aec-9ce3-12f63df8902f', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3661,16 +3089,12 @@
           <t>https://drive.google.com/file/d/10dIEGCIsf5lfnX1nZh_FUcyC9Y3JDkLw/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='be094997-3859-4dc1-bdd5-0bdb302dd6bd', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 1, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 1, 31), aprovacao_assembleia=False, id_documento_original=None, id='be094997-3859-4dc1-bdd5-0bdb302dd6bd', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3683,16 +3107,12 @@
           <t>https://drive.google.com/file/d/10u4S8RgHE3z0UP9NOSeUk8JAHAOT3Wmx/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a3c06b88-d87b-457f-a1ae-3e4191516ece', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a3c06b88-d87b-457f-a1ae-3e4191516ece', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3705,16 +3125,12 @@
           <t>https://drive.google.com/file/d/1dv63e6zv3XvAR6g457phvJxSwVZeZ2Q3/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='09bbdf34-9323-4175-9749-1330ac308026', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='09bbdf34-9323-4175-9749-1330ac308026', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3727,16 +3143,12 @@
           <t>https://drive.google.com/file/d/1fCXSqu6Tzm4__f-VS4-WQh6ZYbZ6ZiDF/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='76572e4c-ea15-4b2c-bf04-ecada060b8df', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='76572e4c-ea15-4b2c-bf04-ecada060b8df', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3749,16 +3161,12 @@
           <t>https://drive.google.com/file/d/1fPZX2iN1XxUZX3Yp_IeiXrnPgQAf9_iB/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='7712b218-e89a-4eb9-be40-b0be31488941', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='7712b218-e89a-4eb9-be40-b0be31488941', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3771,16 +3179,12 @@
           <t>https://drive.google.com/file/d/1fiEUAwO3IUisKiY1ve02EDuQEGdNZxen/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b2d65b65-852f-4a85-ae9a-fa7506a29b03', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='b2d65b65-852f-4a85-ae9a-fa7506a29b03', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3793,16 +3197,12 @@
           <t>https://drive.google.com/file/d/1fotA-2aI6kWnRhMosbOsWwow6dbDJqoo/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='328f6b0e-3e47-4e96-b96c-4561e2e755f4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 11), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='328f6b0e-3e47-4e96-b96c-4561e2e755f4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3815,16 +3215,12 @@
           <t>https://drive.google.com/file/d/1fqIpvJCNXd7FV3qEq43M63TX1RLKT46-/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='515e2eb7-a1bd-47cb-9a27-811c6ceae9ad', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 14), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='515e2eb7-a1bd-47cb-9a27-811c6ceae9ad', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3837,16 +3233,12 @@
           <t>https://drive.google.com/file/d/1g-8AxI6PDJwNa9X8IBvkoM2HYofonThz/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='768f5011-7d44-4438-905a-549d6ed75d76', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='768f5011-7d44-4438-905a-549d6ed75d76', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3859,16 +3251,12 @@
           <t>https://drive.google.com/file/d/1h3JTwIjEiMWjhDg7lL9j-z6C79lAxPiy/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='646aa960-a678-427b-823b-cee184a7ecc4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='646aa960-a678-427b-823b-cee184a7ecc4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3881,16 +3269,12 @@
           <t>https://drive.google.com/file/d/1huNxOLTjeUeU5DxfbH2WcJ4wL85EMEuC/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='8a3cb9c8-9b62-495a-aaa3-6582b7fca959', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 15), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='8a3cb9c8-9b62-495a-aaa3-6582b7fca959', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3903,16 +3287,12 @@
           <t>https://drive.google.com/file/d/1iKLNxiDb-jeaJVNddvAxWeCE3tBJSmhx/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>more than one date</t>
-        </is>
-      </c>
+      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3f276e8e-49ac-412e-b9e6-7fb9f4760c10', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3f276e8e-49ac-412e-b9e6-7fb9f4760c10', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3925,16 +3305,12 @@
           <t>https://drive.google.com/file/d/1iR8BqfK-vPcfSCS-wF73PuuQ84YHqiaG/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='753ca4b7-4c1a-43ec-a5e8-5f0b65d010eb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='753ca4b7-4c1a-43ec-a5e8-5f0b65d010eb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3947,16 +3323,12 @@
           <t>https://drive.google.com/file/d/1jFnkq8LIHHU3XD303P6j8EAYzajnaSNu/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5b9e842a-5b0b-4bd9-968b-0bc58b145354', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='5b9e842a-5b0b-4bd9-968b-0bc58b145354', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3969,16 +3341,12 @@
           <t>https://drive.google.com/file/d/1jXe1VW1iHMiesqT3nKJFe6iZCF9XnPQM/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4f503689-5052-4c9f-8221-bd346844a7cb', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 2), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 2), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4f503689-5052-4c9f-8221-bd346844a7cb', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4000,7 +3368,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4fb34269-7164-4202-978e-b0dae5aace15', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2023, 11, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='4fb34269-7164-4202-978e-b0dae5aace15', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4013,16 +3381,12 @@
           <t>https://drive.google.com/file/d/1jmIFOGThF4gvGsT4ersWUOYTEJINp-SW/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d4ce972c-c2fa-4d7d-867d-86b1b1b3bbca', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d4ce972c-c2fa-4d7d-867d-86b1b1b3bbca', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4035,16 +3399,12 @@
           <t>https://drive.google.com/file/d/1k7WJSJyjwSi0zk9950SHpW3lI8KJ0TR3/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f7d7ce6a-865e-4255-b433-3dfeb79a0fbf', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f7d7ce6a-865e-4255-b433-3dfeb79a0fbf', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4066,7 +3426,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d7f4cde0-cdb0-4846-827f-89dff1481b5f', datafinal_vigencia=datetime.date(2027, 10, 6), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 6), datainicial_vigencia=datetime.date(2022, 10, 6), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 6), datainicial_vigencia=datetime.date(2022, 10, 6), aprovacao_assembleia=False, id_documento_original=None, id='d7f4cde0-cdb0-4846-827f-89dff1481b5f', datafinal_vigencia=datetime.date(2027, 10, 6), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4079,16 +3439,12 @@
           <t>https://drive.google.com/file/d/1kNtT9fTtHYpTGrhd68enl9KPLaMkQYnT/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='297f1e87-8d35-48aa-9f04-406585dc1255', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original='744e0527-868a-4619-a131-504fea5e5990', data_assinatura=datetime.date(2023, 5, 4), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 5, 4), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_assembleia=False, id_documento_original='744e0527-868a-4619-a131-504fea5e5990', id='297f1e87-8d35-48aa-9f04-406585dc1255', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4101,16 +3457,12 @@
           <t>https://drive.google.com/file/d/1kUOZJwoyAR731fBHuAP7Ba5KMdqFPty3/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='66e10b22-b177-42b7-bb04-3effaab52257', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 3), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='66e10b22-b177-42b7-bb04-3effaab52257', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4123,16 +3475,12 @@
           <t>https://drive.google.com/file/d/18oGdq_AUcPi1txcRPGW4Mu3c0REp23xA/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a5cb3b45-3ab9-4d93-966f-2459febc3506', datafinal_vigencia=datetime.date(2023, 9, 19), aprovacao_assembleia=False, id_documento_original='df56e76f-1e6c-4135-a9bf-13b5155353d5', data_assinatura=datetime.date(2022, 9, 19), datainicial_vigencia=datetime.date(2022, 9, 19), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 19), datainicial_vigencia=datetime.date(2022, 9, 19), aprovacao_assembleia=False, id_documento_original='df56e76f-1e6c-4135-a9bf-13b5155353d5', id='a5cb3b45-3ab9-4d93-966f-2459febc3506', datafinal_vigencia=datetime.date(2023, 9, 19), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4145,16 +3493,12 @@
           <t>https://drive.google.com/file/d/1k_W-ElHkUmn1etvKuHvJQ_t06Fb5iEWo/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='569e1934-2a78-4e8d-aa74-7e878c61c1e4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 6), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='569e1934-2a78-4e8d-aa74-7e878c61c1e4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4167,16 +3511,12 @@
           <t>https://drive.google.com/file/d/1l8Zh9ZkJfIDbcWGY077Bw2PMe4NN9KFY/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='af7e5d7a-952b-402d-ac6e-7b33198f93ef', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='97886a13-251c-48cb-9875-fe6292815a9c', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='97886a13-251c-48cb-9875-fe6292815a9c', id='af7e5d7a-952b-402d-ac6e-7b33198f93ef', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4189,16 +3529,12 @@
           <t>https://drive.google.com/file/d/1la83uVcymS6p-T0IVflb8Fxdz4Vq6L7-/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0cb665d5-f6c9-4e1f-af76-bba05093099b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=datetime.date(2022, 12, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 21), datainicial_vigencia=datetime.date(2022, 12, 21), aprovacao_assembleia=False, id_documento_original=None, id='0cb665d5-f6c9-4e1f-af76-bba05093099b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4220,7 +3556,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='fdf870ba-a409-4e1b-9c71-128b9a307742', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='fdf870ba-a409-4e1b-9c71-128b9a307742', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4233,16 +3569,12 @@
           <t>https://drive.google.com/file/d/1lixJB5YiKObQL6YE6mZXmYop7LxHPoaB/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='eb895425-dafc-42d8-ad12-66ed4d67cd4c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f57ea6f4-4b82-4359-940e-103549335c98', data_assinatura=datetime.date(2022, 10, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 7), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='f57ea6f4-4b82-4359-940e-103549335c98', id='eb895425-dafc-42d8-ad12-66ed4d67cd4c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4255,16 +3587,12 @@
           <t>https://drive.google.com/file/d/1lp3bfYmop6rzvpc_xXLnLBb7uXju6x6F/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ca84eaf0-4a51-4e54-b6ac-f5a8f88c8210', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='ca84eaf0-4a51-4e54-b6ac-f5a8f88c8210', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4277,16 +3605,12 @@
           <t>https://drive.google.com/file/d/1lvDLu3C9omcg-rsqqFO4uvx2nTk4UEqi/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0817808b-9c96-4b57-b6f4-e74457b32703', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='0817808b-9c96-4b57-b6f4-e74457b32703', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4299,16 +3623,12 @@
           <t>https://drive.google.com/file/d/1mZwOSY_xSF0CLy76gYGloHzVR5reoeGW/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ef671e16-e658-4e96-813b-a052f32c8fdc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='ef671e16-e658-4e96-813b-a052f32c8fdc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4321,16 +3641,12 @@
           <t>https://drive.google.com/file/d/1md-Rh0HGlBNVccCxMVNOuSHV3ZdoYgE0/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d12aa1fe-99d8-42b3-b972-411eae1f4885', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f1422a11-561c-40c6-8e20-13d9cd35ef96', data_assinatura=datetime.date(2023, 1, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 1, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='f1422a11-561c-40c6-8e20-13d9cd35ef96', id='d12aa1fe-99d8-42b3-b972-411eae1f4885', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4343,16 +3659,12 @@
           <t>https://drive.google.com/file/d/1mlXg6TnPr7ei8RzEi9lK-x3l-d-U1M5J/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b22fc145-a624-4e77-bd11-137b410e7b12', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 20), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 20), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='b22fc145-a624-4e77-bd11-137b410e7b12', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4365,16 +3677,12 @@
           <t>https://drive.google.com/file/d/1mo0rtEa4jV0kUQO2ZxtOSqZ1muHwCD-k/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='84df2341-8372-4091-a932-e271887cf8dc', datafinal_vigencia=datetime.date(2027, 10, 11), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 11), datainicial_vigencia=datetime.date(2022, 10, 11), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 11), datainicial_vigencia=datetime.date(2022, 10, 11), aprovacao_assembleia=False, id_documento_original=None, id='84df2341-8372-4091-a932-e271887cf8dc', datafinal_vigencia=datetime.date(2027, 10, 11), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4387,16 +3695,12 @@
           <t>https://drive.google.com/file/d/1mru0Jve0zaoLfQT7v8MgzK7Ygtf543mH/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='dfbc63cc-c39d-44ca-979d-fccd4c627e04', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 6), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='dfbc63cc-c39d-44ca-979d-fccd4c627e04', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4409,16 +3713,12 @@
           <t>https://drive.google.com/file/d/11oS2uKum9jmH0OgQSkanK-mBkv5KZ4rK/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='7e073f7d-f185-4aec-9a7b-8836f300604f', datafinal_vigencia=datetime.date(2032, 4, 15), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 15), datainicial_vigencia=datetime.date(2022, 4, 15), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 15), datainicial_vigencia=datetime.date(2022, 4, 15), aprovacao_assembleia=False, id_documento_original=None, id='7e073f7d-f185-4aec-9a7b-8836f300604f', datafinal_vigencia=datetime.date(2032, 4, 15), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4431,16 +3731,12 @@
           <t>https://drive.google.com/file/d/12y_09kMTQYOnpJVtD5C78M7gUcJ8lxMe/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='79340c96-db83-4e69-9196-5eb265e912b5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='79340c96-db83-4e69-9196-5eb265e912b5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4453,16 +3749,12 @@
           <t>https://drive.google.com/file/d/17nKNvGlMGHy9z_LKuUAZaEZyM5QSyMMh/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='44df58f7-4208-429b-9fc8-86b9cc99067e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='44df58f7-4208-429b-9fc8-86b9cc99067e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4475,16 +3767,12 @@
           <t>https://drive.google.com/file/d/181rQ2EibVOYnSzyyIixXtRhqEmBjPKox/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='92c35c3d-bc4a-43f7-9e59-d47c8c334643', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='92c35c3d-bc4a-43f7-9e59-d47c8c334643', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4497,16 +3785,12 @@
           <t>https://drive.google.com/file/d/186aOwWU-dfGDCSoHhqexc3pCcmCKs4r4/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4a68a398-bf57-4f3e-9017-9e4c8d0e1a2d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='bf8e6b2b-e3fc-47d9-98ab-c386a7621618', data_assinatura=datetime.date(2022, 7, 4), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 4), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='bf8e6b2b-e3fc-47d9-98ab-c386a7621618', id='4a68a398-bf57-4f3e-9017-9e4c8d0e1a2d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4519,16 +3803,12 @@
           <t>https://drive.google.com/file/d/19HQSC5K7y-xK2Waz8kiAespZ7OTfbBAc/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='488b75fe-8e06-4635-92c0-c1f948afc304', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 3), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='488b75fe-8e06-4635-92c0-c1f948afc304', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4541,16 +3821,12 @@
           <t>https://drive.google.com/file/d/1BrjeQYhbtKb-o5-hjvKK16StiUPAeCKh/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='02a8cda7-a67c-4f69-8cbb-81ac5d526b1c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='02a8cda7-a67c-4f69-8cbb-81ac5d526b1c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4563,16 +3839,12 @@
           <t>https://drive.google.com/file/d/1n8JUv2M-t0trZxC8fHakaRbVlq3k_2Mu/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='cb42be0a-d40d-49fe-8545-3c675b18a322', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 28), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 28), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='cb42be0a-d40d-49fe-8545-3c675b18a322', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4585,16 +3857,12 @@
           <t>https://drive.google.com/file/d/1nOPbdadQOQIC77RtKcEsLeOako-RrtLT/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='704db435-8a6a-4a06-a4bb-761b0f262b88', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d13f6b90-8388-4c7f-b3fa-3486afd05072', data_assinatura=datetime.date(2022, 10, 9), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 9), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='d13f6b90-8388-4c7f-b3fa-3486afd05072', id='704db435-8a6a-4a06-a4bb-761b0f262b88', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4607,16 +3875,12 @@
           <t>https://drive.google.com/file/d/1ncssHaAto2Ke3fQ1-NUpXZI7penPcHZW/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='fe6584ce-5c22-470d-823e-ae9aa295c117', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 9, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 11), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='fe6584ce-5c22-470d-823e-ae9aa295c117', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4629,16 +3893,12 @@
           <t>https://drive.google.com/file/d/1niwz8O7X24x7SAfi2x_vy3BKaHKAvkQa/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='dcd48482-c39b-462c-89e8-e6e26cb984d2', datafinal_vigencia=datetime.date(2022, 10, 4), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 6), datainicial_vigencia=datetime.date(2022, 9, 6), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 6), datainicial_vigencia=datetime.date(2022, 9, 6), aprovacao_assembleia=False, id_documento_original=None, id='dcd48482-c39b-462c-89e8-e6e26cb984d2', datafinal_vigencia=datetime.date(2022, 10, 4), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4651,16 +3911,12 @@
           <t>https://drive.google.com/file/d/1-_wxQgt_aqFgr5YhS_wR7ENejr604GHO/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c45e3a67-dcf5-4941-a8d0-607baee00d41', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='c45e3a67-dcf5-4941-a8d0-607baee00d41', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4673,16 +3929,12 @@
           <t>https://drive.google.com/file/d/1-hbwfluO4UJfosOU-78X74mr5QUp3SOv/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='824aab6c-404b-4a81-aed1-ec6ed18221a8', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='824aab6c-404b-4a81-aed1-ec6ed18221a8', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4695,16 +3947,12 @@
           <t>https://drive.google.com/file/d/10QXglyWS8NHmVMdRM3PJlRsdEQq9v_ky/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='54e0182f-cdfd-4223-b895-7f89c084a7b4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='e4231f4c-4122-496d-9255-15a284daca50', data_assinatura=datetime.date(2022, 10, 27), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 27), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='e4231f4c-4122-496d-9255-15a284daca50', id='54e0182f-cdfd-4223-b895-7f89c084a7b4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4717,16 +3965,12 @@
           <t>https://drive.google.com/file/d/116DerLjWpWr400UAxDC-UqS5NnCoIk5m/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3721aadc-fe45-43d3-8483-25d4c73a9605', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3721aadc-fe45-43d3-8483-25d4c73a9605', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4739,16 +3983,12 @@
           <t>https://drive.google.com/file/d/11B1Xe5axGOqPu-4OQq520nBoe9f024eJ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='19bd5e4a-1a97-41be-89ea-dc2b05626dfc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='19bd5e4a-1a97-41be-89ea-dc2b05626dfc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4761,16 +4001,12 @@
           <t>https://drive.google.com/file/d/1nor2mUlb0TDWq2sHmbfESC-dmAr00iOt/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a360693b-62e6-407b-bcd0-9f59bcf67bb0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 17), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a360693b-62e6-407b-bcd0-9f59bcf67bb0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4783,16 +4019,12 @@
           <t>https://drive.google.com/file/d/1nq7gyTO-ncEBAN4RTdKa8YVs97U-_2Qy/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='cba95115-21d0-4234-95fc-79628dfd41ee', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 4), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 4), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='cba95115-21d0-4234-95fc-79628dfd41ee', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4805,16 +4037,12 @@
           <t>https://drive.google.com/file/d/1nydMe4y5xmuGNU4_2ZaLH2SokGg8Yi9f/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2da5b482-928f-4a45-b2a4-83f7c31c42d4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2da5b482-928f-4a45-b2a4-83f7c31c42d4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4827,16 +4055,12 @@
           <t>https://drive.google.com/file/d/1oKoQcVAIjPcD957XS8SCK2bkN3Wc9jGd/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='cd3264f0-54c1-4982-837f-7776f94619f0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='cd3264f0-54c1-4982-837f-7776f94619f0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4849,16 +4073,12 @@
           <t>https://drive.google.com/file/d/1opx0ePI0LWVC7V5x9shkYX-IwabEBQ9q/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5e742ff4-8149-4d7e-a194-48abb4611bfd', datafinal_vigencia=datetime.date(2024, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 13), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_assembleia=False, id_documento_original=None, id='5e742ff4-8149-4d7e-a194-48abb4611bfd', datafinal_vigencia=datetime.date(2024, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4871,16 +4091,12 @@
           <t>https://drive.google.com/file/d/1p5ysVmzCYeCMQDAhVbrRnLeQ2V8tbpYQ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='15b1f9b0-21cb-4ae7-bfbe-05510a6c1f4e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='15b1f9b0-21cb-4ae7-bfbe-05510a6c1f4e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4893,16 +4109,12 @@
           <t>https://drive.google.com/file/d/1p_PBCc22w3mTxWC_3e1CAhZ680Bv3GID/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='db7452b7-2c47-499c-9df3-540926b9f8a3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 19), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='db7452b7-2c47-499c-9df3-540926b9f8a3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4915,16 +4127,12 @@
           <t>https://drive.google.com/file/d/11ExhrjXeXARSdGKNGf-0Z96jwMpWb37L/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ffd54ab6-0341-45db-bb1e-50817ed92a09', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 29), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 29), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_assembleia=False, id_documento_original=None, id='ffd54ab6-0341-45db-bb1e-50817ed92a09', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4937,16 +4145,12 @@
           <t>https://drive.google.com/file/d/11ItJX5LhXBBtUf_1URlkLTx_FH3zkglJ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='675c5fa5-e3f9-4506-9c7f-9f1d3fde93b7', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 14), datainicial_vigencia=datetime.date(2022, 1, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 14), datainicial_vigencia=datetime.date(2022, 1, 31), aprovacao_assembleia=False, id_documento_original=None, id='675c5fa5-e3f9-4506-9c7f-9f1d3fde93b7', datafinal_vigencia=datetime.date(2026, 7, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4959,16 +4163,12 @@
           <t>https://drive.google.com/file/d/11R42LSb8jFETOfs-hcpoGshSLZwk-HlX/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ce8481ce-cc7d-486b-a12b-0142dc63ced1', datafinal_vigencia=datetime.date(2024, 7, 31), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 16), datainicial_vigencia=datetime.date(2022, 8, 16), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 16), datainicial_vigencia=datetime.date(2022, 8, 16), aprovacao_assembleia=False, id_documento_original=None, id='ce8481ce-cc7d-486b-a12b-0142dc63ced1', datafinal_vigencia=datetime.date(2024, 7, 31), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4981,16 +4181,12 @@
           <t>https://drive.google.com/file/d/11TXFYPmQlmwhjT7DNRepkQnOXMB_oSH2/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='051d250a-b931-49bf-9419-9dd777b76ee7', datafinal_vigencia=datetime.date(2027, 1, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 7, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 7, 1), aprovacao_assembleia=False, id_documento_original=None, id='051d250a-b931-49bf-9419-9dd777b76ee7', datafinal_vigencia=datetime.date(2027, 1, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5003,16 +4199,12 @@
           <t>https://drive.google.com/file/d/11UXB1KV8omnisEy9pBnJvMO3vfshzQKD/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2b6d2078-7b3b-4042-a491-1a2815ab8e7e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2b6d2078-7b3b-4042-a491-1a2815ab8e7e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5025,16 +4217,12 @@
           <t>https://drive.google.com/file/d/12oZ5-RZSnzwtLTamJv-Kw2tYLp5P8oMx/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='61e14024-ea83-4ee1-84e9-f4d511816f7c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='61e14024-ea83-4ee1-84e9-f4d511816f7c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5047,16 +4235,12 @@
           <t>https://drive.google.com/file/d/12rl1PSgp1dw23WcfWWuNrJHVAY3kD3e5/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='397b12cc-1a44-4f83-a0ed-9baa284ea69d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='397b12cc-1a44-4f83-a0ed-9baa284ea69d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5069,16 +4253,12 @@
           <t>https://drive.google.com/file/d/12sSQBcv_w5LXoxjxdYalk-8GT16gGbOK/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='fbdc62ad-dc09-4cae-b45e-818db8aed426', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='fbdc62ad-dc09-4cae-b45e-818db8aed426', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5091,16 +4271,12 @@
           <t>https://drive.google.com/file/d/13226RiNw6kzJaIDVxsW_5VHuENB6jbV1/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3089bc0a-420d-4053-9743-049ccf95258a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3089bc0a-420d-4053-9743-049ccf95258a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5113,16 +4289,12 @@
           <t>https://drive.google.com/file/d/132XUVY1o0zwVU211v1lofLnkwxje_sOF/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4cd39b5e-ae14-4d5a-a8de-2ed8aa3032e5', datafinal_vigencia=datetime.date(2027, 8, 17), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 17), datainicial_vigencia=datetime.date(2022, 8, 17), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 17), datainicial_vigencia=datetime.date(2022, 8, 17), aprovacao_assembleia=False, id_documento_original=None, id='4cd39b5e-ae14-4d5a-a8de-2ed8aa3032e5', datafinal_vigencia=datetime.date(2027, 8, 17), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5135,16 +4307,12 @@
           <t>https://drive.google.com/file/d/1397xfcB0sstyh7lUI9HglLaGTKDy7Ko5/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='db36d878-1b89-47e3-bae1-d0a9f26acdbf', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='db36d878-1b89-47e3-bae1-d0a9f26acdbf', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5157,16 +4325,12 @@
           <t>https://drive.google.com/file/d/13MDEGvD1wrb_MnjYPxi-XAVO-NhT1jZE/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ae211c95-fa2d-4142-a638-0ccfdc63d818', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 16), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='ae211c95-fa2d-4142-a638-0ccfdc63d818', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5179,16 +4343,12 @@
           <t>https://drive.google.com/file/d/13ixy7xFJOJbbkmj1QlMBBM2vdBkllX19/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b629bc98-c197-4cf8-98bc-d7c39695b908', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1f533508-2a3f-49ae-a79a-4da410aecddc', data_assinatura=datetime.date(2022, 5, 2), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 5, 2), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='1f533508-2a3f-49ae-a79a-4da410aecddc', id='b629bc98-c197-4cf8-98bc-d7c39695b908', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5201,16 +4361,12 @@
           <t>https://drive.google.com/file/d/113Oht5WAYMwmHr3zYbaYWBzPnKejYa8_/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='7adc9bae-cf10-4ceb-83b3-fbb4c94da3bd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='7adc9bae-cf10-4ceb-83b3-fbb4c94da3bd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5223,16 +4379,12 @@
           <t>https://drive.google.com/file/d/14_uG7q7en92_xZs6xcFcIYxHeLojr_yN/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3b2a9b4c-67ed-4cab-916b-2883df5076ca', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3b2a9b4c-67ed-4cab-916b-2883df5076ca', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5245,16 +4397,12 @@
           <t>https://drive.google.com/file/d/14tlPPxAOP9jVZrrCgMML63fG8ZoWEAZX/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='1a09b049-2280-4ee3-bc35-bc33e3b68e7e', datafinal_vigencia=datetime.date(2027, 4, 13), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 13), datainicial_vigencia=datetime.date(2022, 4, 13), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 13), datainicial_vigencia=datetime.date(2022, 4, 13), aprovacao_assembleia=False, id_documento_original=None, id='1a09b049-2280-4ee3-bc35-bc33e3b68e7e', datafinal_vigencia=datetime.date(2027, 4, 13), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5267,16 +4415,12 @@
           <t>https://drive.google.com/file/d/14uSOT8m53qRhEfM85n7GK_bjUc174UG9/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6bf53dc7-a11f-4668-b1ce-175cdbd58305', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='6bf53dc7-a11f-4668-b1ce-175cdbd58305', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5289,16 +4433,12 @@
           <t>https://drive.google.com/file/d/150ImRU9xuWnUY43eZ8tZo4-GRXoAxP6G/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='35fdf03a-5061-4979-bc83-67c28c7364b9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='2863fbf1-5c25-4b2d-8c6a-5617ebf91672', data_assinatura=datetime.date(2022, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='2863fbf1-5c25-4b2d-8c6a-5617ebf91672', id='35fdf03a-5061-4979-bc83-67c28c7364b9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5311,16 +4451,12 @@
           <t>https://drive.google.com/file/d/152tExwyhFDMA6VxhyPRHIIXu1aKmcS1D/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='32688b9c-9391-41ce-ab2a-6030d99534b0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f8b48d20-fa2d-48f6-9440-ffe822baa7c0', data_assinatura=datetime.date(2022, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='f8b48d20-fa2d-48f6-9440-ffe822baa7c0', id='32688b9c-9391-41ce-ab2a-6030d99534b0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5333,16 +4469,12 @@
           <t>https://drive.google.com/file/d/155LPuGLQXd_oa-9MZgDkJ2NbINxEvt5Y/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5aa6cd47-6cf7-4198-8f04-67ede0d96607', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='5aa6cd47-6cf7-4198-8f04-67ede0d96607', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5355,16 +4487,12 @@
           <t>https://drive.google.com/file/d/15MoHJrrblFQioVQhUonsaEuQ3mh9DbSS/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='44c62f2e-4153-4e69-8040-fa4b1007a172', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='44c62f2e-4153-4e69-8040-fa4b1007a172', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5377,16 +4505,12 @@
           <t>https://drive.google.com/file/d/1pqb2gy1viz8qH5jmidMoXprrbrUTSe5p/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='cea04919-91af-471f-813d-9b987f43f05c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='cea04919-91af-471f-813d-9b987f43f05c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5399,16 +4523,12 @@
           <t>https://drive.google.com/file/d/1qIciqT-Uxr1QG3oEqQYicbNUY66mUIdl/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f2808e6d-a2ec-447b-a51c-403891351826', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 1, 16), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f2808e6d-a2ec-447b-a51c-403891351826', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5421,16 +4541,12 @@
           <t>https://drive.google.com/file/d/15hTNccat2tzm7yTz05iK-WgAPyqQn0hT/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f9d2c472-294a-4646-972a-14d4be3e1825', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='ac5d228a-5fe4-48fd-902a-7651b4408573', data_assinatura=datetime.date(2023, 10, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='ac5d228a-5fe4-48fd-902a-7651b4408573', id='f9d2c472-294a-4646-972a-14d4be3e1825', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5443,16 +4559,12 @@
           <t>https://drive.google.com/file/d/15uS-NQp_-WdFn1QZzBF_Qo6n5i46W93N/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f87f87a3-8253-49b0-b9bf-2663a29780f1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f87f87a3-8253-49b0-b9bf-2663a29780f1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5465,16 +4577,12 @@
           <t>https://drive.google.com/file/d/16Pw9fkN72NK6COB9WMOzMOZZ9Z-J0eRK/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='94338fa1-94db-4e57-a9f3-584816499d4f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='37d94c79-8e4e-4935-a3af-ba126b035501', data_assinatura=datetime.date(2022, 10, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='37d94c79-8e4e-4935-a3af-ba126b035501', id='94338fa1-94db-4e57-a9f3-584816499d4f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5487,16 +4595,12 @@
           <t>https://drive.google.com/file/d/16pMMiwu7MHcTYTD3Y316o5Cb1poBx8LF/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='61edd633-3219-4a37-8cc0-e60937875864', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d3f4322c-8dd0-4c62-8000-b06cf4f913a2', data_assinatura=datetime.date(2023, 4, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='d3f4322c-8dd0-4c62-8000-b06cf4f913a2', id='61edd633-3219-4a37-8cc0-e60937875864', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5509,16 +4613,12 @@
           <t>https://drive.google.com/file/d/16pttJgiebjCCujRXJlDn-V_uaMIPvKwm/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='bc58b77e-de96-4e7d-a512-af455023b96d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='99ce432c-00ee-45c9-9aa4-bfed84d0de44', data_assinatura=datetime.date(2023, 9, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 15), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='99ce432c-00ee-45c9-9aa4-bfed84d0de44', id='bc58b77e-de96-4e7d-a512-af455023b96d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5531,16 +4631,12 @@
           <t>https://drive.google.com/file/d/16spCAmGIkcBISN1lvJrryKf_ijxbDsNn/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f4045f06-dc23-470b-9a31-d8184835fcce', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fa04aa0a-d0c6-4c34-9f04-fbd1ca253fe0', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='fa04aa0a-d0c6-4c34-9f04-fbd1ca253fe0', id='f4045f06-dc23-470b-9a31-d8184835fcce', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5553,16 +4649,12 @@
           <t>https://drive.google.com/file/d/1qifkGK5-OSj3ZMzWYcXZkKyMrQCsDoV1/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0c65cac3-72a9-4a43-9899-1e29e06bc04b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='0c65cac3-72a9-4a43-9899-1e29e06bc04b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5575,16 +4667,12 @@
           <t>https://drive.google.com/file/d/1qmyt_iFSPzw4UDj-KLjHLWJhjOL9zqcq/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=True, id='ab1d4e30-8bd8-4995-955e-70527c4f261d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 22), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, data_assinatura=datetime.date(2022, 9, 22), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='ab1d4e30-8bd8-4995-955e-70527c4f261d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5597,16 +4685,12 @@
           <t>https://drive.google.com/file/d/1qyAw2vYCAbaoA-Quyp_Hua7fIOt14mH-/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6530356d-5af1-4274-b141-b717f19ea58a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='ac5d228a-5fe4-48fd-902a-7651b4408573', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='ac5d228a-5fe4-48fd-902a-7651b4408573', id='6530356d-5af1-4274-b141-b717f19ea58a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5619,16 +4703,12 @@
           <t>https://drive.google.com/file/d/1qzorEaR7JXaVdIrapcvtkxODmLe_K7e1/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='38f82775-d4e8-4e0d-9d68-841bed5bd42e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='011f5508-4f7a-4372-98b2-7dde377ddd49', data_assinatura=datetime.date(2022, 11, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='011f5508-4f7a-4372-98b2-7dde377ddd49', id='38f82775-d4e8-4e0d-9d68-841bed5bd42e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5641,16 +4721,12 @@
           <t>https://drive.google.com/file/d/10NkXg9UAitvVt-tf9s2HJuleFdS0Q6XF/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4b720fbb-903d-48fa-8546-c2d93e59778a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 17), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4b720fbb-903d-48fa-8546-c2d93e59778a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5663,16 +4739,12 @@
           <t>https://drive.google.com/file/d/14wORGjkz1o7DolCOayNHfl9KOJNUu0CW/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='33f0e2c1-d086-42f1-b64d-85b086e6c78b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='33f0e2c1-d086-42f1-b64d-85b086e6c78b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5685,16 +4757,12 @@
           <t>https://drive.google.com/file/d/153Pb0XQgQAn2uWOYmdfkgLU2QGOzdX58/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d14e3e05-e9af-477b-9755-ff2fc2af8f31', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d14e3e05-e9af-477b-9755-ff2fc2af8f31', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5707,16 +4775,12 @@
           <t>https://drive.google.com/file/d/16tbgnsAWKWB5X0GlafQqBu2cIqMrhtcf/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='fcb5938a-3322-4474-9a52-edc178c9bc6b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', id='fcb5938a-3322-4474-9a52-edc178c9bc6b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5729,16 +4793,12 @@
           <t>https://drive.google.com/file/d/16u1Di35KSAaD1briHHBSrQ80CrJ-wPXu/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=True, id='1c4013ab-d6ce-468a-8890-f4fcf3c11078', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, data_assinatura=datetime.date(2023, 1, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='1c4013ab-d6ce-468a-8890-f4fcf3c11078', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5751,16 +4811,12 @@
           <t>https://drive.google.com/file/d/1rErkrgMHr8fuOy6m285FG6GP5A3sGdq3/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0b0c6d38-1200-4adc-bb45-bd21f31ee2d1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 16), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='0b0c6d38-1200-4adc-bb45-bd21f31ee2d1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5773,16 +4829,12 @@
           <t>https://drive.google.com/file/d/1rm19lDw4Y3lJ7rvSuvbpJ34SNHF8l6uF/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='efe6590a-6e34-4c84-8aa9-2cbab8a7b77f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='efe6590a-6e34-4c84-8aa9-2cbab8a7b77f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5795,16 +4847,12 @@
           <t>https://drive.google.com/file/d/1sHpquMxvqgygFr1t20Q-GYFl7SXIVJ-k/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='8268882e-d042-4ff8-be58-22558fa8729c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', data_assinatura=datetime.date(2022, 11, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', id='8268882e-d042-4ff8-be58-22558fa8729c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5817,16 +4865,12 @@
           <t>https://drive.google.com/file/d/1sc67KAh3tj3-ckIrL-tbc6b7V07dIEsi/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c7452c2c-8afc-4330-9402-e1c1c8c66e96', datafinal_vigencia=datetime.date(2023, 1, 20), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 20), datainicial_vigencia=datetime.date(2022, 11, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 20), datainicial_vigencia=datetime.date(2022, 11, 20), aprovacao_assembleia=False, id_documento_original=None, id='c7452c2c-8afc-4330-9402-e1c1c8c66e96', datafinal_vigencia=datetime.date(2023, 1, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5839,16 +4883,12 @@
           <t>https://drive.google.com/file/d/1smppDvIG-Sws6zdspb2f1mY-vE79QbVJ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c61ef0cf-8e57-4f12-b024-0dd65cc61b61', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='c61ef0cf-8e57-4f12-b024-0dd65cc61b61', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5861,16 +4901,12 @@
           <t>https://drive.google.com/file/d/1-tXaVG9xoCbaxUa6qCugb5L8NGLI7t7t/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f005cba1-e08d-48fe-816c-b8f3c9b27d3a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 19), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 19), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f005cba1-e08d-48fe-816c-b8f3c9b27d3a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5883,16 +4919,12 @@
           <t>https://drive.google.com/file/d/1-ueFun4SSav0KJOl_ER27Sm2FKQzVO7E/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f891b35a-2f9c-4953-b1b7-52f590e1bafe', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f891b35a-2f9c-4953-b1b7-52f590e1bafe', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5905,16 +4937,12 @@
           <t>https://drive.google.com/file/d/11Vpa7j-yjQ3M9R0okrjNAnn-N8MA1guX/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e8474645-97cc-448c-95af-222467f5b3be', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='e8474645-97cc-448c-95af-222467f5b3be', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5927,16 +4955,12 @@
           <t>https://drive.google.com/file/d/12QIEfadTGTG9agLn8_mYaBFSWHhXOdZm/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='cbccafed-37f4-4420-a394-d6e72c727c19', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='cbccafed-37f4-4420-a394-d6e72c727c19', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5949,16 +4973,12 @@
           <t>https://drive.google.com/file/d/18Qg0M5VS2lCvjQm59n-uPDopYDrgayCv/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='16f7bc59-6659-4f14-8c12-40f777680ed6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='16f7bc59-6659-4f14-8c12-40f777680ed6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5971,16 +4991,12 @@
           <t>https://drive.google.com/file/d/1ss4DJkQNV7M_eTSrGFUOJ63rwd9EdRFC/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5dd87ee1-4c97-4841-b7bc-dcca569bb0e6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='5dd87ee1-4c97-4841-b7bc-dcca569bb0e6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5993,16 +5009,12 @@
           <t>https://drive.google.com/file/d/1ssiddQp78usPlcNelqVE_4qVQSt8Hp6E/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e6c7ce39-4a68-4a6b-9bd7-b8773a33e165', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='380ca3ac-1dfe-49a1-ba03-bbda524d9788', data_assinatura=datetime.date(2023, 10, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='380ca3ac-1dfe-49a1-ba03-bbda524d9788', id='e6c7ce39-4a68-4a6b-9bd7-b8773a33e165', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6015,16 +5027,12 @@
           <t>https://drive.google.com/file/d/1t4SKFOAOUAF7_FLdyixFXXqDrVQGY-Ye/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f15de91c-71a8-443b-9dbe-1727bcf75a12', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f8b48d20-fa2d-48f6-9440-ffe822baa7c0', data_assinatura=datetime.date(2022, 11, 10), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 10), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='f8b48d20-fa2d-48f6-9440-ffe822baa7c0', id='f15de91c-71a8-443b-9dbe-1727bcf75a12', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6037,16 +5045,12 @@
           <t>https://drive.google.com/file/d/1tUA6ND2MDkEv15wCjsbcz3kgZC_JePGe/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5503ae6d-7e05-46fa-9072-f25ff469fc6f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 17), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 17), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='5503ae6d-7e05-46fa-9072-f25ff469fc6f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6059,16 +5063,12 @@
           <t>https://drive.google.com/file/d/1uzhZZ1_0zLDW4hGXG_6-l5k6JZrtvcM3/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3da2d54c-3c04-4dd4-be00-063fa4ce864c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3da2d54c-3c04-4dd4-be00-063fa4ce864c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6081,16 +5081,12 @@
           <t>https://drive.google.com/file/d/1vAN24iaEXohG4rQHxAjExJ1K5VyHHEVT/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3f8d71f7-757d-4f33-b8de-efce3cf9a425', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3f8d71f7-757d-4f33-b8de-efce3cf9a425', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6103,16 +5099,12 @@
           <t>https://drive.google.com/file/d/1vCoFFmvLpw6cfujhuUOyLWwV0_XcJT0e/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='9bc8f129-bc52-46b8-9948-191a1be34d66', datafinal_vigencia=datetime.date(2022, 12, 26), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 26), datainicial_vigencia=datetime.date(2022, 9, 26), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 26), datainicial_vigencia=datetime.date(2022, 9, 26), aprovacao_assembleia=False, id_documento_original=None, id='9bc8f129-bc52-46b8-9948-191a1be34d66', datafinal_vigencia=datetime.date(2022, 12, 26), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6134,7 +5126,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='fda8bc47-723f-4803-be37-0cf746279b76', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='17174e1e-7657-4862-bfd0-e9e1675ba025', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='17174e1e-7657-4862-bfd0-e9e1675ba025', id='fda8bc47-723f-4803-be37-0cf746279b76', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6147,16 +5139,12 @@
           <t>https://drive.google.com/file/d/16wjPV-5F0OMyJbaMSS3Q7FlTn-qW9VVB/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='71b82eab-d6b3-4f10-bdd4-c4c6627987f0', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='f1422a11-561c-40c6-8e20-13d9cd35ef96', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='f1422a11-561c-40c6-8e20-13d9cd35ef96', id='71b82eab-d6b3-4f10-bdd4-c4c6627987f0', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6169,16 +5157,12 @@
           <t>https://drive.google.com/file/d/17-yrvgGlSribcA6hrdNAMSX2Kd31HfiY/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='521b30b5-1b4a-458a-885f-ad021e1c215c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1195f073-edf6-4e0b-b0bd-805b0976b6dd', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='1195f073-edf6-4e0b-b0bd-805b0976b6dd', id='521b30b5-1b4a-458a-885f-ad021e1c215c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6191,16 +5175,12 @@
           <t>https://drive.google.com/file/d/17B0SA0nUhgNyqKk-Yp_seFMWC8IFc4rZ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ee52b036-6af4-4aea-ab97-c6991db86544', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 11, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='ee52b036-6af4-4aea-ab97-c6991db86544', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6213,16 +5193,12 @@
           <t>https://drive.google.com/file/d/17LDaLYFtuDdFZw0IUpYbD-kItT-1TWrM/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='727e7b22-9f0d-4bb4-bceb-2365aa015b2d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='74bff9f2-fa9c-4dea-a09f-f8ed5926f152', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='74bff9f2-fa9c-4dea-a09f-f8ed5926f152', id='727e7b22-9f0d-4bb4-bceb-2365aa015b2d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6235,16 +5211,12 @@
           <t>https://drive.google.com/file/d/17Rk-COMYNM2SGh8mKUvgoPy_nNIgW9KW/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ade540fc-2eb2-4e85-a531-8508a66be2b7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 26), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 26), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='ade540fc-2eb2-4e85-a531-8508a66be2b7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6257,16 +5229,12 @@
           <t>https://drive.google.com/file/d/17MQzePJRQ4R7drazEUqXa9SM4v6aaF0x/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='bfee53d4-0f15-4da6-9b44-e44dcded757b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='bfee53d4-0f15-4da6-9b44-e44dcded757b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6279,16 +5247,12 @@
           <t>https://drive.google.com/file/d/12YmMS5meu24zMX_1HhP7oU8F9RQ4f4iL/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5b8d65df-3c41-4bd5-b961-f36828a153dc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='07af872a-8dcc-4029-a479-cad4f2a37553', data_assinatura=datetime.date(2022, 7, 14), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 14), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='07af872a-8dcc-4029-a479-cad4f2a37553', id='5b8d65df-3c41-4bd5-b961-f36828a153dc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6301,16 +5265,12 @@
           <t>https://drive.google.com/file/d/15LWwJNJqZpRqjK6T1QYA01Qi0jBRksTt/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='1fdb7dfe-ed0b-438c-8a80-38868c6d8848', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='1fdb7dfe-ed0b-438c-8a80-38868c6d8848', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6323,16 +5283,12 @@
           <t>https://drive.google.com/file/d/17YTgCynEsxeuxQc-BVxtrfyeyEApFB-P/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='1bd6e8ac-1738-4f64-b665-7859a3b47f89', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='1bd6e8ac-1738-4f64-b665-7859a3b47f89', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6345,16 +5301,12 @@
           <t>https://drive.google.com/file/d/17_rv3laqcuB4ZYVclTtJXyciLVloId99/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5994d877-3daa-41c3-a76f-1f917c384f0d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='5994d877-3daa-41c3-a76f-1f917c384f0d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6367,16 +5319,12 @@
           <t>https://drive.google.com/file/d/1815tJXhJ6jOgkjBdFc_QupuD7skV28hG/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>more than one date</t>
-        </is>
-      </c>
+      <c r="D270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='97d84fad-7023-4c21-9d30-45bef4a2cad9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='97d84fad-7023-4c21-9d30-45bef4a2cad9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6389,16 +5337,12 @@
           <t>https://drive.google.com/file/d/181vwWefxCIqjRHYK5m9ufuPJfRKcwY_2/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b24c9292-668e-4cc9-a1dd-9090927c6d83', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='b24c9292-668e-4cc9-a1dd-9090927c6d83', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6411,16 +5355,12 @@
           <t>https://drive.google.com/file/d/1AloklC4tQK3lESa73pXigU_i9hJkVgzd/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='381919fb-c1dd-4754-8fb4-f3554eb43be0', datafinal_vigencia=datetime.date(2022, 10, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 1), datainicial_vigencia=datetime.date(2022, 4, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 1), datainicial_vigencia=datetime.date(2022, 4, 1), aprovacao_assembleia=False, id_documento_original=None, id='381919fb-c1dd-4754-8fb4-f3554eb43be0', datafinal_vigencia=datetime.date(2022, 10, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6433,16 +5373,12 @@
           <t>https://drive.google.com/file/d/1vFWrpxnpfFeGtJy3YlNwyyWHK79cB2Vp/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ab00e0c6-289c-48bf-a550-c79c93a4df62', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='63e84ac7-ae59-410b-b655-ed45127576a3', data_assinatura=datetime.date(2023, 7, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 3), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='63e84ac7-ae59-410b-b655-ed45127576a3', id='ab00e0c6-289c-48bf-a550-c79c93a4df62', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6464,7 +5400,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='bf597d75-2f6e-4a97-8d27-91f050faa0d5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='bf597d75-2f6e-4a97-8d27-91f050faa0d5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6477,16 +5413,12 @@
           <t>https://drive.google.com/file/d/12-CVOBmea33RkFH5wowBylCv80KEzzWG/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='6d072d40-17e2-444a-b1dc-749d3fc7f9ec', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='6d072d40-17e2-444a-b1dc-749d3fc7f9ec', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6499,16 +5431,12 @@
           <t>https://drive.google.com/file/d/13pidWOvLwmujx-i0vkOyhDLe8wNjXAeD/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f26b5257-d9bf-4ad3-850d-33b1213dc3d3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='f26b5257-d9bf-4ad3-850d-33b1213dc3d3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6521,16 +5449,12 @@
           <t>https://drive.google.com/file/d/160fVm2yxXK89aIy7OXyfI9--M4LRMRiK/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d5814c69-f074-4f42-80d0-086f213c5870', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='9f834335-570d-4196-8691-63db7b3b36a4', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='9f834335-570d-4196-8691-63db7b3b36a4', id='d5814c69-f074-4f42-80d0-086f213c5870', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6543,16 +5467,12 @@
           <t>https://drive.google.com/file/d/16xc6UX_Iar5qpH6yE6OiQL5H_Is5b4ZO/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2225b64b-ed12-4a4e-9865-6381dd46c1a2', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 7), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 7), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='2225b64b-ed12-4a4e-9865-6381dd46c1a2', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6565,16 +5485,12 @@
           <t>https://drive.google.com/file/d/1Cu6AUquTz5EKN3jCZR77fkRKLKFl1-iM/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4c5e66a0-d384-468b-8562-ecf02ad7d5b3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='6abd07b7-8a85-4e52-939e-a7202f6edf4a', data_assinatura=datetime.date(2023, 6, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='6abd07b7-8a85-4e52-939e-a7202f6edf4a', id='4c5e66a0-d384-468b-8562-ecf02ad7d5b3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6587,16 +5503,12 @@
           <t>https://drive.google.com/file/d/1CztaX8WYwlTALoW_LHTTCBmC0bDZMiGL/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a692dfe5-5b49-4944-a419-29157c93557f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d3c07975-e35e-49c5-8636-a0d0e449796a', data_assinatura=datetime.date(2023, 6, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='d3c07975-e35e-49c5-8636-a0d0e449796a', id='a692dfe5-5b49-4944-a419-29157c93557f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6609,16 +5521,12 @@
           <t>https://drive.google.com/file/d/1D7C7c9VTkhsj06pZ24EyOQ3Ss_Jk5Ogj/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0baa748d-3c79-4323-a4e3-08e2d6fe9c47', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='0baa748d-3c79-4323-a4e3-08e2d6fe9c47', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6631,16 +5539,12 @@
           <t>https://drive.google.com/file/d/1D7NWL-rQ_IyTQAe6zjWOgxsvFzJrdjwy/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='df10a8ca-e6a3-45bd-a38e-02550ce89efa', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 23), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='df10a8ca-e6a3-45bd-a38e-02550ce89efa', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6653,16 +5557,12 @@
           <t>https://drive.google.com/file/d/1D9SyA8T8384NvS4DxdZ_NxJvIu4sGOsn/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='cdd29b99-e5f4-44b2-8205-db1dfa1b47dc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='cdd29b99-e5f4-44b2-8205-db1dfa1b47dc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6675,16 +5575,12 @@
           <t>https://drive.google.com/file/d/1-OG0Q9hFdEkdePukzGDZG6mXJruNmtz_/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='19898424-4050-4086-b55a-b47d22acafd8', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='19898424-4050-4086-b55a-b47d22acafd8', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6697,16 +5593,12 @@
           <t>https://drive.google.com/file/d/1-fXmX53yCUGjZc05JU64YwDnGMEKGa6e/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d83257dc-8f78-4146-8ac8-365d227d0419', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d83257dc-8f78-4146-8ac8-365d227d0419', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6719,16 +5611,12 @@
           <t>https://drive.google.com/file/d/13ZO0kx2qg44q84ka0P0NHA_IqivIcX__/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='cc09c277-2058-4056-bb7a-1a0eb139c4b6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='cc09c277-2058-4056-bb7a-1a0eb139c4b6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6741,16 +5629,12 @@
           <t>https://drive.google.com/file/d/182UK1cL7mONMTdf2cjZnbpxhxD0h4lud/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>more than one date</t>
-        </is>
-      </c>
+      <c r="D287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d190d9dd-f50d-4c82-9c16-0baa46d62fbe', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d190d9dd-f50d-4c82-9c16-0baa46d62fbe', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6763,16 +5647,12 @@
           <t>https://drive.google.com/file/d/186SdQjRIkB5f-cEYRPc8wDAz34kPri7C/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='2707fd5f-a810-4462-b2e4-93b70f804357', datafinal_vigencia=datetime.date(2022, 9, 19), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 19), datainicial_vigencia=datetime.date(2022, 8, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 19), datainicial_vigencia=datetime.date(2022, 8, 19), aprovacao_assembleia=False, id_documento_original=None, id='2707fd5f-a810-4462-b2e4-93b70f804357', datafinal_vigencia=datetime.date(2022, 9, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6785,16 +5665,12 @@
           <t>https://drive.google.com/file/d/188lZuQHL2mbHyMdYbOMGwuMOlomiNPhu/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c7ca57a7-a869-4266-981d-7ca427782b9c', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 2, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 16), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='c7ca57a7-a869-4266-981d-7ca427782b9c', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6807,16 +5683,12 @@
           <t>https://drive.google.com/file/d/18EDJtoYyW--uVuitfpp9UINnxy94gWrk/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ff294ba2-afac-416b-a4d5-560668989675', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='0baf6821-1c09-4a21-bc31-8e8cd4b706e6', data_assinatura=datetime.date(2023, 4, 4), datainicial_vigencia=datetime.date(2023, 4, 4), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 4), datainicial_vigencia=datetime.date(2023, 4, 4), aprovacao_assembleia=False, id_documento_original='0baf6821-1c09-4a21-bc31-8e8cd4b706e6', id='ff294ba2-afac-416b-a4d5-560668989675', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6829,16 +5701,12 @@
           <t>https://drive.google.com/file/d/18Fu3zg7Escm-0g6zyaX0ZB5Iilfge3B0/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='cd168730-1c0e-4825-ad51-1e90b0bd1788', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 3, 29), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='cd168730-1c0e-4825-ad51-1e90b0bd1788', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6851,16 +5719,12 @@
           <t>https://drive.google.com/file/d/136qHO_TL9yOIiqADSXEyg6H51IOISX20/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e9158396-4fc6-4cb7-86c9-8bdd31504a2b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='0a9cdd2c-ccfd-4628-a8e0-39463539825f', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='0a9cdd2c-ccfd-4628-a8e0-39463539825f', id='e9158396-4fc6-4cb7-86c9-8bdd31504a2b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6873,16 +5737,12 @@
           <t>https://drive.google.com/file/d/152hjc65l8WSVfYnzqX-bGwcmPp-zduG0/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e3cb6d5f-4845-44a0-9805-27affb7afd02', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='d71b9ca4-3a29-4f1c-9ea7-6147516ea5a1', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='d71b9ca4-3a29-4f1c-9ea7-6147516ea5a1', id='e3cb6d5f-4845-44a0-9805-27affb7afd02', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6895,16 +5755,12 @@
           <t>https://drive.google.com/file/d/17Fmu6HfnSX_tafVU5Ga6yAYLzr2kdr5_/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3c64b447-2a53-4d21-9d1b-193c2348c066', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3c64b447-2a53-4d21-9d1b-193c2348c066', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6917,16 +5773,12 @@
           <t>https://drive.google.com/file/d/18O4tUhfMeUKxbx3tOuyuwUUf_ZjNrFhE/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='4117ef2d-26d1-4895-94fc-b426f8ce9db9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 31), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 31), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='4117ef2d-26d1-4895-94fc-b426f8ce9db9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6939,16 +5791,12 @@
           <t>https://drive.google.com/file/d/18P6JEWp8BdvNeT7alW0_PERDTouK8Jey/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='16dce404-0fe3-4bcd-a4a1-2e0e8bc919df', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 6), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='16dce404-0fe3-4bcd-a4a1-2e0e8bc919df', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6961,16 +5809,12 @@
           <t>https://drive.google.com/file/d/18SqcqBV76PpzcCGRMycTfxRoUleK8SZP/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c1e5d0dc-984d-4b59-84d2-9a54c62f26a6', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='c1e5d0dc-984d-4b59-84d2-9a54c62f26a6', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6983,16 +5827,12 @@
           <t>https://drive.google.com/file/d/18WGgWvWquj4Z3yReIyVYx1pfmyhnZUud/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c938522e-cfc3-48fa-8a5e-ba24e5aaceec', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='c938522e-cfc3-48fa-8a5e-ba24e5aaceec', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -7005,16 +5845,12 @@
           <t>https://drive.google.com/file/d/14tzmWVuqQ7PdivzJkKkajf81I_dKNQ4P/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='316ed99a-d721-4366-860a-ea80b405f074', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 11, 4), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 11, 4), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='316ed99a-d721-4366-860a-ea80b405f074', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7027,16 +5863,12 @@
           <t>https://drive.google.com/file/d/18Nbt3jbJUNBBDv_B_emF4tiKXbwSsHU2/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='42f8cfd2-52b2-46fd-9832-f51c5742c140', datafinal_vigencia=datetime.date(2028, 3, 20), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 3, 20), datainicial_vigencia=datetime.date(2023, 3, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 3, 20), datainicial_vigencia=datetime.date(2023, 3, 20), aprovacao_assembleia=False, id_documento_original=None, id='42f8cfd2-52b2-46fd-9832-f51c5742c140', datafinal_vigencia=datetime.date(2028, 3, 20), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7049,16 +5881,12 @@
           <t>https://drive.google.com/file/d/18qQvVwsP9cimkOvNUy48zsu7iuuwQtEL/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0810ff86-ec8b-48a9-ae8b-93772417078b', datafinal_vigencia=datetime.date(2027, 10, 5), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 4, 5), datainicial_vigencia=datetime.date(2023, 4, 5), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 5), datainicial_vigencia=datetime.date(2023, 4, 5), aprovacao_assembleia=False, id_documento_original=None, id='0810ff86-ec8b-48a9-ae8b-93772417078b', datafinal_vigencia=datetime.date(2027, 10, 5), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7071,16 +5899,12 @@
           <t>https://drive.google.com/file/d/18s7ipRVWPLXo-Gmi4UP7-ipW-Nc0L53i/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='df1b7f75-a83c-4903-9a96-c039d220cbb2', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original='744e0527-868a-4619-a131-504fea5e5990', data_assinatura=datetime.date(2023, 4, 4), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 4, 4), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_assembleia=False, id_documento_original='744e0527-868a-4619-a131-504fea5e5990', id='df1b7f75-a83c-4903-9a96-c039d220cbb2', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7093,16 +5917,12 @@
           <t>https://drive.google.com/file/d/19-XkOP_bY8z7-yUpvOmxn8tiYLZtklMw/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c095fc1e-68dd-4a6e-8fdd-fe79670d869a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1Yf_BOJRzE1O_GTo-Gt1-PNjVI8q-c3CD/view?usp=drive_link', data_assinatura=datetime.date(2023, 10, 18), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 18), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1Yf_BOJRzE1O_GTo-Gt1-PNjVI8q-c3CD/view?usp=drive_link', id='c095fc1e-68dd-4a6e-8fdd-fe79670d869a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7115,16 +5935,12 @@
           <t>https://drive.google.com/file/d/15_Xsu_63h094iU8r4NtKwY6sB5w3oHSb/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f5377477-01bd-425f-bede-619845c7532a', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='77a1678c-3bf5-4cbd-9cd0-edb89bc4c022', id='f5377477-01bd-425f-bede-619845c7532a', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7137,16 +5953,12 @@
           <t>https://drive.google.com/file/d/19b1L8wLDH9x1o0fiog9dPCRoIWC-2ouQ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e90e2965-dbe0-4206-83f9-f9819b928628', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='561b4881-1216-4682-874d-ee660321494e', data_assinatura=datetime.date(2023, 2, 3), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 3), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='561b4881-1216-4682-874d-ee660321494e', id='e90e2965-dbe0-4206-83f9-f9819b928628', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7159,16 +5971,12 @@
           <t>https://drive.google.com/file/d/19d2tZghAiLGc1rKJzSSj43_N5byuvXNI/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d0a39bef-fcc1-4271-b2d8-6296a0e4c72e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 4), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 4), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d0a39bef-fcc1-4271-b2d8-6296a0e4c72e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7181,16 +5989,12 @@
           <t>https://drive.google.com/file/d/19m_YSND75OlMHzJ5a8gIT7ZrUFYgwpo_/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='534cfae7-da7f-4217-8411-019070c62e41', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='534cfae7-da7f-4217-8411-019070c62e41', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7203,16 +6007,12 @@
           <t>https://drive.google.com/file/d/19scLMqq1YgXQSAgCGm-P78elyW0zX34L/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='646bd5be-edf1-464a-96f5-e8d41390a71b', datafinal_vigencia=datetime.date(2024, 1, 31), aprovacao_assembleia=False, id_documento_original='8ff0ce4c-bcf7-4086-8142-e44b3c229962', data_assinatura=datetime.date(2022, 10, 31), datainicial_vigencia=datetime.date(2022, 8, 16), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 31), datainicial_vigencia=datetime.date(2022, 8, 16), aprovacao_assembleia=False, id_documento_original='8ff0ce4c-bcf7-4086-8142-e44b3c229962', id='646bd5be-edf1-464a-96f5-e8d41390a71b', datafinal_vigencia=datetime.date(2024, 1, 31), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7225,16 +6025,12 @@
           <t>https://drive.google.com/file/d/10eGfSmqzFqaN9PekWFg30ENIINZ_V2F2/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c003b37b-a892-4446-97b0-967e6954bf4a', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_assembleia=False, id_documento_original=None, id='c003b37b-a892-4446-97b0-967e6954bf4a', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7247,16 +6043,12 @@
           <t>https://drive.google.com/file/d/10z9aRCCCJnQk1hzrL1-Jqou-YIEttgHl/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ac38b94f-3ebe-4e34-aa6a-5fc013e1e29c', datafinal_vigencia=datetime.date(2024, 10, 19), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 6, 9), datainicial_vigencia=datetime.date(2022, 4, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 9), datainicial_vigencia=datetime.date(2022, 4, 19), aprovacao_assembleia=False, id_documento_original=None, id='ac38b94f-3ebe-4e34-aa6a-5fc013e1e29c', datafinal_vigencia=datetime.date(2024, 10, 19), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7269,16 +6061,12 @@
           <t>https://drive.google.com/file/d/10zc1rlSfWEok_I9G6sMQQg3VNu1RC7bJ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b0e394e8-8acc-4997-99a0-946063c17942', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 29), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 29), datainicial_vigencia=datetime.date(2022, 6, 1), aprovacao_assembleia=False, id_documento_original=None, id='b0e394e8-8acc-4997-99a0-946063c17942', datafinal_vigencia=datetime.date(2026, 12, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7291,16 +6079,12 @@
           <t>https://drive.google.com/file/d/11GyHpdIFiXdkUPNrqfHdUCFhUMdu_jmj/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f8b04147-9981-4ab3-a783-fe492bcae255', datafinal_vigencia=datetime.date(2026, 9, 21), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 28), datainicial_vigencia=datetime.date(2022, 3, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 28), datainicial_vigencia=datetime.date(2022, 3, 21), aprovacao_assembleia=False, id_documento_original=None, id='f8b04147-9981-4ab3-a783-fe492bcae255', datafinal_vigencia=datetime.date(2026, 9, 21), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7313,16 +6097,12 @@
           <t>https://drive.google.com/file/d/11LKmC9v_WkTSxEPQDsrXvx6_I1kwHGmB/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='9daab33b-a8ec-451a-823c-7f98565ad438', datafinal_vigencia=datetime.date(2027, 2, 1), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 8, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 13), datainicial_vigencia=datetime.date(2022, 8, 1), aprovacao_assembleia=False, id_documento_original=None, id='9daab33b-a8ec-451a-823c-7f98565ad438', datafinal_vigencia=datetime.date(2027, 2, 1), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7335,16 +6115,12 @@
           <t>https://drive.google.com/file/d/11WL6hse7ErIlngROcyxz0dHIlKj2h59f/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='43abd7e4-aefb-49f9-baca-2d85beb71bad', datafinal_vigencia=datetime.date(2026, 10, 7), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 7, 27), datainicial_vigencia=datetime.date(2022, 4, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 27), datainicial_vigencia=datetime.date(2022, 4, 7), aprovacao_assembleia=False, id_documento_original=None, id='43abd7e4-aefb-49f9-baca-2d85beb71bad', datafinal_vigencia=datetime.date(2026, 10, 7), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7357,16 +6133,12 @@
           <t>https://drive.google.com/file/d/11XUpQ9kN5Q4jon1TG-CVBljYsww1x6Hx/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='9c8f603d-59ec-4b1a-b318-4950fdd45e16', datafinal_vigencia=datetime.date(2025, 3, 21), aprovacao_assembleia=False, id_documento_original='4c286726-da6c-4ee0-a13f-df8540251430', data_assinatura=datetime.date(2022, 10, 27), datainicial_vigencia=datetime.date(2022, 7, 28), aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 10, 27), datainicial_vigencia=datetime.date(2022, 7, 28), aprovacao_assembleia=False, id_documento_original='4c286726-da6c-4ee0-a13f-df8540251430', id='9c8f603d-59ec-4b1a-b318-4950fdd45e16', datafinal_vigencia=datetime.date(2025, 3, 21), aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7379,16 +6151,12 @@
           <t>https://drive.google.com/file/d/11dB80yKqBEBWAk6OMjJgrbj4B1ECLpiO/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='20e6b3e7-4a28-474b-969b-839fe9ba7511', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='e3ba7932-18e7-4269-b6ab-d8854532e4d9', data_assinatura=datetime.date(2022, 7, 31), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 31), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='e3ba7932-18e7-4269-b6ab-d8854532e4d9', id='20e6b3e7-4a28-474b-969b-839fe9ba7511', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7401,16 +6169,12 @@
           <t>https://drive.google.com/file/d/1AUt_-MwaoNOn8Pc5JynzPf9FFuUWnyRW/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e521b09f-3cb6-40f4-8067-8f8e2d28d6e9', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='e521b09f-3cb6-40f4-8067-8f8e2d28d6e9', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7423,16 +6187,12 @@
           <t>https://drive.google.com/file/d/172rnLYTkeuPk1tmacfXVEvdjB-2LOJHY/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='c0c29263-c33c-4e3b-9722-6e49fe8da617', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='edfaae40-4fca-46bb-8240-805029b207e2', data_assinatura=datetime.date(2022, 7, 31), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 31), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='edfaae40-4fca-46bb-8240-805029b207e2', id='c0c29263-c33c-4e3b-9722-6e49fe8da617', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7445,16 +6205,12 @@
           <t>https://drive.google.com/file/d/1AXsNWEfumLjY9_rshGCEzsyjb90uQN9B/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='aad2769e-8af8-41a4-aea4-dc692558501e', datafinal_vigencia=datetime.date(2028, 7, 24), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 24), datainicial_vigencia=datetime.date(2023, 7, 24), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 24), datainicial_vigencia=datetime.date(2023, 7, 24), aprovacao_assembleia=False, id_documento_original=None, id='aad2769e-8af8-41a4-aea4-dc692558501e', datafinal_vigencia=datetime.date(2028, 7, 24), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7467,16 +6223,12 @@
           <t>https://drive.google.com/file/d/1AtvfsU9jVQkCJY610b2C8CRkt-xKsHgf/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b3175b45-5b3a-4299-ae6d-b9f69f8c4604', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='1d2dabe0-70c5-4942-88d1-c7db6ce3ec54', data_assinatura=datetime.date(2022, 7, 31), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 7, 31), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='1d2dabe0-70c5-4942-88d1-c7db6ce3ec54', id='b3175b45-5b3a-4299-ae6d-b9f69f8c4604', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7489,16 +6241,12 @@
           <t>https://drive.google.com/file/d/1BIfNrRJYe6Zr4PCtoWyWkDF75PuPdeFR/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=True, id='78fe9b36-7c4d-41b4-b98d-b33c31e77733', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 6, 27), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=True, data_assinatura=datetime.date(2023, 6, 27), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='78fe9b36-7c4d-41b4-b98d-b33c31e77733', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7511,16 +6259,12 @@
           <t>https://drive.google.com/file/d/1BKuYuTKbaFh2oVv-yqQRMPL5tE2m5VsS/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='460f733f-26df-467e-9d63-7aa92669d0a4', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='460f733f-26df-467e-9d63-7aa92669d0a4', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7533,16 +6277,12 @@
           <t>https://drive.google.com/file/d/1Bg1U5oY0I01crmiWBLTJCxLYyPYuO1L2/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='fb3e8360-fc9d-4e2e-a18d-2f82bac81d3e', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='99ce432c-00ee-45c9-9aa4-bfed84d0de44', data_assinatura=datetime.date(2023, 6, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 6, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='99ce432c-00ee-45c9-9aa4-bfed84d0de44', id='fb3e8360-fc9d-4e2e-a18d-2f82bac81d3e', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7555,16 +6295,12 @@
           <t>https://drive.google.com/file/d/1D7tVyz4VUMLPkujCfz-Kf4bS2erVyJat/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d1d30d9a-e161-4d78-8b3e-5c44d0da479d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d1d30d9a-e161-4d78-8b3e-5c44d0da479d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7577,16 +6313,12 @@
           <t>https://drive.google.com/file/d/1DwSbWTTiN3uZcs2BNkxTTIY-HOx0FAHe/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='1a3f8658-6527-4e8f-bc6c-eb1df5f321dd', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='1a3f8658-6527-4e8f-bc6c-eb1df5f321dd', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7599,16 +6331,12 @@
           <t>https://drive.google.com/file/d/1cOKVXBb6WK4ctot2UsJg3aTqY5z4PA54/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d69377f3-edd9-4d1c-8b51-56ac26937319', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d69377f3-edd9-4d1c-8b51-56ac26937319', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7621,16 +6349,12 @@
           <t>https://drive.google.com/file/d/1d1RGQ-RM7nVY0vZVqlKnIp8DAcnFQS2P/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5d73c039-8d54-4494-a12f-21568ae98432', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='22716bfa-2b11-4239-be66-5c7644e498d2', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='22716bfa-2b11-4239-be66-5c7644e498d2', id='5d73c039-8d54-4494-a12f-21568ae98432', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7643,16 +6367,12 @@
           <t>https://drive.google.com/file/d/1fHhNBUY2h16UE_JAj-Z0Z3KYqIvTwYdE/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0f96eee7-7520-4443-ae25-b1fa64e8f6aa', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='0f96eee7-7520-4443-ae25-b1fa64e8f6aa', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7665,16 +6385,12 @@
           <t>https://drive.google.com/file/d/1i03tZzeukqy3FFx-wfJuWvExtIXAXnZN/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='fbb0e94a-0798-4705-a0e2-6e73745da472', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='3ab7d583-a10d-4e9a-ae2f-d9621c602878', data_assinatura=datetime.date(2022, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 9, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='3ab7d583-a10d-4e9a-ae2f-d9621c602878', id='fbb0e94a-0798-4705-a0e2-6e73745da472', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7687,16 +6403,12 @@
           <t>https://drive.google.com/file/d/1kuM62WmOLDaIQu8q7AdIBLcui_P5Mr-h/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='8743661d-b106-42b8-abd1-1b1cc0c501da', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 6), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='8743661d-b106-42b8-abd1-1b1cc0c501da', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7709,16 +6421,12 @@
           <t>https://drive.google.com/file/d/1kxZIIj50pWsAO9azwH5rC61bAmpIIfbL/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0cec567f-ccfd-471d-b691-fb4eae329fde', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='9f834335-570d-4196-8691-63db7b3b36a4', data_assinatura=datetime.date(2022, 6, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 6, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='9f834335-570d-4196-8691-63db7b3b36a4', id='0cec567f-ccfd-471d-b691-fb4eae329fde', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7731,16 +6439,12 @@
           <t>https://drive.google.com/file/d/1uNKqRmVjhuDaFVtBOa6RSiqosyMRFLFA/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3d178f75-aa37-472a-827d-393467ec998b', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3d178f75-aa37-472a-827d-393467ec998b', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7753,16 +6457,12 @@
           <t>https://drive.google.com/file/d/1uZ53PHlzDpqtb3h58dJHST94_CldVf2G/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='33303b66-f1e8-4d58-9715-c068a431fd36', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 25), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 25), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='33303b66-f1e8-4d58-9715-c068a431fd36', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7775,16 +6475,12 @@
           <t>https://drive.google.com/file/d/1yAVz8GC3MP-nDGq4yCgpAXEgCwAK7A6b/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='024d63a6-0e04-4334-94f2-7677db687665', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 27), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 1, 27), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='024d63a6-0e04-4334-94f2-7677db687665', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7797,16 +6493,12 @@
           <t>https://drive.google.com/file/d/1z1ZEEGQI7vz6D8qIyQNkuDouAG9PoMtu/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3b32903a-acac-4f58-ba0d-db579009533f', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 8, 16), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 8, 16), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3b32903a-acac-4f58-ba0d-db579009533f', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7819,16 +6511,12 @@
           <t>https://drive.google.com/file/d/1z5reVGl8e1U4CMYudcjO9QJ-ClXBsdNa/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='e65ab997-1c54-4c65-85b9-ccb95b2b3778', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 4, 6), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 4, 6), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='e65ab997-1c54-4c65-85b9-ccb95b2b3778', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7841,16 +6529,12 @@
           <t>https://drive.google.com/file/d/1vN_yl9Z5QEZtWf3Z8HN5xVefY04_HBUm/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='dddb2b6e-99a1-4eb3-a3e2-549eacfa1b62', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2022, 12, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='dddb2b6e-99a1-4eb3-a3e2-549eacfa1b62', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7863,16 +6547,12 @@
           <t>https://drive.google.com/file/d/1w6WI5YQyct_wRLHa6PHh_aQmC3o1ut2a/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='a6856eb2-8ae8-4257-ad13-254923623a13', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 1, 23), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 1, 23), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='a6856eb2-8ae8-4257-ad13-254923623a13', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7885,16 +6565,12 @@
           <t>https://drive.google.com/file/d/1w96kLRWuA6icH5SYzQPwkGuIfcJXdoPJ/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b0ea33ec-06e4-4410-a3b2-f322335b9902', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='395bfed4-d197-472a-8e13-b8bdbfc7e2cd', data_assinatura=datetime.date(2023, 1, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 1, 11), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='395bfed4-d197-472a-8e13-b8bdbfc7e2cd', id='b0ea33ec-06e4-4410-a3b2-f322335b9902', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7907,16 +6583,12 @@
           <t>https://drive.google.com/file/d/1wFNNa7k4klIHs_CIqqNkOin31YsYYJ3h/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='0700d043-e470-4a8c-adc5-700f1f538709', datafinal_vigencia=datetime.date(2028, 7, 18), aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 7, 18), datainicial_vigencia=datetime.date(2023, 7, 18), aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 7, 18), datainicial_vigencia=datetime.date(2023, 7, 18), aprovacao_assembleia=False, id_documento_original=None, id='0700d043-e470-4a8c-adc5-700f1f538709', datafinal_vigencia=datetime.date(2028, 7, 18), aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7929,16 +6601,12 @@
           <t>https://drive.google.com/file/d/1wU27BLabCynrLrkGqDrzbMAOhWYtah-e/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='622e1944-d24c-4220-bc7d-13ebf3ff0a59', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 2, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='738eeae8-4fee-40bc-80bb-794f0907bd22', id='622e1944-d24c-4220-bc7d-13ebf3ff0a59', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7951,16 +6619,12 @@
           <t>https://drive.google.com/file/d/1xBAkA5qpP04FMATqWZt81ZjcVqRXw-zV/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='06769517-831b-486b-8e37-421ef9e04c76', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 9, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='fca30837-00fb-4cc6-9b5a-254368a90dc2', id='06769517-831b-486b-8e37-421ef9e04c76', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7973,16 +6637,12 @@
           <t>https://drive.google.com/file/d/1zsTrCG1hPGZFjlzJeSA6m7JEPRBDpd38/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='7a358aec-9772-4f5b-a614-60d2482922e8', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=None, datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=None, datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='7a358aec-9772-4f5b-a614-60d2482922e8', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7995,16 +6655,12 @@
           <t>https://drive.google.com/file/d/1eAD6Eaoab3_meTDOQlZ8FVbCu8V7LAk-/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='91892d35-09cd-43f3-8f82-dea577dfa8a7', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='91892d35-09cd-43f3-8f82-dea577dfa8a7', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -8017,16 +6673,12 @@
           <t>https://drive.google.com/file/d/1cYNeLzYs2R6M03ltN35954C29d6DAWr7/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='3f7ea2f2-25ca-44ec-b34f-64f909c9d051', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='3f7ea2f2-25ca-44ec-b34f-64f909c9d051', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8048,7 +6700,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='719a4ec0-99b3-4317-b246-8577dcfc4855', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='719a4ec0-99b3-4317-b246-8577dcfc4855', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8061,16 +6713,12 @@
           <t>https://drive.google.com/file/d/16r9Lr_veob5BnZjA_GHyAOs8UbFMV3cb/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='72979fc6-32ec-4cee-af7f-26f3444753fc', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 12, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='72979fc6-32ec-4cee-af7f-26f3444753fc', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8083,16 +6731,12 @@
           <t>https://drive.google.com/file/d/13WtzvtVosedrQNbrTbNj3UPiZOhiaSZm/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='ebbeb3db-a876-4e9b-aa22-73cd10bdd759', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 8, 21), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='ebbeb3db-a876-4e9b-aa22-73cd10bdd759', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -8105,16 +6749,12 @@
           <t>https://drive.google.com/file/d/1WQKEg88IDygV2857pFxeShBpwKbzVglz/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d2bcd4d5-8090-4b88-a687-a720831622a5', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 25), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 25), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d2bcd4d5-8090-4b88-a687-a720831622a5', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8127,16 +6767,12 @@
           <t>https://drive.google.com/file/d/1Y22pAIHZYz5vPCCqDbB6cgkjVR-n4mUw/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='5d44345e-f1e1-4284-9604-4d0cd11526d1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2023, 10, 13), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 10, 13), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='5d44345e-f1e1-4284-9604-4d0cd11526d1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -8149,16 +6785,12 @@
           <t>https://drive.google.com/file/d/1c68a7St20-wchkLoRbPka-_GYhwmsoCi/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d576ebc6-0ba0-420b-9b45-0a1799fab3a3', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, data_assinatura=datetime.date(2024, 1, 8), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2024, 1, 8), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original=None, id='d576ebc6-0ba0-420b-9b45-0a1799fab3a3', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade=None)</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -8171,16 +6803,12 @@
           <t>https://drive.google.com/file/d/1kaZKSyYlhykrGbix5D-Nli9XuXYbnvAW/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b1771209-d5fd-4b87-a679-5024c71cbb77', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1NlFzU4fpRYcdQUDTgYECX1UdEAWPUQdd/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1NlFzU4fpRYcdQUDTgYECX1UdEAWPUQdd/view?usp=drive_link', id='b1771209-d5fd-4b87-a679-5024c71cbb77', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -8193,16 +6821,12 @@
           <t>https://drive.google.com/file/d/1VipzVyOiXF0B0NoVdTIw2NMuWhWnRCrh/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='53d04270-9bd9-4f96-9943-5b2d7eb1dda1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1KdysFHuVhnELFNQFNHmhWGt-Q0EYUcrK/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1KdysFHuVhnELFNQFNHmhWGt-Q0EYUcrK/view?usp=drive_link', id='53d04270-9bd9-4f96-9943-5b2d7eb1dda1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -8215,16 +6839,12 @@
           <t>https://drive.google.com/file/d/1XTaYY8ATBxiQyVs34jmNPxwh7rk48PP5/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='b7066dc3-8e31-426c-b8b4-b541d54fb130', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1-OG0Q9hFdEkdePukzGDZG6mXJruNmtz_/view?usp=drive_link', data_assinatura=datetime.date(2024, 1, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2024, 1, 11), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1-OG0Q9hFdEkdePukzGDZG6mXJruNmtz_/view?usp=drive_link', id='b7066dc3-8e31-426c-b8b4-b541d54fb130', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -8237,16 +6857,12 @@
           <t>https://drive.google.com/file/d/1fQwL3-1aeMxJvx0nxNmhz9HW7UzTUPyh/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>more than one date</t>
-        </is>
-      </c>
+      <c r="D355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='f1fd75c7-b7f0-48be-a1f5-b644fab21cf1', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/18oGdq_AUcPi1txcRPGW4Mu3c0REp23xA/view?usp=drive_link', data_assinatura=datetime.date(2024, 1, 11), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2024, 1, 11), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/18oGdq_AUcPi1txcRPGW4Mu3c0REp23xA/view?usp=drive_link', id='f1fd75c7-b7f0-48be-a1f5-b644fab21cf1', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -8259,16 +6875,12 @@
           <t>https://drive.google.com/file/d/1IAAAdk3hWP5GCYdvwO9u1UHzKyFRZe2V/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>more than one date</t>
-        </is>
-      </c>
+      <c r="D356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='43b124ac-a3a4-4a55-a42f-101f51df4eaa', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1bZbQwPzyUlBAKEQULUUP2USJumHmOpSb/view?usp=drive_link', data_assinatura=datetime.date(2024, 1, 5), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2024, 1, 5), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1bZbQwPzyUlBAKEQULUUP2USJumHmOpSb/view?usp=drive_link', id='43b124ac-a3a4-4a55-a42f-101f51df4eaa', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -8281,16 +6893,12 @@
           <t>https://drive.google.com/file/d/1VNTp_XhKSujCQdxhdxXwk4--7mkCdu9O/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='d5a8d98d-f1eb-477a-ace2-c3cd146eef10', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1KsWkB24waq2W8sp16ed7mt9x5sxjIR7z/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1KsWkB24waq2W8sp16ed7mt9x5sxjIR7z/view?usp=drive_link', id='d5a8d98d-f1eb-477a-ace2-c3cd146eef10', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -8303,16 +6911,12 @@
           <t>https://drive.google.com/file/d/1umQICgQh1astJfgyaYSf5bLZgp2WlGQz/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='12b6e09d-8beb-4925-a411-29bbbb777783', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/181vwWefxCIqjRHYK5m9ufuPJfRKcwY_2/view?usp=drive_link', data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 5, 1), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/181vwWefxCIqjRHYK5m9ufuPJfRKcwY_2/view?usp=drive_link', id='12b6e09d-8beb-4925-a411-29bbbb777783', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -8325,16 +6929,12 @@
           <t>https://drive.google.com/file/d/1U6G57_5fXe7Wt7n5WSHfajt_NtKAg792/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
+      <c r="D359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='41487355-570f-4912-94b9-bf39a6ed0786', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1Cf47MCZInGnhGXzGbdBeXelfamZ9PU81/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1Cf47MCZInGnhGXzGbdBeXelfamZ9PU81/view?usp=drive_link', id='41487355-570f-4912-94b9-bf39a6ed0786', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -8347,16 +6947,12 @@
           <t>https://drive.google.com/file/d/1n5jeuxPxcShcUTmuNDMnL4Pu-RHTg4Cn/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='456c43bd-cea5-415f-a6bb-2ae6601a5b2d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1rxpKHWt7BvUW6Ds2zesa8jF9B2CJOyqN/view?usp=drive_link', data_assinatura=datetime.date(2023, 11, 15), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 11, 15), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1rxpKHWt7BvUW6Ds2zesa8jF9B2CJOyqN/view?usp=drive_link', id='456c43bd-cea5-415f-a6bb-2ae6601a5b2d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -8369,16 +6965,12 @@
           <t>https://drive.google.com/file/d/1rxpKHWt7BvUW6Ds2zesa8jF9B2CJOyqN/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Vigency(licenciamento=False, id='364dd4e2-b3f9-49e3-9482-46b60fafda0d', datafinal_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1-fXmX53yCUGjZc05JU64YwDnGMEKGa6e/view?usp=drive_link', data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
+          <t>Vigency(licenciamento=False, data_assinatura=datetime.date(2023, 12, 12), datainicial_vigencia=None, aprovacao_assembleia=False, id_documento_original='https://drive.google.com/file/d/1-fXmX53yCUGjZc05JU64YwDnGMEKGa6e/view?usp=drive_link', id='364dd4e2-b3f9-49e3-9482-46b60fafda0d', datafinal_vigencia=None, aprovacao_conselho=False, clausula_exclusividade='')</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -8391,11 +6983,7 @@
           <t>https://drive.google.com/file/d/1tgzYdltGypkY8Py7Mor0vBD9a6ITHqeb/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>wrong date</t>
-        </is>
-      </c>
+      <c r="D362" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
